--- a/src/main/resources/input_excel_file/flow_definition.xlsx
+++ b/src/main/resources/input_excel_file/flow_definition.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="11460"/>
   </bookViews>
   <sheets>
-    <sheet name="flow" sheetId="1" r:id="rId1"/>
+    <sheet name="flow_1_player" sheetId="1" r:id="rId1"/>
+    <sheet name="flow_4_player" sheetId="2" r:id="rId2"/>
+    <sheet name="VC_1_player" sheetId="3" r:id="rId3"/>
+    <sheet name="booking_at_tee_time" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="48">
   <si>
     <t>flow_id</t>
   </si>
@@ -50,6 +53,9 @@
     <t>get_booking_price_case_id</t>
   </si>
   <si>
+    <t>edit_booking_at_tee_time_id</t>
+  </si>
+  <si>
     <t>FLOW_001</t>
   </si>
   <si>
@@ -71,6 +77,9 @@
     <t>BP_001</t>
   </si>
   <si>
+    <t>ED_TT_001</t>
+  </si>
+  <si>
     <t>FLOW_002</t>
   </si>
   <si>
@@ -83,6 +92,9 @@
     <t>BB_002</t>
   </si>
   <si>
+    <t>ED_TT_002</t>
+  </si>
+  <si>
     <t>FLOW_003</t>
   </si>
   <si>
@@ -92,6 +104,9 @@
     <t>BB_003</t>
   </si>
   <si>
+    <t>ED_TT_003</t>
+  </si>
+  <si>
     <t>FLOW_004</t>
   </si>
   <si>
@@ -104,6 +119,9 @@
     <t>BB_004</t>
   </si>
   <si>
+    <t>ED_TT_004</t>
+  </si>
+  <si>
     <t>FLOW_005</t>
   </si>
   <si>
@@ -114,6 +132,48 @@
   </si>
   <si>
     <t>BB_005</t>
+  </si>
+  <si>
+    <t>ED_TT_005</t>
+  </si>
+  <si>
+    <t>create_booking_4_player_case_id</t>
+  </si>
+  <si>
+    <t>BB_4_PLAYER_001</t>
+  </si>
+  <si>
+    <t>BB_4_PLAYER_002</t>
+  </si>
+  <si>
+    <t>QF_003</t>
+  </si>
+  <si>
+    <t>BB_4_PLAYER_003</t>
+  </si>
+  <si>
+    <t>BB_4_PLAYER_004</t>
+  </si>
+  <si>
+    <t>BB_4_PLAYER_005</t>
+  </si>
+  <si>
+    <t>create_booking_Voucher_case_id</t>
+  </si>
+  <si>
+    <t>BB_VC_VST_001</t>
+  </si>
+  <si>
+    <t>BB_VC_VST_002</t>
+  </si>
+  <si>
+    <t>BB_VC_VST_003</t>
+  </si>
+  <si>
+    <t>BB_VC_VST_004</t>
+  </si>
+  <si>
+    <t>BB_VC_VST_005</t>
   </si>
 </sst>
 </file>
@@ -126,14 +186,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,172 +688,175 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1122,10 +1178,539 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.2857142857143" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5714285714286" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.1428571428571" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.2857142857143" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.8571428571429" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.2857142857143" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5714285714286" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.2857142857143" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.2857142857143" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5714285714286" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.2857142857143" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5714285714286" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.2857142857143" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1165,119 +1750,119 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/input_excel_file/flow_definition.xlsx
+++ b/src/main/resources/input_excel_file/flow_definition.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11460"/>
+    <workbookView windowWidth="30240" windowHeight="13080" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="flow_1_player" sheetId="1" r:id="rId1"/>
     <sheet name="flow_4_player" sheetId="2" r:id="rId2"/>
     <sheet name="VC_1_player" sheetId="3" r:id="rId3"/>
     <sheet name="booking_at_tee_time" sheetId="4" r:id="rId4"/>
+    <sheet name="Test" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="49">
   <si>
     <t>flow_id</t>
   </si>
@@ -174,6 +175,9 @@
   </si>
   <si>
     <t>BB_VC_VST_005</t>
+  </si>
+  <si>
+    <t>Booking khách lẻ sửa booking tại tee time</t>
   </si>
 </sst>
 </file>
@@ -181,10 +185,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -691,16 +695,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -833,7 +837,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -854,9 +858,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -867,7 +868,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1180,21 +1181,21 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.2857142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.2857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1428571428571" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1428571428571" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.2890625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.2890625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.2857142857143" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5714285714286" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.1428571428571" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.2857142857143" style="1"/>
+    <col min="6" max="6" width="22.2890625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.2890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -1223,7 +1224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="17" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1245,11 +1246,11 @@
       <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="17" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1271,11 +1272,11 @@
       <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="30" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="17" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1295,11 +1296,11 @@
       <c r="G4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:8">
+    <row r="5" s="1" customFormat="1" ht="17" spans="1:8">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1321,11 +1322,11 @@
       <c r="G5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:8">
+    <row r="6" s="1" customFormat="1" ht="17" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -1347,7 +1348,7 @@
       <c r="G6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1366,17 +1367,17 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.2857142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.2857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1428571428571" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.8571428571429" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.2857142857143" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5714285714286" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.2857142857143" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.2857142857143" style="1"/>
+    <col min="1" max="1" width="17.2890625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.2890625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.859375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.2890625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.2890625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.2890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -1405,7 +1406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="17" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1427,11 +1428,11 @@
       <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="17" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1453,11 +1454,11 @@
       <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="30" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="17" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1479,11 +1480,11 @@
       <c r="G4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:8">
+    <row r="5" s="1" customFormat="1" ht="17" spans="1:8">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1505,11 +1506,11 @@
       <c r="G5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:8">
+    <row r="6" s="1" customFormat="1" ht="17" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -1531,7 +1532,7 @@
       <c r="G6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1550,16 +1551,16 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17.2857142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.2857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1428571428571" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5714285714286" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.2857142857143" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5714285714286" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.2857142857143" style="1"/>
+    <col min="1" max="1" width="17.2890625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.2890625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.2890625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.2890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:7">
@@ -1585,7 +1586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    <row r="2" s="1" customFormat="1" ht="17" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1598,7 +1599,7 @@
       <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -1608,7 +1609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="17" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1621,7 +1622,7 @@
       <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1631,7 +1632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="30" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="17" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1642,7 +1643,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -1652,7 +1653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:7">
+    <row r="5" s="1" customFormat="1" ht="17" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1665,7 +1666,7 @@
       <c r="D5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>46</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -1675,7 +1676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
+    <row r="6" s="1" customFormat="1" ht="17" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -1688,7 +1689,7 @@
       <c r="D6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>47</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -1713,16 +1714,16 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17.2857142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.2857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1428571428571" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1428571428571" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.2890625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.2890625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.2857142857143" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5714285714286" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.2857142857143" style="1"/>
+    <col min="6" max="6" width="22.2890625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.2890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:7">
@@ -1748,7 +1749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    <row r="2" s="1" customFormat="1" ht="17" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1771,7 +1772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="17" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1794,7 +1795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="30" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="17" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1815,7 +1816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:7">
+    <row r="5" s="1" customFormat="1" ht="17" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1838,7 +1839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
+    <row r="6" s="1" customFormat="1" ht="17" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -1859,6 +1860,86 @@
       </c>
       <c r="G6" s="5" t="s">
         <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="17.2890625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.2890625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.2890625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.2890625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="34" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input_excel_file/flow_definition.xlsx
+++ b/src/main/resources/input_excel_file/flow_definition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13080" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="flow_1_player" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="52">
   <si>
     <t>flow_id</t>
   </si>
@@ -102,6 +102,9 @@
     <t>Kiểm tra flow booking member guest</t>
   </si>
   <si>
+    <t>QF_003</t>
+  </si>
+  <si>
     <t>BB_003</t>
   </si>
   <si>
@@ -135,30 +138,30 @@
     <t>BB_005</t>
   </si>
   <si>
+    <t>ED_TT_006</t>
+  </si>
+  <si>
+    <t>create_booking_4_player_case_id</t>
+  </si>
+  <si>
+    <t>BB_4_PLAYER_001</t>
+  </si>
+  <si>
+    <t>BB_4_PLAYER_002</t>
+  </si>
+  <si>
+    <t>BB_4_PLAYER_003</t>
+  </si>
+  <si>
+    <t>BB_4_PLAYER_004</t>
+  </si>
+  <si>
+    <t>BB_4_PLAYER_005</t>
+  </si>
+  <si>
     <t>ED_TT_005</t>
   </si>
   <si>
-    <t>create_booking_4_player_case_id</t>
-  </si>
-  <si>
-    <t>BB_4_PLAYER_001</t>
-  </si>
-  <si>
-    <t>BB_4_PLAYER_002</t>
-  </si>
-  <si>
-    <t>QF_003</t>
-  </si>
-  <si>
-    <t>BB_4_PLAYER_003</t>
-  </si>
-  <si>
-    <t>BB_4_PLAYER_004</t>
-  </si>
-  <si>
-    <t>BB_4_PLAYER_005</t>
-  </si>
-  <si>
     <t>create_booking_Voucher_case_id</t>
   </si>
   <si>
@@ -177,7 +180,13 @@
     <t>BB_VC_VST_005</t>
   </si>
   <si>
-    <t>Booking khách lẻ sửa booking tại tee time</t>
+    <t>edit_booking_1_player_id</t>
+  </si>
+  <si>
+    <t>EB_001</t>
+  </si>
+  <si>
+    <t>EB_002</t>
   </si>
 </sst>
 </file>
@@ -185,10 +194,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -695,16 +704,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -837,7 +846,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -854,10 +863,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -868,7 +880,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1182,20 +1194,20 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.2890625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.2890625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1428571428571" style="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.2890625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.2890625" style="1"/>
+    <col min="6" max="6" width="22.2857142857143" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5714285714286" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.1428571428571" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -1224,7 +1236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="17" spans="1:8">
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1237,7 +1249,7 @@
       <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -1246,11 +1258,11 @@
       <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="17" spans="1:8">
+    <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1263,7 +1275,7 @@
       <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1272,11 +1284,11 @@
       <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="17" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="30" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1286,70 +1298,72 @@
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="17" spans="1:8">
+      <c r="H4" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="E5" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="17" spans="1:8">
+      <c r="H5" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="E6" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>34</v>
+      <c r="H6" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1367,17 +1381,17 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.2890625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.2890625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.859375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.2890625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.2890625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.2890625" style="1"/>
+    <col min="1" max="1" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.8571428571429" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.2857142857143" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5714285714286" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.2857142857143" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -1394,7 +1408,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
@@ -1406,7 +1420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="17" spans="1:8">
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1416,11 +1430,11 @@
       <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>36</v>
+      <c r="E2" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>13</v>
@@ -1428,11 +1442,11 @@
       <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="17" spans="1:8">
+    <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1442,11 +1456,11 @@
       <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>37</v>
+      <c r="E3" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>13</v>
@@ -1454,11 +1468,11 @@
       <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="17" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="30" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1468,10 +1482,10 @@
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -1480,24 +1494,24 @@
       <c r="G4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="17" spans="1:8">
+      <c r="H4" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>40</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -1506,24 +1520,24 @@
       <c r="G5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="17" spans="1:8">
+      <c r="H5" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -1532,8 +1546,8 @@
       <c r="G6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>34</v>
+      <c r="H6" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1551,16 +1565,16 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17.2890625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.2890625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.2890625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.2890625" style="1"/>
+    <col min="1" max="1" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5714285714286" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.2857142857143" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5714285714286" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:7">
@@ -1577,7 +1591,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
@@ -1586,7 +1600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="17" spans="1:7">
+    <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1596,11 +1610,11 @@
       <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>43</v>
+      <c r="E2" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>13</v>
@@ -1609,7 +1623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="17" spans="1:7">
+    <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1619,11 +1633,11 @@
       <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>44</v>
+      <c r="E3" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>13</v>
@@ -1632,7 +1646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="17" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1642,9 +1656,9 @@
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>45</v>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>13</v>
@@ -1653,21 +1667,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="17" spans="1:7">
+    <row r="5" s="1" customFormat="1" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>46</v>
+      <c r="D5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
@@ -1676,21 +1690,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="17" spans="1:7">
+    <row r="6" s="1" customFormat="1" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>47</v>
+      <c r="D6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>13</v>
@@ -1710,20 +1724,20 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17.2890625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.2890625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1428571428571" style="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.2890625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.2890625" style="1"/>
+    <col min="6" max="6" width="22.2857142857143" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5714285714286" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:7">
@@ -1749,7 +1763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="17" spans="1:7">
+    <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1759,10 +1773,10 @@
       <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -1772,7 +1786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="17" spans="1:7">
+    <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1782,10 +1796,10 @@
       <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1795,7 +1809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="17" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1805,9 +1819,9 @@
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
-        <v>23</v>
+      <c r="D4" s="8"/>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>13</v>
@@ -1816,22 +1830,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="17" spans="1:7">
+    <row r="5" s="1" customFormat="1" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="E5" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1839,21 +1853,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="17" spans="1:7">
+    <row r="6" s="1" customFormat="1" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>33</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>13</v>
@@ -1871,23 +1885,23 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.2890625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.2890625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1428571428571" style="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.2890625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.2890625" style="1"/>
+    <col min="6" max="6" width="22.2857142857143" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5714285714286" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.1428571428571" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -1913,15 +1927,15 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="34" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>10</v>
@@ -1929,17 +1943,121 @@
       <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>15</v>
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input_excel_file/flow_definition.xlsx
+++ b/src/main/resources/input_excel_file/flow_definition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="flow_1_player" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="57">
   <si>
     <t>flow_id</t>
   </si>
@@ -180,13 +180,28 @@
     <t>BB_VC_VST_005</t>
   </si>
   <si>
-    <t>edit_booking_1_player_id</t>
-  </si>
-  <si>
-    <t>EB_001</t>
-  </si>
-  <si>
-    <t>EB_002</t>
+    <t>check_in_bag_id</t>
+  </si>
+  <si>
+    <t>undo_check_in_bag_id</t>
+  </si>
+  <si>
+    <t>CI_001</t>
+  </si>
+  <si>
+    <t>UCI_001</t>
+  </si>
+  <si>
+    <t>CI_002</t>
+  </si>
+  <si>
+    <t>CI_003</t>
+  </si>
+  <si>
+    <t>CI_004</t>
+  </si>
+  <si>
+    <t>CI_005</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +1393,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1724,7 +1739,7 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1885,13 +1900,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="17.2857142857143" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.2857142857143" style="1" customWidth="1"/>
@@ -1900,11 +1915,12 @@
     <col min="5" max="5" width="29" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.2857142857143" style="1" customWidth="1"/>
     <col min="7" max="7" width="30.5714285714286" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.1428571428571" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.2857142857143" style="1"/>
+    <col min="8" max="8" width="19.2857142857143" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1929,8 +1945,11 @@
       <c r="H1" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="I1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1953,10 +1972,13 @@
         <v>14</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1979,10 +2001,13 @@
         <v>14</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="30" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="30" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -2005,10 +2030,13 @@
         <v>14</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -2031,10 +2059,13 @@
         <v>14</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
@@ -2057,7 +2088,10 @@
         <v>14</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input_excel_file/flow_definition.xlsx
+++ b/src/main/resources/input_excel_file/flow_definition.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="flow_1_player" sheetId="1" r:id="rId1"/>
     <sheet name="flow_4_player" sheetId="2" r:id="rId2"/>
     <sheet name="VC_1_player" sheetId="3" r:id="rId3"/>
-    <sheet name="booking_at_tee_time" sheetId="4" r:id="rId4"/>
-    <sheet name="Test" sheetId="5" r:id="rId5"/>
+    <sheet name="Test" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="76">
   <si>
     <t>flow_id</t>
   </si>
@@ -57,6 +56,18 @@
     <t>edit_booking_at_tee_time_id</t>
   </si>
   <si>
+    <t>check_in_bag_id</t>
+  </si>
+  <si>
+    <t>check_in_ekyc_id</t>
+  </si>
+  <si>
+    <t>create_flight_1_player_id</t>
+  </si>
+  <si>
+    <t>out_all_flight_id</t>
+  </si>
+  <si>
     <t>FLOW_001</t>
   </si>
   <si>
@@ -78,7 +89,13 @@
     <t>BP_001</t>
   </si>
   <si>
-    <t>ED_TT_001</t>
+    <t>CI_001</t>
+  </si>
+  <si>
+    <t>CF_001</t>
+  </si>
+  <si>
+    <t>Out_All_Flight_001</t>
   </si>
   <si>
     <t>FLOW_002</t>
@@ -93,7 +110,10 @@
     <t>BB_002</t>
   </si>
   <si>
-    <t>ED_TT_002</t>
+    <t>ED_TT_007</t>
+  </si>
+  <si>
+    <t>CI_EKYC_001</t>
   </si>
   <si>
     <t>FLOW_003</t>
@@ -108,7 +128,7 @@
     <t>BB_003</t>
   </si>
   <si>
-    <t>ED_TT_003</t>
+    <t>CI_003</t>
   </si>
   <si>
     <t>FLOW_004</t>
@@ -123,7 +143,7 @@
     <t>BB_004</t>
   </si>
   <si>
-    <t>ED_TT_004</t>
+    <t>CI_004</t>
   </si>
   <si>
     <t>FLOW_005</t>
@@ -138,7 +158,7 @@
     <t>BB_005</t>
   </si>
   <si>
-    <t>ED_TT_006</t>
+    <t>CI_005</t>
   </si>
   <si>
     <t>create_booking_4_player_case_id</t>
@@ -147,19 +167,79 @@
     <t>BB_4_PLAYER_001</t>
   </si>
   <si>
+    <t>CI_PLAYER1_001</t>
+  </si>
+  <si>
+    <t>CI_PLAYER2_001</t>
+  </si>
+  <si>
+    <t>CI_PLAYER3_001</t>
+  </si>
+  <si>
+    <t>CI_PLAYER4_001</t>
+  </si>
+  <si>
+    <t>CF_4_PLAYER_001</t>
+  </si>
+  <si>
     <t>BB_4_PLAYER_002</t>
   </si>
   <si>
+    <t>CI_PLAYER1_002</t>
+  </si>
+  <si>
+    <t>CI_PLAYER2_002</t>
+  </si>
+  <si>
+    <t>CI_PLAYER3_002</t>
+  </si>
+  <si>
+    <t>CI_PLAYER4_002</t>
+  </si>
+  <si>
     <t>BB_4_PLAYER_003</t>
   </si>
   <si>
+    <t>CI_PLAYER1_003</t>
+  </si>
+  <si>
+    <t>CI_PLAYER2_003</t>
+  </si>
+  <si>
+    <t>CI_PLAYER3_003</t>
+  </si>
+  <si>
+    <t>CI_PLAYER4_003</t>
+  </si>
+  <si>
     <t>BB_4_PLAYER_004</t>
   </si>
   <si>
+    <t>CI_PLAYER1_004</t>
+  </si>
+  <si>
+    <t>CI_PLAYER2_004</t>
+  </si>
+  <si>
+    <t>CI_PLAYER3_004</t>
+  </si>
+  <si>
+    <t>CI_PLAYER4_004</t>
+  </si>
+  <si>
     <t>BB_4_PLAYER_005</t>
   </si>
   <si>
-    <t>ED_TT_005</t>
+    <t>CI_PLAYER1_005</t>
+  </si>
+  <si>
+    <t>CI_PLAYER2_005</t>
+  </si>
+  <si>
+    <t>CI_PLAYER3_005</t>
+  </si>
+  <si>
+    <t>CI_PLAYER4_005</t>
   </si>
   <si>
     <t>create_booking_Voucher_case_id</t>
@@ -178,30 +258,6 @@
   </si>
   <si>
     <t>BB_VC_VST_005</t>
-  </si>
-  <si>
-    <t>check_in_bag_id</t>
-  </si>
-  <si>
-    <t>undo_check_in_bag_id</t>
-  </si>
-  <si>
-    <t>CI_001</t>
-  </si>
-  <si>
-    <t>UCI_001</t>
-  </si>
-  <si>
-    <t>CI_002</t>
-  </si>
-  <si>
-    <t>CI_003</t>
-  </si>
-  <si>
-    <t>CI_004</t>
-  </si>
-  <si>
-    <t>CI_005</t>
   </si>
 </sst>
 </file>
@@ -380,7 +436,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,6 +458,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,7 +799,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,16 +823,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -779,89 +841,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -878,13 +940,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1206,26 +1271,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="17.2857142857143" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.2857142857143" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.1428571428571" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.2857142857143" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5714285714286" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7142857142857" style="1" customWidth="1"/>
     <col min="8" max="8" width="31.1428571428571" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.2857142857143" style="1"/>
+    <col min="9" max="9" width="15.1428571428571" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5714285714286" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5714285714286" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1250,135 +1319,187 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    <row r="2" s="1" customFormat="1" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:12">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>15</v>
+      <c r="D3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="4" s="1" customFormat="1" ht="30" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="D5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A4" s="3" t="s">
+      <c r="L6" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:8">
-      <c r="A6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1390,26 +1511,31 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="17.2857142857143" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.2857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1428571428571" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.8571428571429" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.4285714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7142857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="1" customWidth="1"/>
     <col min="7" max="7" width="30.5714285714286" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.2857142857143" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.2857142857143" style="1"/>
+    <col min="8" max="8" width="19" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.8571428571429" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.4285714285714" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7142857142857" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.8571428571429" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1423,7 +1549,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
@@ -1432,137 +1558,227 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="30" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="30" spans="1:13">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>15</v>
+      <c r="D3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="4" s="1" customFormat="1" ht="30" spans="1:13">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="H4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="30" spans="1:13">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="30" spans="1:13">
+      <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A4" s="3" t="s">
+      <c r="D6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:8">
-      <c r="A6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1606,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
@@ -1617,115 +1833,115 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="G3" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>48</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1737,25 +1953,31 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="17.2857142857143" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.2857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1428571428571" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.2857142857143" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5714285714286" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.2857142857143" style="1"/>
+    <col min="3" max="3" width="19.4285714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7142857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.8571428571429" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.4285714285714" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7142857142857" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.8571428571429" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="60" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1769,7 +1991,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
@@ -1777,321 +1999,64 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    <row r="2" s="1" customFormat="1" ht="30" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A4" s="3" t="s">
+      <c r="H2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
-      <c r="A6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5"/>
-  <cols>
-    <col min="1" max="1" width="17.2857142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.2857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1428571428571" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.2857142857143" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5714285714286" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.2857142857143" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.2857142857143" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:9">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:9">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:9">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="30" spans="1:9">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:9">
-      <c r="A5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:9">
-      <c r="A6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input_excel_file/flow_definition.xlsx
+++ b/src/main/resources/input_excel_file/flow_definition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="11460" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="flow_1_player" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="108">
   <si>
     <t>flow_id</t>
   </si>
@@ -62,7 +62,7 @@
     <t>check_in_ekyc_id</t>
   </si>
   <si>
-    <t>create_flight_1_player_id</t>
+    <t>create_flight_id</t>
   </si>
   <si>
     <t>out_all_flight_id</t>
@@ -164,6 +164,42 @@
     <t>create_booking_4_player_case_id</t>
   </si>
   <si>
+    <t>simple_out_flight_player1_id</t>
+  </si>
+  <si>
+    <t>simple_out_flight_player2_id</t>
+  </si>
+  <si>
+    <t>simple_out_flight_player3_id</t>
+  </si>
+  <si>
+    <t>simple_out_flight_player4_id</t>
+  </si>
+  <si>
+    <t>undo_out_flight_player1_id</t>
+  </si>
+  <si>
+    <t>undo_out_flight_player2_id</t>
+  </si>
+  <si>
+    <t>undo_out_flight_player3_id</t>
+  </si>
+  <si>
+    <t>undo_out_flight_player4_id</t>
+  </si>
+  <si>
+    <t>delete_attach_flight_player1_id</t>
+  </si>
+  <si>
+    <t>delete_attach_flight_player2_id</t>
+  </si>
+  <si>
+    <t>delete_attach_flight_player3_id</t>
+  </si>
+  <si>
+    <t>delete_attach_flight_player4_id</t>
+  </si>
+  <si>
     <t>BB_4_PLAYER_001</t>
   </si>
   <si>
@@ -182,6 +218,45 @@
     <t>CF_4_PLAYER_001</t>
   </si>
   <si>
+    <t>OUT_All_FLIGHT_001</t>
+  </si>
+  <si>
+    <t>SIMPLE_OUT_FLIGHT_PLAYER1_001</t>
+  </si>
+  <si>
+    <t>SIMPLE_OUT_FLIGHT_PLAYER2_001</t>
+  </si>
+  <si>
+    <t>SIMPLE_OUT_FLIGHT_PLAYER3_001</t>
+  </si>
+  <si>
+    <t>SIMPLE_OUT_FLIGHT_PLAYER4_001</t>
+  </si>
+  <si>
+    <t>UNDO_OUT_FLIGHT_PLAYER1_001</t>
+  </si>
+  <si>
+    <t>UNDO_OUT_FLIGHT_PLAYER2_001</t>
+  </si>
+  <si>
+    <t>UNDO_OUT_FLIGHT_PLAYER3_001</t>
+  </si>
+  <si>
+    <t>UNDO_OUT_FLIGHT_PLAYER4_001</t>
+  </si>
+  <si>
+    <t>DELETE_ATTACH_FLIGHT_PLAYER1_001</t>
+  </si>
+  <si>
+    <t>DELETE_ATTACH_FLIGHT_PLAYER2_001</t>
+  </si>
+  <si>
+    <t>DELETE_ATTACH_FLIGHT_PLAYER3_001</t>
+  </si>
+  <si>
+    <t>DELETE_ATTACH_FLIGHT_PLAYER4_001</t>
+  </si>
+  <si>
     <t>BB_4_PLAYER_002</t>
   </si>
   <si>
@@ -258,6 +333,27 @@
   </si>
   <si>
     <t>BB_VC_VST_005</t>
+  </si>
+  <si>
+    <t>check_in_bag_player1_id</t>
+  </si>
+  <si>
+    <t>check_in_bag_player2_id</t>
+  </si>
+  <si>
+    <t>check_in_bag_player3_id</t>
+  </si>
+  <si>
+    <t>check_in_bag_player4_id</t>
+  </si>
+  <si>
+    <t>add_bag_to_flight_id</t>
+  </si>
+  <si>
+    <t>CF_3_PLAYER_001</t>
+  </si>
+  <si>
+    <t>ADD_BAG_TO_FLIGHT_001</t>
   </si>
 </sst>
 </file>
@@ -923,7 +1019,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -944,9 +1040,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1274,7 +1367,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -1355,14 +1448,14 @@
         <v>18</v>
       </c>
       <c r="H2" s="6"/>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J2" s="6"/>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1388,17 +1481,17 @@
       <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1425,14 +1518,14 @@
         <v>18</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J4" s="6"/>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1459,12 +1552,12 @@
         <v>18</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>37</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8" t="s">
+      <c r="K5" s="6"/>
+      <c r="L5" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1491,14 +1584,14 @@
         <v>18</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1511,31 +1604,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="17.2857142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.2857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7142857142857" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5714285714286" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.8571428571429" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.4285714285714" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7142857142857" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.8571428571429" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.2857142857143" style="1"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.4285714285714" style="1" customWidth="1"/>
+    <col min="3" max="21" width="15.4285714285714" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="65" customHeight="1" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1575,8 +1658,44 @@
       <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="30" spans="1:13">
+    <row r="2" s="1" customFormat="1" ht="60" spans="1:25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1590,7 +1709,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>17</v>
@@ -1598,26 +1717,62 @@
       <c r="G2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>21</v>
+      <c r="H2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="30" spans="1:13">
+    <row r="3" s="1" customFormat="1" ht="60" spans="1:25">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -1631,7 +1786,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>17</v>
@@ -1639,26 +1794,62 @@
       <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>21</v>
+      <c r="H3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="30" spans="1:13">
+    <row r="4" s="1" customFormat="1" ht="60" spans="1:25">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1672,7 +1863,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>17</v>
@@ -1680,26 +1871,62 @@
       <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>21</v>
+      <c r="H4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="30" spans="1:13">
+    <row r="5" s="1" customFormat="1" ht="60" spans="1:25">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -1713,7 +1940,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>17</v>
@@ -1721,26 +1948,62 @@
       <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="M5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="N5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="O5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>21</v>
+      <c r="P5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="30" spans="1:13">
+    <row r="6" s="1" customFormat="1" ht="60" spans="1:25">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
@@ -1754,7 +2017,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>17</v>
@@ -1762,23 +2025,59 @@
       <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="R6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="S6" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="T6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>21</v>
+      <c r="U6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1822,7 +2121,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
@@ -1845,7 +2144,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>17</v>
@@ -1868,7 +2167,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>17</v>
@@ -1889,7 +2188,7 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>17</v>
@@ -1912,7 +2211,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>17</v>
@@ -1935,7 +2234,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>17</v>
@@ -1955,15 +2254,15 @@
   <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="17.2857142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.2857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.4285714285714" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1428571428571" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.2857142857143" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.7142857142857" style="1" customWidth="1"/>
     <col min="5" max="5" width="26" style="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" customWidth="1"/>
@@ -1972,8 +2271,8 @@
     <col min="9" max="9" width="18.8571428571429" style="1" customWidth="1"/>
     <col min="10" max="10" width="19.4285714285714" style="1" customWidth="1"/>
     <col min="11" max="11" width="20.7142857142857" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5714285714286" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.8571428571429" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.8571428571429" style="1" customWidth="1"/>
+    <col min="13" max="13" width="35.4285714285714" style="1" customWidth="1"/>
     <col min="14" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
@@ -2000,22 +2299,22 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" spans="1:13">
@@ -2032,7 +2331,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>17</v>
@@ -2040,23 +2339,23 @@
       <c r="G2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>21</v>
+      <c r="H2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input_excel_file/flow_definition.xlsx
+++ b/src/main/resources/input_excel_file/flow_definition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11460" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="flow_1_player" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="105">
   <si>
     <t>flow_id</t>
   </si>
@@ -345,15 +345,6 @@
   </si>
   <si>
     <t>check_in_bag_player4_id</t>
-  </si>
-  <si>
-    <t>add_bag_to_flight_id</t>
-  </si>
-  <si>
-    <t>CF_3_PLAYER_001</t>
-  </si>
-  <si>
-    <t>ADD_BAG_TO_FLIGHT_001</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1010,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1043,6 +1034,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2254,15 +2248,15 @@
   <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="10.7142857142857" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.1428571428571" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.7142857142857" style="1" customWidth="1"/>
     <col min="5" max="5" width="26" style="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" customWidth="1"/>
@@ -2272,7 +2266,7 @@
     <col min="10" max="10" width="19.4285714285714" style="1" customWidth="1"/>
     <col min="11" max="11" width="20.7142857142857" style="1" customWidth="1"/>
     <col min="12" max="12" width="17.8571428571429" style="1" customWidth="1"/>
-    <col min="13" max="13" width="35.4285714285714" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21" style="1" customWidth="1"/>
     <col min="14" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
@@ -2314,7 +2308,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" spans="1:13">
@@ -2352,10 +2346,10 @@
         <v>60</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>107</v>
+        <v>61</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input_excel_file/flow_definition.xlsx
+++ b/src/main/resources/input_excel_file/flow_definition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" activeTab="3"/>
+    <workbookView windowWidth="30240" windowHeight="12480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="flow_1_player" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="114">
   <si>
     <t>flow_id</t>
   </si>
@@ -345,6 +345,33 @@
   </si>
   <si>
     <t>check_in_bag_player4_id</t>
+  </si>
+  <si>
+    <t>mini_bar_create_bill_player1_id</t>
+  </si>
+  <si>
+    <t>mini_bar_get_list_menu_id</t>
+  </si>
+  <si>
+    <t>mini_bar_add_item_to_bill_id</t>
+  </si>
+  <si>
+    <t>driving_create_bill_player1_id</t>
+  </si>
+  <si>
+    <t>driving_get_list_menu_id</t>
+  </si>
+  <si>
+    <t>driving_add_item_to_bill_id</t>
+  </si>
+  <si>
+    <t>CREATE_BILL_PLAYER1_001</t>
+  </si>
+  <si>
+    <t>LIST_MENU_001</t>
+  </si>
+  <si>
+    <t>ADD_2ITEM_PLAYER1_001</t>
   </si>
 </sst>
 </file>
@@ -352,10 +379,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -523,7 +550,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,6 +566,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,16 +901,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -886,7 +919,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -910,16 +943,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -928,89 +961,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1027,16 +1060,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1047,7 +1083,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1360,25 +1396,25 @@
   <sheetPr/>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="16.8" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="17.2857142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.2857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1428571428571" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1428571428571" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.2890625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.2890625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="26" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.7142857142857" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.1428571428571" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1428571428571" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.4296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5714285714286" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5714285714286" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.2857142857143" style="1"/>
+    <col min="11" max="11" width="16.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.2890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
@@ -1419,7 +1455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
+    <row r="2" s="1" customFormat="1" ht="17" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1429,10 +1465,10 @@
       <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -1441,19 +1477,19 @@
       <c r="G2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
+    <row r="3" s="1" customFormat="1" ht="17" spans="1:12">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -1463,10 +1499,10 @@
       <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1475,21 +1511,21 @@
       <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="30" spans="1:12">
+    <row r="4" s="1" customFormat="1" ht="17" spans="1:12">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1499,10 +1535,10 @@
       <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -1511,19 +1547,19 @@
       <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6" t="s">
+      <c r="J4" s="7"/>
+      <c r="K4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:12">
+    <row r="5" s="1" customFormat="1" ht="17" spans="1:12">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -1533,10 +1569,10 @@
       <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -1545,17 +1581,17 @@
       <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6" t="s">
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:12">
+    <row r="6" s="1" customFormat="1" ht="17" spans="1:12">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
@@ -1565,10 +1601,10 @@
       <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -1577,15 +1613,15 @@
       <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6" t="s">
+      <c r="J6" s="7"/>
+      <c r="K6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1604,12 +1640,12 @@
       <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="16.8" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.4285714285714" style="1" customWidth="1"/>
-    <col min="3" max="21" width="15.4285714285714" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="10.2857142857143" style="1"/>
+    <col min="2" max="2" width="19.4296875" style="1" customWidth="1"/>
+    <col min="3" max="21" width="15.4296875" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.2890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="65" customHeight="1" spans="1:25">
@@ -1689,7 +1725,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="60" spans="1:25">
+    <row r="2" s="1" customFormat="1" ht="68" spans="1:25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1699,10 +1735,10 @@
       <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>56</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -1711,62 +1747,62 @@
       <c r="G2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="60" spans="1:25">
+    <row r="3" s="1" customFormat="1" ht="68" spans="1:25">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -1776,10 +1812,10 @@
       <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>75</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1788,62 +1824,62 @@
       <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="W3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="X3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Y3" s="6" t="s">
+      <c r="Y3" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="60" spans="1:25">
+    <row r="4" s="1" customFormat="1" ht="68" spans="1:25">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1853,10 +1889,10 @@
       <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>80</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -1865,62 +1901,62 @@
       <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="X4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="Y4" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="60" spans="1:25">
+    <row r="5" s="1" customFormat="1" ht="68" spans="1:25">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -1930,10 +1966,10 @@
       <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>85</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -1942,62 +1978,62 @@
       <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="U5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="W5" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="X5" s="6" t="s">
+      <c r="X5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Y5" s="6" t="s">
+      <c r="Y5" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="60" spans="1:25">
+    <row r="6" s="1" customFormat="1" ht="68" spans="1:25">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
@@ -2007,10 +2043,10 @@
       <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>90</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -2019,58 +2055,58 @@
       <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="S6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="U6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="V6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="W6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="X6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Y6" s="6" t="s">
+      <c r="Y6" s="7" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2089,16 +2125,16 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17.2857142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.2857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1428571428571" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5714285714286" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.2857142857143" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5714285714286" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.2857142857143" style="1"/>
+    <col min="1" max="1" width="17.2890625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.2890625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.2890625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.2890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:7">
@@ -2124,7 +2160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    <row r="2" s="1" customFormat="1" ht="17" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2134,10 +2170,10 @@
       <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>96</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -2147,7 +2183,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="17" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -2157,10 +2193,10 @@
       <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>97</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -2170,7 +2206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="30" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="17" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -2180,8 +2216,8 @@
       <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
         <v>98</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -2191,7 +2227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:7">
+    <row r="5" s="1" customFormat="1" ht="17" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -2201,10 +2237,10 @@
       <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>99</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -2214,7 +2250,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
+    <row r="6" s="1" customFormat="1" ht="17" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
@@ -2224,10 +2260,10 @@
       <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>100</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -2246,31 +2282,29 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="10.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1428571428571" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7142857142857" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5714285714286" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.8571428571429" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.4285714285714" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7142857142857" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.8571428571429" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.2857142857143" style="1"/>
+    <col min="4" max="4" width="26" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.859375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.4296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.859375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="1" customWidth="1"/>
+    <col min="11" max="16" width="19.9140625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.2890625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="60" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="60" customHeight="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2281,37 +2315,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>11</v>
+        <v>107</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="30" spans="1:13">
+    <row r="2" s="1" customFormat="1" ht="51" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2322,34 +2365,43 @@
         <v>14</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>18</v>
+        <v>57</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>62</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input_excel_file/flow_definition.xlsx
+++ b/src/main/resources/input_excel_file/flow_definition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12480" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="flow_1_player" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="116">
   <si>
     <t>flow_id</t>
   </si>
@@ -347,22 +347,22 @@
     <t>check_in_bag_player4_id</t>
   </si>
   <si>
-    <t>mini_bar_create_bill_player1_id</t>
-  </si>
-  <si>
-    <t>mini_bar_get_list_menu_id</t>
-  </si>
-  <si>
-    <t>mini_bar_add_item_to_bill_id</t>
-  </si>
-  <si>
-    <t>driving_create_bill_player1_id</t>
-  </si>
-  <si>
-    <t>driving_get_list_menu_id</t>
-  </si>
-  <si>
-    <t>driving_add_item_to_bill_id</t>
+    <t>rental_create_bill_player1_id</t>
+  </si>
+  <si>
+    <t>rental_get_list_menu_id</t>
+  </si>
+  <si>
+    <t>rental_add_item_to_bill_id</t>
+  </si>
+  <si>
+    <t>proshop_create_bill_player1_id</t>
+  </si>
+  <si>
+    <t>proshop_get_list_menu_id</t>
+  </si>
+  <si>
+    <t>proshop_add_item_to_bill_id</t>
   </si>
   <si>
     <t>CREATE_BILL_PLAYER1_001</t>
@@ -371,7 +371,13 @@
     <t>LIST_MENU_001</t>
   </si>
   <si>
+    <t>ADD_ITEM_PLAYER1_002</t>
+  </si>
+  <si>
     <t>ADD_2ITEM_PLAYER1_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -379,10 +385,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -550,7 +556,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,12 +572,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,16 +901,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -919,7 +919,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -943,16 +943,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -961,89 +961,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1067,12 +1067,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1083,7 +1077,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1400,21 +1394,21 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="17.2890625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.2890625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1428571428571" style="1" customWidth="1"/>
     <col min="5" max="5" width="26" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.4296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7142857142857" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.1428571428571" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1428571428571" style="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.2890625" style="1"/>
+    <col min="11" max="11" width="16.5714285714286" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5714285714286" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
@@ -1455,7 +1449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="17" spans="1:12">
+    <row r="2" s="1" customFormat="1" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1489,7 +1483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="17" spans="1:12">
+    <row r="3" s="1" customFormat="1" spans="1:12">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -1525,7 +1519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="17" spans="1:12">
+    <row r="4" s="1" customFormat="1" ht="30" spans="1:12">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1559,7 +1553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="17" spans="1:12">
+    <row r="5" s="1" customFormat="1" spans="1:12">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -1591,7 +1585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="17" spans="1:12">
+    <row r="6" s="1" customFormat="1" spans="1:12">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
@@ -1640,12 +1634,12 @@
       <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.4296875" style="1" customWidth="1"/>
-    <col min="3" max="21" width="15.4296875" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="10.2890625" style="1"/>
+    <col min="2" max="2" width="19.4285714285714" style="1" customWidth="1"/>
+    <col min="3" max="21" width="15.4285714285714" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="65" customHeight="1" spans="1:25">
@@ -1725,7 +1719,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="68" spans="1:25">
+    <row r="2" s="1" customFormat="1" ht="60" spans="1:25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1750,13 +1744,13 @@
       <c r="H2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>58</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="8" t="s">
         <v>60</v>
       </c>
       <c r="L2" s="7" t="s">
@@ -1802,7 +1796,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="68" spans="1:25">
+    <row r="3" s="1" customFormat="1" ht="60" spans="1:25">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -1827,13 +1821,13 @@
       <c r="H3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>77</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="8" t="s">
         <v>79</v>
       </c>
       <c r="L3" s="7" t="s">
@@ -1879,7 +1873,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="68" spans="1:25">
+    <row r="4" s="1" customFormat="1" ht="60" spans="1:25">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1904,13 +1898,13 @@
       <c r="H4" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="8" t="s">
         <v>82</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="8" t="s">
         <v>84</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -1956,7 +1950,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="68" spans="1:25">
+    <row r="5" s="1" customFormat="1" ht="60" spans="1:25">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -1981,13 +1975,13 @@
       <c r="H5" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="8" t="s">
         <v>87</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="8" t="s">
         <v>89</v>
       </c>
       <c r="L5" s="7" t="s">
@@ -2033,7 +2027,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="68" spans="1:25">
+    <row r="6" s="1" customFormat="1" ht="60" spans="1:25">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
@@ -2058,13 +2052,13 @@
       <c r="H6" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="8" t="s">
         <v>92</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="8" t="s">
         <v>94</v>
       </c>
       <c r="L6" s="7" t="s">
@@ -2125,16 +2119,16 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17.2890625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.2890625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.2890625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.2890625" style="1"/>
+    <col min="1" max="1" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5714285714286" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.2857142857143" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5714285714286" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:7">
@@ -2160,7 +2154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="17" spans="1:7">
+    <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2183,7 +2177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="17" spans="1:7">
+    <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -2206,7 +2200,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="17" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -2227,7 +2221,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="17" spans="1:7">
+    <row r="5" s="1" customFormat="1" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -2250,7 +2244,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="17" spans="1:7">
+    <row r="6" s="1" customFormat="1" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
@@ -2282,26 +2276,26 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1428571428571" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.859375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.4296875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.859375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.8571428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.4285714285714" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8571428571429" style="1" customWidth="1"/>
     <col min="10" max="10" width="21" style="1" customWidth="1"/>
-    <col min="11" max="16" width="19.9140625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.2890625" style="1"/>
+    <col min="11" max="16" width="19.9142857142857" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="60" customHeight="1" spans="1:16">
@@ -2354,7 +2348,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="51" spans="1:16">
+    <row r="2" s="1" customFormat="1" ht="30" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2373,7 +2367,7 @@
       <c r="F2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -2385,23 +2379,28 @@
       <c r="J2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="7" t="s">
         <v>112</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="16:16">
+      <c r="P3" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input_excel_file/flow_definition.xlsx
+++ b/src/main/resources/input_excel_file/flow_definition.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="140">
   <si>
     <t>flow_id</t>
   </si>
@@ -200,6 +200,33 @@
     <t>delete_attach_flight_player4_id</t>
   </si>
   <si>
+    <t>rental_create_bill_player1_id</t>
+  </si>
+  <si>
+    <t>rental_get_list_menu_id</t>
+  </si>
+  <si>
+    <t>rental_add_item_to_bill_id</t>
+  </si>
+  <si>
+    <t>proshop_create_bill_player1_id</t>
+  </si>
+  <si>
+    <t>proshop_get_list_menu_id</t>
+  </si>
+  <si>
+    <t>proshop_add_item_to_bill_id</t>
+  </si>
+  <si>
+    <t>booking_by_bag_player1_id</t>
+  </si>
+  <si>
+    <t>fee_of_bag_player1_id</t>
+  </si>
+  <si>
+    <t>fee_of_bag_bill_player1_id</t>
+  </si>
+  <si>
     <t>BB_4_PLAYER_001</t>
   </si>
   <si>
@@ -257,6 +284,27 @@
     <t>DELETE_ATTACH_FLIGHT_PLAYER4_001</t>
   </si>
   <si>
+    <t>CREATE_BILL_PLAYER1_001</t>
+  </si>
+  <si>
+    <t>LIST_MENU_001</t>
+  </si>
+  <si>
+    <t>ADD_ITEM_PLAYER1_002</t>
+  </si>
+  <si>
+    <t>ADD_2ITEM_PLAYER1_001</t>
+  </si>
+  <si>
+    <t>VST_BY_BAG_001</t>
+  </si>
+  <si>
+    <t>VST_FEE_OF_BAG_001</t>
+  </si>
+  <si>
+    <t>VST_FEE_OF_BAG_BILL_001</t>
+  </si>
+  <si>
     <t>BB_4_PLAYER_002</t>
   </si>
   <si>
@@ -272,6 +320,15 @@
     <t>CI_PLAYER4_002</t>
   </si>
   <si>
+    <t>AG_BY_BAG_001</t>
+  </si>
+  <si>
+    <t>AG_FEE_OF_BAG_001</t>
+  </si>
+  <si>
+    <t>AG_FEE_OF_BAG_BILL_001</t>
+  </si>
+  <si>
     <t>BB_4_PLAYER_003</t>
   </si>
   <si>
@@ -347,37 +404,52 @@
     <t>check_in_bag_player4_id</t>
   </si>
   <si>
-    <t>rental_create_bill_player1_id</t>
-  </si>
-  <si>
-    <t>rental_get_list_menu_id</t>
-  </si>
-  <si>
-    <t>rental_add_item_to_bill_id</t>
-  </si>
-  <si>
-    <t>proshop_create_bill_player1_id</t>
-  </si>
-  <si>
-    <t>proshop_get_list_menu_id</t>
-  </si>
-  <si>
-    <t>proshop_add_item_to_bill_id</t>
-  </si>
-  <si>
-    <t>CREATE_BILL_PLAYER1_001</t>
-  </si>
-  <si>
-    <t>LIST_MENU_001</t>
-  </si>
-  <si>
-    <t>ADD_ITEM_PLAYER1_002</t>
-  </si>
-  <si>
-    <t>ADD_2ITEM_PLAYER1_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>driving_create_bill_player1_id</t>
+  </si>
+  <si>
+    <t>driving_get_list_menu_id</t>
+  </si>
+  <si>
+    <t>driving_add_item_to_bill_player1_id</t>
+  </si>
+  <si>
+    <t>driving_create_bill_player2_id</t>
+  </si>
+  <si>
+    <t>driving_add_item_to_bill_player2_id</t>
+  </si>
+  <si>
+    <t>driving_create_bill_player3_id</t>
+  </si>
+  <si>
+    <t>driving_add_item_to_bill_player3_id</t>
+  </si>
+  <si>
+    <t>driving_create_bill_player4_id</t>
+  </si>
+  <si>
+    <t>driving_add_item_to_bill_player4_id</t>
+  </si>
+  <si>
+    <t>ADD_ITEM_PLAYER1_001</t>
+  </si>
+  <si>
+    <t>CREATE_BILL_PLAYER2_001</t>
+  </si>
+  <si>
+    <t>ADD_ITEM_PLAYER2_001</t>
+  </si>
+  <si>
+    <t>CREATE_BILL_PLAYER3_001</t>
+  </si>
+  <si>
+    <t>ADD_ITEM_PLAYER3_001</t>
+  </si>
+  <si>
+    <t>CREATE_BILL_PLAYER4_001</t>
+  </si>
+  <si>
+    <t>ADD_ITEM_PLAYER4_001</t>
   </si>
 </sst>
 </file>
@@ -556,7 +628,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,6 +644,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,7 +997,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -943,16 +1021,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -961,89 +1039,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1066,7 +1144,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1390,8 +1474,8 @@
   <sheetPr/>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -1628,10 +1712,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -1639,10 +1723,11 @@
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.4285714285714" style="1" customWidth="1"/>
     <col min="3" max="21" width="15.4285714285714" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="10.2857142857143" style="1"/>
+    <col min="22" max="25" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="65" customHeight="1" spans="1:25">
+    <row r="1" s="1" customFormat="1" ht="65" customHeight="1" spans="1:34">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1718,8 +1803,35 @@
       <c r="Y1" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="Z1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="60" spans="1:25">
+    <row r="2" s="1" customFormat="1" ht="45" spans="1:34">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1733,7 +1845,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>17</v>
@@ -1742,61 +1854,88 @@
         <v>18</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>58</v>
+        <v>66</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>60</v>
+        <v>68</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="60" spans="1:25">
+    <row r="3" s="1" customFormat="1" ht="45" spans="1:34">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -1810,7 +1949,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>17</v>
@@ -1819,61 +1958,88 @@
         <v>18</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="S3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="U3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="V3" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="60" spans="1:25">
+    <row r="4" s="1" customFormat="1" ht="45" spans="1:25">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1887,7 +2053,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>17</v>
@@ -1896,58 +2062,58 @@
         <v>18</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="W4" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="X4" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="Y4" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="X4" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="60" spans="1:25">
@@ -1964,7 +2130,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>17</v>
@@ -1973,58 +2139,58 @@
         <v>18</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>87</v>
+        <v>105</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>89</v>
+        <v>107</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="Y5" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="60" spans="1:25">
@@ -2041,7 +2207,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>17</v>
@@ -2050,58 +2216,58 @@
         <v>18</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>92</v>
+        <v>110</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>94</v>
+        <v>112</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2145,7 +2311,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
@@ -2168,7 +2334,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>17</v>
@@ -2191,7 +2357,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>17</v>
@@ -2212,7 +2378,7 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>17</v>
@@ -2235,7 +2401,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>17</v>
@@ -2258,7 +2424,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>17</v>
@@ -2276,15 +2442,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="10.7142857142857" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.1428571428571" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="1" customWidth="1"/>
@@ -2295,10 +2461,16 @@
     <col min="9" max="9" width="17.8571428571429" style="1" customWidth="1"/>
     <col min="10" max="10" width="21" style="1" customWidth="1"/>
     <col min="11" max="16" width="19.9142857142857" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.2857142857143" style="1"/>
+    <col min="17" max="17" width="19.5714285714286" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.8571428571429" style="1" customWidth="1"/>
+    <col min="19" max="19" width="29.7142857142857" style="1" customWidth="1"/>
+    <col min="20" max="20" width="15.1428571428571" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.4285714285714" style="1" customWidth="1"/>
+    <col min="22" max="22" width="16.2857142857143" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="60" customHeight="1" spans="1:16">
+    <row r="1" s="1" customFormat="1" ht="60" customHeight="1" spans="1:22">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2312,16 +2484,16 @@
         <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>10</v>
@@ -2330,25 +2502,43 @@
         <v>11</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="30" spans="1:16">
+    <row r="2" s="1" customFormat="1" ht="30" spans="1:22">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2359,49 +2549,106 @@
         <v>14</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="30" spans="1:22">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="G3" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="16:16">
-      <c r="P3" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="I3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/input_excel_file/flow_definition.xlsx
+++ b/src/main/resources/input_excel_file/flow_definition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="flow_1_player" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="138">
   <si>
     <t>flow_id</t>
   </si>
@@ -221,12 +221,42 @@
     <t>booking_by_bag_player1_id</t>
   </si>
   <si>
+    <t>booking_by_bag_player2_id</t>
+  </si>
+  <si>
+    <t>booking_by_bag_player3_id</t>
+  </si>
+  <si>
+    <t>booking_by_bag_player4_id</t>
+  </si>
+  <si>
+    <t>add_sub_bag_id</t>
+  </si>
+  <si>
     <t>fee_of_bag_player1_id</t>
   </si>
   <si>
+    <t>fee_of_bag_player2_id</t>
+  </si>
+  <si>
+    <t>fee_of_bag_player3_id</t>
+  </si>
+  <si>
+    <t>fee_of_bag_player4_id</t>
+  </si>
+  <si>
     <t>fee_of_bag_bill_player1_id</t>
   </si>
   <si>
+    <t>fee_of_bag_bill_player2_id</t>
+  </si>
+  <si>
+    <t>fee_of_bag_bill_player3_id</t>
+  </si>
+  <si>
+    <t>fee_of_bag_bill_player4_id</t>
+  </si>
+  <si>
     <t>BB_4_PLAYER_001</t>
   </si>
   <si>
@@ -299,10 +329,19 @@
     <t>VST_BY_BAG_001</t>
   </si>
   <si>
-    <t>VST_FEE_OF_BAG_001</t>
-  </si>
-  <si>
-    <t>VST_FEE_OF_BAG_BILL_001</t>
+    <t>ADD_1SUB_BAG_001</t>
+  </si>
+  <si>
+    <t>VST_BAG_MAIN_1SUB_001</t>
+  </si>
+  <si>
+    <t>VST_BAG_SUB_001</t>
+  </si>
+  <si>
+    <t>VST_FEE_OF_BAG_002</t>
+  </si>
+  <si>
+    <t>VST_FEE_OF_BAG_BILL_002</t>
   </si>
   <si>
     <t>BB_4_PLAYER_002</t>
@@ -323,10 +362,10 @@
     <t>AG_BY_BAG_001</t>
   </si>
   <si>
-    <t>AG_FEE_OF_BAG_001</t>
-  </si>
-  <si>
-    <t>AG_FEE_OF_BAG_BILL_001</t>
+    <t>AG_FEE_OF_BAG_002</t>
+  </si>
+  <si>
+    <t>AG_FEE_OF_BAG_BILL_002</t>
   </si>
   <si>
     <t>BB_4_PLAYER_003</t>
@@ -398,58 +437,13 @@
     <t>check_in_bag_player2_id</t>
   </si>
   <si>
-    <t>check_in_bag_player3_id</t>
-  </si>
-  <si>
-    <t>check_in_bag_player4_id</t>
-  </si>
-  <si>
-    <t>driving_create_bill_player1_id</t>
-  </si>
-  <si>
-    <t>driving_get_list_menu_id</t>
-  </si>
-  <si>
-    <t>driving_add_item_to_bill_player1_id</t>
-  </si>
-  <si>
-    <t>driving_create_bill_player2_id</t>
-  </si>
-  <si>
-    <t>driving_add_item_to_bill_player2_id</t>
-  </si>
-  <si>
-    <t>driving_create_bill_player3_id</t>
-  </si>
-  <si>
-    <t>driving_add_item_to_bill_player3_id</t>
-  </si>
-  <si>
-    <t>driving_create_bill_player4_id</t>
-  </si>
-  <si>
-    <t>driving_add_item_to_bill_player4_id</t>
-  </si>
-  <si>
-    <t>ADD_ITEM_PLAYER1_001</t>
-  </si>
-  <si>
-    <t>CREATE_BILL_PLAYER2_001</t>
-  </si>
-  <si>
-    <t>ADD_ITEM_PLAYER2_001</t>
-  </si>
-  <si>
-    <t>CREATE_BILL_PLAYER3_001</t>
-  </si>
-  <si>
-    <t>ADD_ITEM_PLAYER3_001</t>
-  </si>
-  <si>
-    <t>CREATE_BILL_PLAYER4_001</t>
-  </si>
-  <si>
-    <t>ADD_ITEM_PLAYER4_001</t>
+    <t>undo_check_in_bag_id</t>
+  </si>
+  <si>
+    <t>UCI_001</t>
+  </si>
+  <si>
+    <t>UCI_002</t>
   </si>
 </sst>
 </file>
@@ -628,7 +622,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -644,12 +638,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,7 +985,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1021,16 +1009,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1039,89 +1027,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1148,9 +1136,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1712,22 +1697,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AR6"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.4285714285714" style="1" customWidth="1"/>
-    <col min="3" max="21" width="15.4285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.4285714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="21" width="15.4285714285714" style="1" customWidth="1"/>
     <col min="22" max="25" width="22.4285714285714" style="1" customWidth="1"/>
     <col min="26" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="65" customHeight="1" spans="1:34">
+    <row r="1" s="1" customFormat="1" ht="65" customHeight="1" spans="1:44">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1830,8 +1817,38 @@
       <c r="AH1" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="AI1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="45" spans="1:34">
+    <row r="2" s="1" customFormat="1" ht="45" spans="1:44">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1845,7 +1862,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>17</v>
@@ -1854,88 +1871,118 @@
         <v>18</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>69</v>
+        <v>78</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>90</v>
+        <v>98</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR2" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="45" spans="1:34">
+    <row r="3" s="1" customFormat="1" ht="45" spans="1:44">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -1949,7 +1996,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>17</v>
@@ -1958,85 +2005,113 @@
         <v>18</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X3" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="Y3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="Z3" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="AA3" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="AB3" s="6" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AD3" s="7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AF3" s="8" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="AH3" s="8" t="s">
-        <v>98</v>
+        <v>109</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO3" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP3" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR3" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="45" spans="1:25">
@@ -2053,7 +2128,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>17</v>
@@ -2062,61 +2137,61 @@
         <v>18</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>101</v>
+        <v>113</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>103</v>
+        <v>115</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="60" spans="1:25">
+    <row r="5" s="1" customFormat="1" ht="45" spans="1:25">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -2130,7 +2205,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>17</v>
@@ -2139,61 +2214,61 @@
         <v>18</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>106</v>
+        <v>118</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>108</v>
+        <v>120</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="Y5" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="60" spans="1:25">
+    <row r="6" s="1" customFormat="1" ht="45" spans="1:25">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
@@ -2207,7 +2282,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>17</v>
@@ -2216,58 +2291,58 @@
         <v>18</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>111</v>
+        <v>123</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>113</v>
+        <v>125</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2311,7 +2386,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
@@ -2334,7 +2409,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>17</v>
@@ -2357,7 +2432,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>17</v>
@@ -2378,7 +2453,7 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>17</v>
@@ -2401,7 +2476,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>17</v>
@@ -2424,7 +2499,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>17</v>
@@ -2442,10 +2517,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -2455,22 +2530,13 @@
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.8571428571429" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.4285714285714" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8571428571429" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21" style="1" customWidth="1"/>
-    <col min="11" max="16" width="19.9142857142857" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.5714285714286" style="1" customWidth="1"/>
-    <col min="18" max="18" width="18.8571428571429" style="1" customWidth="1"/>
-    <col min="19" max="19" width="29.7142857142857" style="1" customWidth="1"/>
-    <col min="20" max="20" width="15.1428571428571" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.4285714285714" style="1" customWidth="1"/>
-    <col min="22" max="22" width="16.2857142857143" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.2857142857143" style="1"/>
+    <col min="6" max="7" width="17.8571428571429" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1428571428571" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1428571428571" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="60" customHeight="1" spans="1:22">
+    <row r="1" s="1" customFormat="1" ht="60" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2484,61 +2550,22 @@
         <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="30" spans="1:22">
+    <row r="2" s="1" customFormat="1" ht="30" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2549,64 +2576,25 @@
         <v>14</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="R2" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="S2" s="6" t="s">
+      <c r="H2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="T2" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="30" spans="1:22">
+    <row r="3" s="1" customFormat="1" ht="30" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -2617,38 +2605,14 @@
         <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
+        <v>122</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/input_excel_file/flow_definition.xlsx
+++ b/src/main/resources/input_excel_file/flow_definition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="flow_1_player" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="143">
   <si>
     <t>flow_id</t>
   </si>
@@ -440,10 +440,25 @@
     <t>undo_check_in_bag_id</t>
   </si>
   <si>
-    <t>UCI_001</t>
-  </si>
-  <si>
-    <t>UCI_002</t>
+    <t>detail_agency_pay_id</t>
+  </si>
+  <si>
+    <t>update_agency_pay_id</t>
+  </si>
+  <si>
+    <t>UCI_PLAYER1</t>
+  </si>
+  <si>
+    <t>UCI_PLAYER2</t>
+  </si>
+  <si>
+    <t>DETAIL_AGENCY_PAY_001</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER1_001</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER1_002</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1124,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1127,6 +1142,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1699,7 +1717,7 @@
   <sheetPr/>
   <dimension ref="A1:AR6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -1873,13 +1891,13 @@
       <c r="H2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>77</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>79</v>
       </c>
       <c r="L2" s="7" t="s">
@@ -1942,43 +1960,43 @@
       <c r="AE2" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AF2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AG2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AH2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AI2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AK2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AL2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AM2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AN2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AO2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AP2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AR2" s="7" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2007,13 +2025,13 @@
       <c r="H3" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>106</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>108</v>
       </c>
       <c r="L3" s="7" t="s">
@@ -2076,41 +2094,41 @@
       <c r="AE3" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="AF3" s="8" t="s">
+      <c r="AF3" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="AG3" s="8" t="s">
+      <c r="AG3" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="AH3" s="8" t="s">
+      <c r="AH3" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="AI3" s="8" t="s">
+      <c r="AI3" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8" t="s">
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AL3" s="8" t="s">
+      <c r="AL3" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AM3" s="8" t="s">
+      <c r="AM3" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AN3" s="8" t="s">
+      <c r="AN3" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AO3" s="8" t="s">
+      <c r="AO3" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AP3" s="8" t="s">
+      <c r="AP3" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AQ3" s="8" t="s">
+      <c r="AQ3" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AR3" s="8" t="s">
+      <c r="AR3" s="7" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2139,13 +2157,13 @@
       <c r="H4" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="10" t="s">
         <v>114</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="10" t="s">
         <v>116</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -2216,13 +2234,13 @@
       <c r="H5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="10" t="s">
         <v>119</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="10" t="s">
         <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
@@ -2293,13 +2311,13 @@
       <c r="H6" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="10" t="s">
         <v>124</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="10" t="s">
         <v>126</v>
       </c>
       <c r="L6" s="7" t="s">
@@ -2517,10 +2535,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -2533,10 +2551,12 @@
     <col min="6" max="7" width="17.8571428571429" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.1428571428571" style="1" customWidth="1"/>
     <col min="9" max="9" width="22.1428571428571" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.2857142857143" style="1"/>
+    <col min="10" max="10" width="21.8571428571429" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.8571428571429" style="1" customWidth="1"/>
+    <col min="12" max="16383" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="60" customHeight="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="60" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2564,8 +2584,23 @@
       <c r="I1" s="2" t="s">
         <v>135</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="30" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="30" spans="1:14">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2585,16 +2620,21 @@
         <v>77</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>137</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="30" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="60" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -2613,6 +2653,18 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/input_excel_file/flow_definition.xlsx
+++ b/src/main/resources/input_excel_file/flow_definition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="11460" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="flow_1_player" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="151">
   <si>
     <t>flow_id</t>
   </si>
@@ -437,28 +437,52 @@
     <t>check_in_bag_player2_id</t>
   </si>
   <si>
-    <t>undo_check_in_bag_id</t>
-  </si>
-  <si>
-    <t>detail_agency_pay_id</t>
+    <t>check_in_bag_player3_id</t>
+  </si>
+  <si>
+    <t>check_in_bag_player4_id</t>
+  </si>
+  <si>
+    <t>edit_booking_at_tee_time_player1_id</t>
+  </si>
+  <si>
+    <t>edit_booking_at_tee_time_player2_id</t>
   </si>
   <si>
     <t>update_agency_pay_id</t>
   </si>
   <si>
-    <t>UCI_PLAYER1</t>
-  </si>
-  <si>
-    <t>UCI_PLAYER2</t>
-  </si>
-  <si>
-    <t>DETAIL_AGENCY_PAY_001</t>
+    <t>input_payment_id</t>
+  </si>
+  <si>
+    <t>INPUT_PAYMENT_PLAYER1</t>
+  </si>
+  <si>
+    <t>INPUT_PAYMENT_PLAYER2</t>
+  </si>
+  <si>
+    <t>INPUT_PAYMENT_PLAYER3</t>
+  </si>
+  <si>
+    <t>INPUT_PAYMENT_PLAYER4</t>
   </si>
   <si>
     <t>UPDATE_AGENCY_PAY_PLAYER1_001</t>
   </si>
   <si>
     <t>UPDATE_AGENCY_PAY_PLAYER1_002</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER1_003</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER1_004</t>
+  </si>
+  <si>
+    <t>CI_EKYC_PLAYER1</t>
+  </si>
+  <si>
+    <t>CI_EKYC_PLAYER2</t>
   </si>
 </sst>
 </file>
@@ -1717,7 +1741,7 @@
   <sheetPr/>
   <dimension ref="A1:AR6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -2535,28 +2559,27 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.1428571428571" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="7" width="17.8571428571429" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.1428571428571" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1428571428571" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.8571428571429" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="12" max="16383" width="10.2857142857143" style="1"/>
+    <col min="6" max="8" width="17.8571428571429" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.4285714285714" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5714285714286" style="1" customWidth="1"/>
+    <col min="11" max="13" width="16.8571428571429" style="1" customWidth="1"/>
+    <col min="14" max="16383" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="60" customHeight="1" spans="1:14">
+    <row r="1" s="1" customFormat="1" ht="60" customHeight="1" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2579,28 +2602,46 @@
         <v>135</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="30" spans="1:14">
+    <row r="2" s="1" customFormat="1" ht="45" spans="1:20">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2619,22 +2660,34 @@
       <c r="F2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>138</v>
+      <c r="G2" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>139</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="60" spans="1:14">
+    <row r="3" s="1" customFormat="1" ht="60" spans="1:20">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -2653,18 +2706,64 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="30" spans="1:20">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/input_excel_file/flow_definition.xlsx
+++ b/src/main/resources/input_excel_file/flow_definition.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="161">
   <si>
     <t>flow_id</t>
   </si>
@@ -449,10 +449,25 @@
     <t>edit_booking_at_tee_time_player2_id</t>
   </si>
   <si>
-    <t>update_agency_pay_id</t>
-  </si>
-  <si>
-    <t>input_payment_id</t>
+    <t>Check_In_Ekyc_Player1_id</t>
+  </si>
+  <si>
+    <t>Check_In_Ekyc_Player2_id</t>
+  </si>
+  <si>
+    <t>update_agency_pay_player1_id</t>
+  </si>
+  <si>
+    <t>input_single_payment_id</t>
+  </si>
+  <si>
+    <t>single_payment_list_id</t>
+  </si>
+  <si>
+    <t>check_out_bag_id</t>
+  </si>
+  <si>
+    <t>check_out_group_id</t>
   </si>
   <si>
     <t>INPUT_PAYMENT_PLAYER1</t>
@@ -465,6 +480,21 @@
   </si>
   <si>
     <t>INPUT_PAYMENT_PLAYER4</t>
+  </si>
+  <si>
+    <t>SINGLE_PAYMENT_LIST_PLAYER1</t>
+  </si>
+  <si>
+    <t>SINGLE_PAYMENT_LIST_PLAYER2</t>
+  </si>
+  <si>
+    <t>SINGLE_PAYMENT_LIST_PLAYER3</t>
+  </si>
+  <si>
+    <t>SINGLE_PAYMENT_LIST_PLAYER4</t>
+  </si>
+  <si>
+    <t>CHECK_OUT_GROUP_4PLAYER</t>
   </si>
   <si>
     <t>UPDATE_AGENCY_PAY_PLAYER1_001</t>
@@ -490,10 +520,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1006,16 +1036,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1148,7 +1178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1166,9 +1196,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1502,7 +1529,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -1741,8 +1768,8 @@
   <sheetPr/>
   <dimension ref="A1:AR6"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -1915,13 +1942,13 @@
       <c r="H2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>77</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>79</v>
       </c>
       <c r="L2" s="7" t="s">
@@ -2049,13 +2076,13 @@
       <c r="H3" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>106</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>108</v>
       </c>
       <c r="L3" s="7" t="s">
@@ -2181,13 +2208,13 @@
       <c r="H4" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>114</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>116</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -2258,13 +2285,13 @@
       <c r="H5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>119</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
@@ -2335,13 +2362,13 @@
       <c r="H6" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>124</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="9" t="s">
         <v>126</v>
       </c>
       <c r="L6" s="7" t="s">
@@ -2559,10 +2586,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -2573,13 +2600,13 @@
     <col min="4" max="4" width="26" style="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" customWidth="1"/>
     <col min="6" max="8" width="17.8571428571429" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.4285714285714" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.2857142857143" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.5714285714286" style="1" customWidth="1"/>
-    <col min="11" max="13" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="14" max="16383" width="10.2857142857143" style="1"/>
+    <col min="11" max="15" width="16.8571428571429" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="60" customHeight="1" spans="1:20">
+    <row r="1" s="1" customFormat="1" ht="60" customHeight="1" spans="1:31">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2611,37 +2638,70 @@
         <v>138</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="45" spans="1:20">
+    <row r="2" s="1" customFormat="1" ht="45" spans="1:31">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2670,24 +2730,49 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="M2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>144</v>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="60" spans="1:20">
+    <row r="3" s="1" customFormat="1" ht="60" spans="1:31">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -2703,36 +2788,73 @@
       <c r="E3" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="F3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="N3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
+      <c r="V3" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="30" spans="1:20">
+    <row r="4" s="1" customFormat="1" ht="45" spans="1:31">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>14</v>
@@ -2744,26 +2866,45 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>150</v>
+      <c r="K4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/input_excel_file/flow_definition.xlsx
+++ b/src/main/resources/input_excel_file/flow_definition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11460" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="flow_1_player" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="175">
   <si>
     <t>flow_id</t>
   </si>
@@ -449,15 +449,36 @@
     <t>edit_booking_at_tee_time_player2_id</t>
   </si>
   <si>
+    <t>edit_booking_at_tee_time_player3_id</t>
+  </si>
+  <si>
+    <t>edit_booking_at_tee_time_player4_id</t>
+  </si>
+  <si>
     <t>Check_In_Ekyc_Player1_id</t>
   </si>
   <si>
     <t>Check_In_Ekyc_Player2_id</t>
   </si>
   <si>
+    <t>Check_In_Ekyc_Player3_id</t>
+  </si>
+  <si>
+    <t>Check_In_Ekyc_Player4_id</t>
+  </si>
+  <si>
     <t>update_agency_pay_player1_id</t>
   </si>
   <si>
+    <t>update_agency_pay_player2_id</t>
+  </si>
+  <si>
+    <t>update_agency_pay_player3_id</t>
+  </si>
+  <si>
+    <t>update_agency_pay_player4_id</t>
+  </si>
+  <si>
     <t>input_single_payment_id</t>
   </si>
   <si>
@@ -470,6 +491,9 @@
     <t>check_out_group_id</t>
   </si>
   <si>
+    <t>e_invoice_id</t>
+  </si>
+  <si>
     <t>INPUT_PAYMENT_PLAYER1</t>
   </si>
   <si>
@@ -494,25 +518,43 @@
     <t>SINGLE_PAYMENT_LIST_PLAYER4</t>
   </si>
   <si>
+    <t>ADD_3SUB_BAG_001</t>
+  </si>
+  <si>
     <t>CHECK_OUT_GROUP_4PLAYER</t>
   </si>
   <si>
-    <t>UPDATE_AGENCY_PAY_PLAYER1_001</t>
-  </si>
-  <si>
-    <t>UPDATE_AGENCY_PAY_PLAYER1_002</t>
-  </si>
-  <si>
-    <t>UPDATE_AGENCY_PAY_PLAYER1_003</t>
+    <t>E_INVOICE_001</t>
   </si>
   <si>
     <t>UPDATE_AGENCY_PAY_PLAYER1_004</t>
   </si>
   <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER2_004</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER3_004</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER4_004</t>
+  </si>
+  <si>
+    <t>E_INVOICE_002</t>
+  </si>
+  <si>
     <t>CI_EKYC_PLAYER1</t>
   </si>
   <si>
     <t>CI_EKYC_PLAYER2</t>
+  </si>
+  <si>
+    <t>CI_EKYC_PLAYER3</t>
+  </si>
+  <si>
+    <t>CI_EKYC_PLAYER4</t>
+  </si>
+  <si>
+    <t>E_INVOICE_003</t>
   </si>
 </sst>
 </file>
@@ -520,10 +562,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1036,16 +1078,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2586,10 +2628,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AK4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -2602,11 +2644,15 @@
     <col min="6" max="8" width="17.8571428571429" style="1" customWidth="1"/>
     <col min="9" max="9" width="22.2857142857143" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.5714285714286" style="1" customWidth="1"/>
-    <col min="11" max="15" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.2857142857143" style="1"/>
+    <col min="11" max="18" width="16.8571428571429" style="1" customWidth="1"/>
+    <col min="19" max="19" width="19.1428571428571" style="1" customWidth="1"/>
+    <col min="20" max="22" width="18.2857142857143" style="1" customWidth="1"/>
+    <col min="23" max="36" width="10.2857142857143" style="1"/>
+    <col min="37" max="37" width="14.2857142857143" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="60" customHeight="1" spans="1:31">
+    <row r="1" s="1" customFormat="1" ht="60" customHeight="1" spans="1:37">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2644,64 +2690,82 @@
         <v>140</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="S1" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>145</v>
+        <v>66</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="45" spans="1:31">
+    <row r="2" s="1" customFormat="1" ht="45" spans="1:37">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2730,49 +2794,59 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>81</v>
-      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8" t="s">
+      <c r="Q2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7" t="s">
         <v>154</v>
       </c>
+      <c r="X2" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>164</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="60" spans="1:31">
+    <row r="3" s="1" customFormat="1" ht="45" spans="1:37">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -2801,55 +2875,51 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="R3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O3" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="S3" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
+        <v>168</v>
+      </c>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK3" s="8" t="s">
+        <v>169</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="45" spans="1:31">
+    <row r="4" s="1" customFormat="1" ht="45" spans="1:37">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -2873,38 +2943,70 @@
         <v>26</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>147</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
-      <c r="W4" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
+      <c r="W4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK4" s="8" t="s">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/input_excel_file/flow_definition.xlsx
+++ b/src/main/resources/input_excel_file/flow_definition.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="184">
   <si>
     <t>flow_id</t>
   </si>
@@ -494,6 +494,15 @@
     <t>e_invoice_id</t>
   </si>
   <si>
+    <t>invoice_detail_cost_id</t>
+  </si>
+  <si>
+    <t>invoice_detail_agency_paid_id</t>
+  </si>
+  <si>
+    <t>revenue_detail_report_id</t>
+  </si>
+  <si>
     <t>INPUT_PAYMENT_PLAYER1</t>
   </si>
   <si>
@@ -527,6 +536,18 @@
     <t>E_INVOICE_001</t>
   </si>
   <si>
+    <t>E_INVOICE_PLAYER1</t>
+  </si>
+  <si>
+    <t>E_INVOICE_PLAYER2</t>
+  </si>
+  <si>
+    <t>E_INVOICE_PLAYER3</t>
+  </si>
+  <si>
+    <t>E_INVOICE_PLAYER4</t>
+  </si>
+  <si>
     <t>UPDATE_AGENCY_PAY_PLAYER1_004</t>
   </si>
   <si>
@@ -542,6 +563,9 @@
     <t>E_INVOICE_002</t>
   </si>
   <si>
+    <t>E_INVOICE_AGENCY</t>
+  </si>
+  <si>
     <t>CI_EKYC_PLAYER1</t>
   </si>
   <si>
@@ -555,6 +579,9 @@
   </si>
   <si>
     <t>E_INVOICE_003</t>
+  </si>
+  <si>
+    <t>REPORT_001</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1247,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1238,9 +1265,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1984,13 +2008,13 @@
       <c r="H2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>77</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>79</v>
       </c>
       <c r="L2" s="7" t="s">
@@ -2118,13 +2142,13 @@
       <c r="H3" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>106</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>108</v>
       </c>
       <c r="L3" s="7" t="s">
@@ -2250,13 +2274,13 @@
       <c r="H4" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>114</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>116</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -2327,13 +2351,13 @@
       <c r="H5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>119</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
@@ -2404,13 +2428,13 @@
       <c r="H6" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>124</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>126</v>
       </c>
       <c r="L6" s="7" t="s">
@@ -2628,10 +2652,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AK4"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AO15" sqref="AO15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -2649,10 +2673,11 @@
     <col min="20" max="22" width="18.2857142857143" style="1" customWidth="1"/>
     <col min="23" max="36" width="10.2857142857143" style="1"/>
     <col min="37" max="37" width="14.2857142857143" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="10.2857142857143" style="1"/>
+    <col min="38" max="43" width="15.4285714285714" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="60" customHeight="1" spans="1:37">
+    <row r="1" s="1" customFormat="1" ht="60" customHeight="1" spans="1:43">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2764,8 +2789,26 @@
       <c r="AK1" s="2" t="s">
         <v>153</v>
       </c>
+      <c r="AL1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="45" spans="1:37">
+    <row r="2" s="1" customFormat="1" ht="45" spans="1:43">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2809,44 +2852,58 @@
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AE2" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="7"/>
       <c r="AI2" s="7"/>
-      <c r="AJ2" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK2" s="8" t="s">
-        <v>164</v>
-      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="45" spans="1:37">
+    <row r="3" s="1" customFormat="1" ht="45" spans="1:43">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -2886,16 +2943,16 @@
         <v>81</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
@@ -2906,20 +2963,28 @@
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
       <c r="AI3" s="7"/>
-      <c r="AJ3" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK3" s="8" t="s">
-        <v>169</v>
-      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AQ3" s="7"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="45" spans="1:37">
+    <row r="4" s="1" customFormat="1" ht="45" spans="1:43">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -2949,16 +3014,16 @@
         <v>26</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>80</v>
@@ -2971,41 +3036,57 @@
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AD4" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AE4" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
       <c r="AI4" s="7"/>
-      <c r="AJ4" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK4" s="8" t="s">
-        <v>174</v>
+      <c r="AJ4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK4" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AM4" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN4" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input_excel_file/flow_definition.xlsx
+++ b/src/main/resources/input_excel_file/flow_definition.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="212">
   <si>
     <t>flow_id</t>
   </si>
@@ -431,6 +431,18 @@
     <t>BB_VC_VST_005</t>
   </si>
   <si>
+    <t>get_booking_price_player1_id</t>
+  </si>
+  <si>
+    <t>get_booking_price_player2_id</t>
+  </si>
+  <si>
+    <t>get_booking_price_player3_id</t>
+  </si>
+  <si>
+    <t>get_booking_price_player4_id</t>
+  </si>
+  <si>
     <t>check_in_bag_player1_id</t>
   </si>
   <si>
@@ -494,6 +506,18 @@
     <t>e_invoice_id</t>
   </si>
   <si>
+    <t>e_invoice_payment_id_player1_id</t>
+  </si>
+  <si>
+    <t>e_invoice_payment_id_player2_id</t>
+  </si>
+  <si>
+    <t>e_invoice_payment_id_player3_id</t>
+  </si>
+  <si>
+    <t>e_invoice_payment_id_player4_id</t>
+  </si>
+  <si>
     <t>invoice_detail_cost_id</t>
   </si>
   <si>
@@ -503,6 +527,30 @@
     <t>revenue_detail_report_id</t>
   </si>
   <si>
+    <t>revenue_detail_report_player1_id</t>
+  </si>
+  <si>
+    <t>revenue_detail_report_player2_id</t>
+  </si>
+  <si>
+    <t>revenue_detail_report_player3_id</t>
+  </si>
+  <si>
+    <t>revenue_detail_report_player4_id</t>
+  </si>
+  <si>
+    <t>BOOKING_PRICE_PLAYER1</t>
+  </si>
+  <si>
+    <t>BOOKING_PRICE_PLAYER2</t>
+  </si>
+  <si>
+    <t>BOOKING_PRICE_PLAYER3</t>
+  </si>
+  <si>
+    <t>BOOKING_PRICE_PLAYER4</t>
+  </si>
+  <si>
     <t>INPUT_PAYMENT_PLAYER1</t>
   </si>
   <si>
@@ -536,6 +584,18 @@
     <t>E_INVOICE_001</t>
   </si>
   <si>
+    <t>E_INVOICE_PAYMENT_ID_PLAYER1</t>
+  </si>
+  <si>
+    <t>E_INVOICE_PAYMENT_ID_PLAYER2</t>
+  </si>
+  <si>
+    <t>E_INVOICE_PAYMENT_ID_PLAYER3</t>
+  </si>
+  <si>
+    <t>E_INVOICE_PAYMENT_ID_PLAYER4</t>
+  </si>
+  <si>
     <t>E_INVOICE_PLAYER1</t>
   </si>
   <si>
@@ -548,6 +608,18 @@
     <t>E_INVOICE_PLAYER4</t>
   </si>
   <si>
+    <t>REPORT_VST_PLAYER1</t>
+  </si>
+  <si>
+    <t>REPORT_VST_PLAYER2</t>
+  </si>
+  <si>
+    <t>REPORT_VST_PLAYER3</t>
+  </si>
+  <si>
+    <t>REPORT_VST_PLAYER4</t>
+  </si>
+  <si>
     <t>UPDATE_AGENCY_PAY_PLAYER1_004</t>
   </si>
   <si>
@@ -564,6 +636,18 @@
   </si>
   <si>
     <t>E_INVOICE_AGENCY</t>
+  </si>
+  <si>
+    <t>REPORT_AGENCY_PLAYER1</t>
+  </si>
+  <si>
+    <t>REPORT_AGENCY_PLAYER2</t>
+  </si>
+  <si>
+    <t>REPORT_AGENCY_PLAYER3</t>
+  </si>
+  <si>
+    <t>REPORT_AGENCY_PLAYER4</t>
   </si>
   <si>
     <t>CI_EKYC_PLAYER1</t>
@@ -2652,32 +2736,19 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:BC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AO15" sqref="AO15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1428571428571" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="8" width="17.8571428571429" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.2857142857143" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5714285714286" style="1" customWidth="1"/>
-    <col min="11" max="18" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="19" max="19" width="19.1428571428571" style="1" customWidth="1"/>
-    <col min="20" max="22" width="18.2857142857143" style="1" customWidth="1"/>
-    <col min="23" max="36" width="10.2857142857143" style="1"/>
-    <col min="37" max="37" width="14.2857142857143" style="1" customWidth="1"/>
-    <col min="38" max="43" width="15.4285714285714" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="10.2857142857143" style="1"/>
+    <col min="2" max="2" width="16.1428571428571" customWidth="1"/>
+    <col min="52" max="52" width="12.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="60" customHeight="1" spans="1:43">
+    <row r="1" s="1" customFormat="1" ht="60" customHeight="1" spans="1:55">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2727,88 +2798,124 @@
         <v>144</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>149</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AE1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AF1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="AJ1" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="45" spans="1:43">
+    <row r="2" s="1" customFormat="1" ht="60" spans="1:55">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2822,88 +2929,124 @@
         <v>75</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>81</v>
-      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>160</v>
-      </c>
+      <c r="U2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
       <c r="AA2" s="7" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="AE2" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AL2" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>169</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
       <c r="AN2" s="7" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="AO2" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
+        <v>183</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS2" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU2" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="AV2" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="AW2" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="BA2" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="BB2" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="BC2" s="7" t="s">
+        <v>195</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="45" spans="1:43">
+    <row r="3" s="1" customFormat="1" ht="60" spans="1:55">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -2916,75 +3059,95 @@
       <c r="D3" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="S3" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
+      <c r="W3" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>199</v>
+      </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
-      <c r="AE3" s="7" t="s">
-        <v>165</v>
-      </c>
+      <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AK3" s="7" t="s">
-        <v>176</v>
-      </c>
+      <c r="AI3" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
       <c r="AM3" s="7"/>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="7"/>
-      <c r="AP3" s="7" t="s">
-        <v>177</v>
-      </c>
+      <c r="AN3" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP3" s="7"/>
       <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY3" s="7"/>
+      <c r="AZ3" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="BA3" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="BB3" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="BC3" s="7" t="s">
+        <v>205</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="45" spans="1:43">
+    <row r="4" s="1" customFormat="1" ht="60" spans="1:55">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -3001,93 +3164,105 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF4" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="AG4" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="AH4" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="AI4" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="Q4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="X4" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z4" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA4" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB4" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD4" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE4" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AK4" s="7" t="s">
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="AL4" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AM4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AN4" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="AO4" s="7" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="AP4" s="7"/>
-      <c r="AQ4" s="7" t="s">
-        <v>183</v>
-      </c>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU4" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="AV4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="AW4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ4" s="7"/>
+      <c r="BA4" s="7"/>
+      <c r="BB4" s="7"/>
+      <c r="BC4" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/input_excel_file/flow_definition.xlsx
+++ b/src/main/resources/input_excel_file/flow_definition.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11460" activeTab="7"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Flow Order Sheet Mapping" sheetId="6" r:id="rId1"/>
     <sheet name="ORDER_BOOKING_CI_POS" sheetId="7" r:id="rId2"/>
-    <sheet name="ORDER_BOOKING_CI" sheetId="8" r:id="rId3"/>
-    <sheet name="flow_1_player" sheetId="1" r:id="rId4"/>
-    <sheet name="flow_4_player" sheetId="2" r:id="rId5"/>
-    <sheet name="VC_1_player" sheetId="3" r:id="rId6"/>
-    <sheet name="Test" sheetId="5" r:id="rId7"/>
-    <sheet name="Test_02" sheetId="9" r:id="rId8"/>
+    <sheet name="FLOW_001" sheetId="10" r:id="rId3"/>
+    <sheet name="ORDER_BOOKING_CI" sheetId="8" r:id="rId4"/>
+    <sheet name="flow_1_player" sheetId="1" r:id="rId5"/>
+    <sheet name="flow_4_player" sheetId="2" r:id="rId6"/>
+    <sheet name="VC_1_player" sheetId="3" r:id="rId7"/>
+    <sheet name="Test" sheetId="5" r:id="rId8"/>
+    <sheet name="Test_02" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="276">
   <si>
     <t>step_order</t>
   </si>
@@ -714,9 +715,6 @@
     <t>flow_order_sheet</t>
   </si>
   <si>
-    <t>ORDER_BOOKING_CI_POS</t>
-  </si>
-  <si>
     <t>BOOKING_PRICE_PLAYER1</t>
   </si>
   <si>
@@ -729,6 +727,93 @@
     <t>BOOKING_PRICE_PLAYER4</t>
   </si>
   <si>
+    <t>ADD_3SUB_BAG_001</t>
+  </si>
+  <si>
+    <t>INPUT_PAYMENT_PLAYER1_001</t>
+  </si>
+  <si>
+    <t>SINGLE_PAYMENT_LIST_PLAYER1</t>
+  </si>
+  <si>
+    <t>CHECK_OUT_GROUP_4PLAYER</t>
+  </si>
+  <si>
+    <t>E_INVOICE_001</t>
+  </si>
+  <si>
+    <t>E_INVOICE_PAYMENT_ID_PLAYER1</t>
+  </si>
+  <si>
+    <t>E_INVOICE_PAYMENT_ID_PLAYER2</t>
+  </si>
+  <si>
+    <t>E_INVOICE_PAYMENT_ID_PLAYER3</t>
+  </si>
+  <si>
+    <t>E_INVOICE_PAYMENT_ID_PLAYER4</t>
+  </si>
+  <si>
+    <t>E_INVOICE_PLAYER1</t>
+  </si>
+  <si>
+    <t>E_INVOICE_PLAYER2</t>
+  </si>
+  <si>
+    <t>E_INVOICE_PLAYER3</t>
+  </si>
+  <si>
+    <t>E_INVOICE_PLAYER4</t>
+  </si>
+  <si>
+    <t>REPORT_VST_PLAYER1</t>
+  </si>
+  <si>
+    <t>REPORT_VST_PLAYER2</t>
+  </si>
+  <si>
+    <t>REPORT_VST_PLAYER3</t>
+  </si>
+  <si>
+    <t>REPORT_VST_PLAYER4</t>
+  </si>
+  <si>
+    <t>Flow Order Sheet Mapping</t>
+  </si>
+  <si>
+    <t>E_INVOICE_002</t>
+  </si>
+  <si>
+    <t>E_INVOICE_AGENCY</t>
+  </si>
+  <si>
+    <t>REPORT_AGENCY_PLAYER1</t>
+  </si>
+  <si>
+    <t>REPORT_AGENCY_PLAYER2</t>
+  </si>
+  <si>
+    <t>REPORT_AGENCY_PLAYER3</t>
+  </si>
+  <si>
+    <t>REPORT_AGENCY_PLAYER4</t>
+  </si>
+  <si>
+    <t>ORDER_BOOKING_CI</t>
+  </si>
+  <si>
+    <t>CI_EKYC_PLAYER1</t>
+  </si>
+  <si>
+    <t>CI_EKYC_PLAYER2</t>
+  </si>
+  <si>
+    <t>CI_EKYC_PLAYER3</t>
+  </si>
+  <si>
+    <t>CI_EKYC_PLAYER4</t>
+  </si>
+  <si>
     <t>INPUT_PAYMENT_PLAYER1</t>
   </si>
   <si>
@@ -741,9 +826,6 @@
     <t>INPUT_PAYMENT_PLAYER4</t>
   </si>
   <si>
-    <t>SINGLE_PAYMENT_LIST_PLAYER1</t>
-  </si>
-  <si>
     <t>SINGLE_PAYMENT_LIST_PLAYER2</t>
   </si>
   <si>
@@ -753,49 +835,22 @@
     <t>SINGLE_PAYMENT_LIST_PLAYER4</t>
   </si>
   <si>
-    <t>ADD_3SUB_BAG_001</t>
-  </si>
-  <si>
-    <t>CHECK_OUT_GROUP_4PLAYER</t>
-  </si>
-  <si>
-    <t>E_INVOICE_001</t>
-  </si>
-  <si>
-    <t>E_INVOICE_PAYMENT_ID_PLAYER1</t>
-  </si>
-  <si>
-    <t>E_INVOICE_PAYMENT_ID_PLAYER2</t>
-  </si>
-  <si>
-    <t>E_INVOICE_PAYMENT_ID_PLAYER3</t>
-  </si>
-  <si>
-    <t>E_INVOICE_PAYMENT_ID_PLAYER4</t>
-  </si>
-  <si>
-    <t>E_INVOICE_PLAYER1</t>
-  </si>
-  <si>
-    <t>E_INVOICE_PLAYER2</t>
-  </si>
-  <si>
-    <t>E_INVOICE_PLAYER3</t>
-  </si>
-  <si>
-    <t>E_INVOICE_PLAYER4</t>
-  </si>
-  <si>
-    <t>REPORT_VST_PLAYER1</t>
-  </si>
-  <si>
-    <t>REPORT_VST_PLAYER2</t>
-  </si>
-  <si>
-    <t>REPORT_VST_PLAYER3</t>
-  </si>
-  <si>
-    <t>REPORT_VST_PLAYER4</t>
+    <t>CHECK_OUT_BAG_PLAYER1</t>
+  </si>
+  <si>
+    <t>CHECK_OUT_BAG_PLAYER2</t>
+  </si>
+  <si>
+    <t>CHECK_OUT_BAG_PLAYER3</t>
+  </si>
+  <si>
+    <t>CHECK_OUT_BAG_PLAYER4</t>
+  </si>
+  <si>
+    <t>E_INVOICE_003</t>
+  </si>
+  <si>
+    <t>REPORT_001</t>
   </si>
   <si>
     <t>UPDATE_AGENCY_PAY_PLAYER1_004</t>
@@ -808,48 +863,6 @@
   </si>
   <si>
     <t>UPDATE_AGENCY_PAY_PLAYER4_004</t>
-  </si>
-  <si>
-    <t>E_INVOICE_002</t>
-  </si>
-  <si>
-    <t>E_INVOICE_AGENCY</t>
-  </si>
-  <si>
-    <t>REPORT_AGENCY_PLAYER1</t>
-  </si>
-  <si>
-    <t>REPORT_AGENCY_PLAYER2</t>
-  </si>
-  <si>
-    <t>REPORT_AGENCY_PLAYER3</t>
-  </si>
-  <si>
-    <t>REPORT_AGENCY_PLAYER4</t>
-  </si>
-  <si>
-    <t>ORDER_BOOKING_CI</t>
-  </si>
-  <si>
-    <t>CI_EKYC_PLAYER1</t>
-  </si>
-  <si>
-    <t>CI_EKYC_PLAYER2</t>
-  </si>
-  <si>
-    <t>CI_EKYC_PLAYER3</t>
-  </si>
-  <si>
-    <t>CI_EKYC_PLAYER4</t>
-  </si>
-  <si>
-    <t>E_INVOICE_003</t>
-  </si>
-  <si>
-    <t>REPORT_001</t>
-  </si>
-  <si>
-    <t>Flow Order Sheet Mapping</t>
   </si>
 </sst>
 </file>
@@ -1551,7 +1564,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1572,6 +1585,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1913,733 +1929,733 @@
   <sheetPr/>
   <dimension ref="A1:A163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.4285714285714" style="13" customWidth="1"/>
+    <col min="1" max="1" width="48.4285714285714" style="14" customWidth="1"/>
     <col min="2" max="2" width="26.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="16" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="16" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="15" t="s">
+      <c r="A98" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="15" t="s">
+      <c r="A99" s="16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="15" t="s">
+      <c r="A100" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="15" t="s">
+      <c r="A102" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="15" t="s">
+      <c r="A103" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="15" t="s">
+      <c r="A104" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="15" t="s">
+      <c r="A105" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="15" t="s">
+      <c r="A106" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="15" t="s">
+      <c r="A107" s="16" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="15" t="s">
+      <c r="A108" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="15" t="s">
+      <c r="A109" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="15" t="s">
+      <c r="A110" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="15" t="s">
+      <c r="A112" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="15" t="s">
+      <c r="A113" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="15" t="s">
+      <c r="A114" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="15" t="s">
+      <c r="A115" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="16" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="15" t="s">
+      <c r="A118" s="16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="15" t="s">
+      <c r="A119" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="15" t="s">
+      <c r="A120" s="16" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="15" t="s">
+      <c r="A121" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="15" t="s">
+      <c r="A122" s="16" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="15" t="s">
+      <c r="A124" s="16" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="15" t="s">
+      <c r="A125" s="16" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="15" t="s">
+      <c r="A126" s="16" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="15" t="s">
+      <c r="A127" s="16" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="15" t="s">
+      <c r="A128" s="16" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="15" t="s">
+      <c r="A129" s="16" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="15" t="s">
+      <c r="A130" s="16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="15" t="s">
+      <c r="A131" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="15" t="s">
+      <c r="A133" s="16" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="15" t="s">
+      <c r="A134" s="16" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="15" t="s">
+      <c r="A135" s="16" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="15" t="s">
+      <c r="A136" s="16" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="15" t="s">
+      <c r="A137" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="15" t="s">
+      <c r="A138" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="15" t="s">
+      <c r="A139" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="15" t="s">
+      <c r="A140" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="15" t="s">
+      <c r="A142" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="15" t="s">
+      <c r="A143" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="15" t="s">
+      <c r="A144" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="15" t="s">
+      <c r="A145" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="15" t="s">
+      <c r="A146" s="16" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="15" t="s">
+      <c r="A148" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="15" t="s">
+      <c r="A149" s="16" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="15" t="s">
+      <c r="A150" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="15" t="s">
+      <c r="A151" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="15" t="s">
+      <c r="A152" s="16" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="15" t="s">
+      <c r="A153" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="15" t="s">
+      <c r="A154" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="15" t="s">
+      <c r="A155" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="15" t="s">
+      <c r="A156" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="15" t="s">
+      <c r="A157" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="15" t="s">
+      <c r="A159" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="15" t="s">
+      <c r="A160" s="16" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="15" t="s">
+      <c r="A161" s="16" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="15" t="s">
+      <c r="A162" s="16" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="15" t="s">
+      <c r="A163" s="16" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2655,502 +2671,502 @@
   <dimension ref="A1:A110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.4285714285714" style="13" customWidth="1"/>
+    <col min="1" max="1" width="48.4285714285714" style="14" customWidth="1"/>
     <col min="2" max="2" width="26.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="16" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="16" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="15" t="s">
+      <c r="A98" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="15" t="s">
+      <c r="A99" s="16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="15" t="s">
+      <c r="A100" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="15" t="s">
+      <c r="A102" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="15" t="s">
+      <c r="A103" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="15" t="s">
+      <c r="A104" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="15" t="s">
+      <c r="A105" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="15" t="s">
+      <c r="A106" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="15" t="s">
+      <c r="A107" s="16" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="15" t="s">
+      <c r="A108" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="15" t="s">
+      <c r="A109" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="15" t="s">
+      <c r="A110" s="16" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3161,6 +3177,141 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="48.4285714285714" style="14" customWidth="1"/>
+    <col min="2" max="2" width="26.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="16"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="16"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="16"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A33"/>
@@ -3171,147 +3322,147 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.4285714285714" style="13" customWidth="1"/>
+    <col min="1" max="1" width="48.4285714285714" style="14" customWidth="1"/>
     <col min="2" max="2" width="26.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3321,7 +3472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L6"/>
@@ -3348,40 +3499,40 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3389,7 +3540,7 @@
       <c r="A2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>135</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -3423,7 +3574,7 @@
       <c r="A3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>145</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -3459,7 +3610,7 @@
       <c r="A4" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>151</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -3493,7 +3644,7 @@
       <c r="A5" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>156</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -3525,7 +3676,7 @@
       <c r="A6" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>161</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -3561,13 +3712,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AR6"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:AB2"/>
+      <selection activeCell="AC1" sqref="AC1:AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -3582,136 +3733,136 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="65" customHeight="1" spans="1:44">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AB1" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AC1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AD1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AE1" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AF1" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AG1" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AH1" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AI1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AK1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AL1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AM1" s="10" t="s">
+      <c r="AM1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AN1" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="AO1" s="10" t="s">
+      <c r="AO1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="AP1" s="10" t="s">
+      <c r="AP1" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="AQ1" s="10" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="AR1" s="10" t="s">
+      <c r="AR1" s="11" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3719,7 +3870,7 @@
       <c r="A2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>135</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -3740,13 +3891,13 @@
       <c r="H2" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>170</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>172</v>
       </c>
       <c r="L2" s="8" t="s">
@@ -3853,7 +4004,7 @@
       <c r="A3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>145</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -3874,13 +4025,13 @@
       <c r="H3" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="13" t="s">
         <v>199</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>201</v>
       </c>
       <c r="L3" s="8" t="s">
@@ -3985,7 +4136,7 @@
       <c r="A4" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>151</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -4006,13 +4157,13 @@
       <c r="H4" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>207</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>209</v>
       </c>
       <c r="L4" s="8" t="s">
@@ -4062,7 +4213,7 @@
       <c r="A5" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>156</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -4083,13 +4234,13 @@
       <c r="H5" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="13" t="s">
         <v>212</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>214</v>
       </c>
       <c r="L5" s="8" t="s">
@@ -4139,7 +4290,7 @@
       <c r="A6" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>161</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -4160,13 +4311,13 @@
       <c r="H6" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="13" t="s">
         <v>217</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>219</v>
       </c>
       <c r="L6" s="8" t="s">
@@ -4218,7 +4369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G6"/>
@@ -4240,25 +4391,25 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:7">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4266,7 +4417,7 @@
       <c r="A2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>135</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -4289,7 +4440,7 @@
       <c r="A3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>145</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -4312,7 +4463,7 @@
       <c r="A4" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>151</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -4333,7 +4484,7 @@
       <c r="A5" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>156</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -4356,7 +4507,7 @@
       <c r="A6" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>161</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -4381,13 +4532,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BG4"/>
+  <dimension ref="A1:BC4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -4395,10 +4546,10 @@
     <col min="1" max="1" width="11.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="17.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="59" width="15.5714285714286" customWidth="1"/>
+    <col min="4" max="55" width="15.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="89" customHeight="1" spans="1:59">
+    <row r="1" s="1" customFormat="1" ht="89" customHeight="1" spans="1:55">
       <c r="A1" s="2" t="s">
         <v>129</v>
       </c>
@@ -4468,116 +4619,104 @@
       <c r="W1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>83</v>
+      <c r="X1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AE1" s="3" t="s">
         <v>113</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI1" s="3" t="s">
         <v>114</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AO1" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP1" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AT1" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AW1" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AX1" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AY1" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AZ1" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BA1" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="BB1" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="BC1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BF1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BG1" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="45" spans="1:59">
+    <row r="2" s="1" customFormat="1" ht="45" spans="1:55">
       <c r="A2" s="4" t="s">
         <v>134</v>
       </c>
@@ -4585,7 +4724,7 @@
         <v>135</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>136</v>
@@ -4594,16 +4733,16 @@
         <v>168</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>229</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>230</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>169</v>
@@ -4638,96 +4777,82 @@
         <v>188</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
+        <v>190</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>231</v>
+      </c>
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
-      <c r="AE2" s="8" t="s">
-        <v>231</v>
-      </c>
+      <c r="AE2" s="8"/>
       <c r="AF2" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AO2" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AP2" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AQ2" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AR2" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AS2" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AT2" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8" t="s">
+      <c r="AU2" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="AS2" s="8" t="s">
+      <c r="AV2" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AW2" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="AV2" s="8" t="s">
+      <c r="BA2" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="AW2" s="8" t="s">
+      <c r="BB2" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="AX2" s="8" t="s">
+      <c r="BC2" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="AY2" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="AZ2" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="BA2" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="BB2" s="8"/>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="BE2" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="BF2" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="BG2" s="8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="45" spans="1:59">
+    </row>
+    <row r="3" s="1" customFormat="1" ht="30" spans="1:55">
       <c r="A3" s="4" t="s">
         <v>144</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="10" t="s">
+        <v>247</v>
+      </c>
       <c r="D3" s="6" t="s">
         <v>136</v>
       </c>
@@ -4764,27 +4889,15 @@
       <c r="W3" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="X3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>189</v>
-      </c>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="7"/>
       <c r="AA3" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>257</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
       <c r="AE3" s="8"/>
       <c r="AF3" s="8"/>
       <c r="AG3" s="8"/>
@@ -4793,53 +4906,47 @@
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
       <c r="AL3" s="8"/>
-      <c r="AM3" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="AN3" s="8"/>
-      <c r="AO3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO3" s="8" t="s">
+        <v>248</v>
+      </c>
       <c r="AP3" s="8"/>
       <c r="AQ3" s="8"/>
-      <c r="AR3" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS3" s="8" t="s">
-        <v>258</v>
-      </c>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
       <c r="AT3" s="8"/>
       <c r="AU3" s="8"/>
       <c r="AV3" s="8"/>
       <c r="AW3" s="8"/>
-      <c r="AX3" s="8"/>
+      <c r="AX3" s="8" t="s">
+        <v>249</v>
+      </c>
       <c r="AY3" s="8"/>
-      <c r="AZ3" s="8"/>
-      <c r="BA3" s="8"/>
+      <c r="AZ3" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="BA3" s="8" t="s">
+        <v>251</v>
+      </c>
       <c r="BB3" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="BC3" s="8"/>
-      <c r="BD3" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="BE3" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="BF3" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="BG3" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="30" spans="1:59">
+        <v>252</v>
+      </c>
+      <c r="BC3" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="30" spans="1:55">
       <c r="A4" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>264</v>
+      <c r="C4" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>136</v>
@@ -4848,16 +4955,16 @@
         <v>197</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>229</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>230</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -4876,16 +4983,16 @@
         <v>148</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="V4" s="8" t="s">
         <v>173</v>
@@ -4900,73 +5007,73 @@
         <v>188</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
+      <c r="AB4" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>261</v>
+      </c>
       <c r="AE4" s="8" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="AF4" s="8" t="s">
         <v>232</v>
       </c>
       <c r="AG4" s="8" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="AH4" s="8" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="AI4" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="AJ4" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="AK4" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="AL4" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="AM4" s="8" t="s">
-        <v>239</v>
+        <v>265</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL4" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="AM4" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
+      <c r="AO4" s="8" t="s">
+        <v>270</v>
+      </c>
       <c r="AP4" s="8"/>
       <c r="AQ4" s="8"/>
-      <c r="AR4" s="8" t="s">
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU4" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="AS4" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8" t="s">
-        <v>246</v>
-      </c>
+      <c r="AV4" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="AW4" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="AX4" s="8"/>
       <c r="AY4" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="AZ4" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="BA4" s="8" t="s">
-        <v>249</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
       <c r="BB4" s="8"/>
-      <c r="BC4" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="8"/>
-      <c r="BF4" s="8"/>
-      <c r="BG4" s="8"/>
+      <c r="BC4" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4974,13 +5081,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -5169,7 +5276,7 @@
         <v>135</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>136</v>
@@ -5178,16 +5285,16 @@
         <v>168</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>229</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>230</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>169</v>
@@ -5220,79 +5327,85 @@
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="AC2" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AF2" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AG2" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="AO2" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AP2" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AQ2" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AR2" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AS2" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AT2" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AU2" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8" t="s">
+      <c r="AV2" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AW2" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AX2" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="AR2" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="AS2" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="AT2" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="AU2" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="AV2" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="AW2" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="AX2" s="8" t="s">
-        <v>249</v>
       </c>
       <c r="AY2" s="8"/>
       <c r="AZ2" s="8"/>
       <c r="BA2" s="8" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="BB2" s="8" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="BC2" s="8" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="BD2" s="8" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="45" spans="1:56">
@@ -5303,7 +5416,7 @@
         <v>161</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>136</v>
@@ -5342,16 +5455,16 @@
         <v>174</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="Z3" s="8" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
@@ -5362,17 +5475,17 @@
       <c r="AH3" s="8"/>
       <c r="AI3" s="8"/>
       <c r="AJ3" s="8" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="AK3" s="8"/>
       <c r="AL3" s="8"/>
       <c r="AM3" s="8"/>
       <c r="AN3" s="8"/>
       <c r="AO3" s="8" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AP3" s="8" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AQ3" s="8"/>
       <c r="AR3" s="8"/>
@@ -5383,20 +5496,20 @@
       <c r="AW3" s="8"/>
       <c r="AX3" s="8"/>
       <c r="AY3" s="8" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="AZ3" s="8"/>
       <c r="BA3" s="8" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="BB3" s="8" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="BC3" s="8" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="BD3" s="8" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="30" spans="1:56">
@@ -5407,7 +5520,7 @@
         <v>145</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>136</v>
@@ -5416,16 +5529,16 @@
         <v>197</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>229</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>230</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -5444,16 +5557,16 @@
         <v>148</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="V4" s="8" t="s">
         <v>173</v>
@@ -5466,61 +5579,61 @@
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="AC4" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AF4" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="AD4" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="AE4" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="AF4" s="8" t="s">
-        <v>235</v>
-      </c>
       <c r="AG4" s="8" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="AH4" s="8" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="AI4" s="8" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="AJ4" s="8" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="AK4" s="8"/>
       <c r="AL4" s="8"/>
       <c r="AM4" s="8"/>
       <c r="AN4" s="8"/>
       <c r="AO4" s="8" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AP4" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AQ4" s="8"/>
       <c r="AR4" s="8"/>
       <c r="AS4" s="8"/>
       <c r="AT4" s="8"/>
       <c r="AU4" s="8" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AV4" s="8" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AW4" s="8" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AX4" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AY4" s="8"/>
       <c r="AZ4" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="BA4" s="8"/>
       <c r="BB4" s="8"/>

--- a/src/main/resources/input_excel_file/flow_definition.xlsx
+++ b/src/main/resources/input_excel_file/flow_definition.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="277">
   <si>
     <t>step_order</t>
   </si>
@@ -851,6 +851,9 @@
   </si>
   <si>
     <t>REPORT_001</t>
+  </si>
+  <si>
+    <t>REPORT_VST_PLAYER1_001</t>
   </si>
   <si>
     <t>UPDATE_AGENCY_PAY_PLAYER1_004</t>
@@ -1564,7 +1567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1585,9 +1588,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1929,733 +1929,733 @@
   <sheetPr/>
   <dimension ref="A1:A163"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.4285714285714" style="14" customWidth="1"/>
-    <col min="2" max="2" width="26.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="48.4285714285714" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="16" t="s">
+      <c r="A84" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="16" t="s">
+      <c r="A90" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="16" t="s">
+      <c r="A94" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="16" t="s">
+      <c r="A95" s="15" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="16" t="s">
+      <c r="A96" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="15" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="16" t="s">
+      <c r="A99" s="15" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="16" t="s">
+      <c r="A100" s="15" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="16" t="s">
+      <c r="A102" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="16" t="s">
+      <c r="A103" s="15" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="16" t="s">
+      <c r="A104" s="15" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="16" t="s">
+      <c r="A105" s="15" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="16" t="s">
+      <c r="A106" s="15" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="16" t="s">
+      <c r="A107" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="16" t="s">
+      <c r="A108" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="16" t="s">
+      <c r="A109" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="16" t="s">
+      <c r="A110" s="15" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="16" t="s">
+      <c r="A112" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="16" t="s">
+      <c r="A113" s="15" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="16" t="s">
+      <c r="A114" s="15" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="16" t="s">
+      <c r="A115" s="15" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="16" t="s">
+      <c r="A117" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="16" t="s">
+      <c r="A118" s="15" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="16" t="s">
+      <c r="A119" s="15" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="16" t="s">
+      <c r="A120" s="15" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="16" t="s">
+      <c r="A121" s="15" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="16" t="s">
+      <c r="A122" s="15" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="16" t="s">
+      <c r="A124" s="15" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="16" t="s">
+      <c r="A125" s="15" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="16" t="s">
+      <c r="A126" s="15" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="16" t="s">
+      <c r="A127" s="15" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="16" t="s">
+      <c r="A128" s="15" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="16" t="s">
+      <c r="A129" s="15" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="16" t="s">
+      <c r="A130" s="15" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="16" t="s">
+      <c r="A131" s="15" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="16" t="s">
+      <c r="A133" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="16" t="s">
+      <c r="A134" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="16" t="s">
+      <c r="A135" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="16" t="s">
+      <c r="A136" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="16" t="s">
+      <c r="A137" s="15" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="16" t="s">
+      <c r="A138" s="15" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="16" t="s">
+      <c r="A139" s="15" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="16" t="s">
+      <c r="A140" s="15" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="16" t="s">
+      <c r="A142" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="16" t="s">
+      <c r="A143" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="16" t="s">
+      <c r="A144" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="16" t="s">
+      <c r="A145" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="16" t="s">
+      <c r="A146" s="15" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="16" t="s">
+      <c r="A148" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="16" t="s">
+      <c r="A149" s="15" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="16" t="s">
+      <c r="A150" s="15" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="16" t="s">
+      <c r="A151" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="16" t="s">
+      <c r="A152" s="15" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="16" t="s">
+      <c r="A153" s="15" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="16" t="s">
+      <c r="A154" s="15" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="16" t="s">
+      <c r="A155" s="15" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="16" t="s">
+      <c r="A156" s="15" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="16" t="s">
+      <c r="A157" s="15" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="16" t="s">
+      <c r="A159" s="15" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="16" t="s">
+      <c r="A160" s="15" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="16" t="s">
+      <c r="A161" s="15" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="16" t="s">
+      <c r="A162" s="15" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="16" t="s">
+      <c r="A163" s="15" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2676,497 +2676,497 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.4285714285714" style="14" customWidth="1"/>
+    <col min="1" max="1" width="48.4285714285714" style="13" customWidth="1"/>
     <col min="2" max="2" width="26.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="16" t="s">
+      <c r="A84" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="16" t="s">
+      <c r="A90" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="16" t="s">
+      <c r="A94" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="16" t="s">
+      <c r="A95" s="15" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="16" t="s">
+      <c r="A96" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="15" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="16" t="s">
+      <c r="A99" s="15" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="16" t="s">
+      <c r="A100" s="15" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="16" t="s">
+      <c r="A102" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="16" t="s">
+      <c r="A103" s="15" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="16" t="s">
+      <c r="A104" s="15" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="16" t="s">
+      <c r="A105" s="15" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="16" t="s">
+      <c r="A106" s="15" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="16" t="s">
+      <c r="A107" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="16" t="s">
+      <c r="A108" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="16" t="s">
+      <c r="A109" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="16" t="s">
+      <c r="A110" s="15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3187,121 +3187,121 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.4285714285714" style="14" customWidth="1"/>
+    <col min="1" max="1" width="48.4285714285714" style="13" customWidth="1"/>
     <col min="2" max="2" width="26.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="16"/>
+      <c r="A3" s="15"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="16"/>
+      <c r="A12" s="15"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="16"/>
+      <c r="A14" s="15"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3322,147 +3322,147 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.4285714285714" style="14" customWidth="1"/>
+    <col min="1" max="1" width="48.4285714285714" style="13" customWidth="1"/>
     <col min="2" max="2" width="26.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3499,40 +3499,40 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       <c r="A2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>135</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -3574,7 +3574,7 @@
       <c r="A3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>145</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -3610,7 +3610,7 @@
       <c r="A4" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>151</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -3644,7 +3644,7 @@
       <c r="A5" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>156</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -3676,7 +3676,7 @@
       <c r="A6" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>161</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -3733,136 +3733,136 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="65" customHeight="1" spans="1:44">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AB1" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AD1" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AE1" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AF1" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AG1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AH1" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AI1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AK1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AL1" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AM1" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AN1" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AO1" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AP1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AQ1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AR1" s="10" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3870,7 +3870,7 @@
       <c r="A2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>135</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -3891,13 +3891,13 @@
       <c r="H2" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>170</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>172</v>
       </c>
       <c r="L2" s="8" t="s">
@@ -4004,7 +4004,7 @@
       <c r="A3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>145</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -4025,13 +4025,13 @@
       <c r="H3" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>199</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>201</v>
       </c>
       <c r="L3" s="8" t="s">
@@ -4136,7 +4136,7 @@
       <c r="A4" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>151</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -4157,13 +4157,13 @@
       <c r="H4" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>207</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>209</v>
       </c>
       <c r="L4" s="8" t="s">
@@ -4213,7 +4213,7 @@
       <c r="A5" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>156</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -4234,13 +4234,13 @@
       <c r="H5" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>212</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>214</v>
       </c>
       <c r="L5" s="8" t="s">
@@ -4290,7 +4290,7 @@
       <c r="A6" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>161</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -4311,13 +4311,13 @@
       <c r="H6" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>217</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="12" t="s">
         <v>219</v>
       </c>
       <c r="L6" s="8" t="s">
@@ -4391,25 +4391,25 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:7">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
       <c r="A2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>135</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -4440,7 +4440,7 @@
       <c r="A3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>145</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -4463,7 +4463,7 @@
       <c r="A4" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>151</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -4484,7 +4484,7 @@
       <c r="A5" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>156</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -4507,7 +4507,7 @@
       <c r="A6" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>161</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -4619,13 +4619,13 @@
       <c r="W1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="10" t="s">
         <v>166</v>
       </c>
       <c r="AA1" s="3" t="s">
@@ -4850,7 +4850,7 @@
       <c r="B3" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>247</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -4945,7 +4945,7 @@
       <c r="B4" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>254</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -5034,16 +5034,16 @@
       <c r="AI4" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="AJ4" s="9" t="s">
+      <c r="AJ4" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="AK4" s="9" t="s">
+      <c r="AK4" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="AL4" s="9" t="s">
+      <c r="AL4" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="AM4" s="9" t="s">
+      <c r="AM4" s="8" t="s">
         <v>269</v>
       </c>
       <c r="AN4" s="8"/>
@@ -5086,8 +5086,8 @@
   <sheetPr/>
   <dimension ref="A1:BD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AZ18" sqref="AZ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -5351,21 +5351,19 @@
         <v>265</v>
       </c>
       <c r="AJ2" s="8"/>
-      <c r="AK2" s="9" t="s">
+      <c r="AK2" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AL2" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="AM2" s="9" t="s">
+      <c r="AM2" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="AN2" s="9" t="s">
+      <c r="AN2" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="AO2" s="8" t="s">
-        <v>233</v>
-      </c>
+      <c r="AO2" s="8"/>
       <c r="AP2" s="8" t="s">
         <v>234</v>
       </c>
@@ -5396,7 +5394,7 @@
       <c r="AY2" s="8"/>
       <c r="AZ2" s="8"/>
       <c r="BA2" s="8" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="BB2" s="8" t="s">
         <v>244</v>
@@ -5455,16 +5453,16 @@
         <v>174</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z3" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>

--- a/src/main/resources/input_excel_file/flow_definition.xlsx
+++ b/src/main/resources/input_excel_file/flow_definition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Flow Order Sheet Mapping" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="278">
   <si>
     <t>step_order</t>
   </si>
@@ -70,358 +70,361 @@
     <t>edit_booking_1_player_id</t>
   </si>
   <si>
+    <t>get_booking_list_case_id</t>
+  </si>
+  <si>
+    <t>get_booking_price_case_id</t>
+  </si>
+  <si>
+    <t>get_booking_price_player1_id</t>
+  </si>
+  <si>
+    <t>get_booking_price_player2_id</t>
+  </si>
+  <si>
+    <t>get_booking_price_player3_id</t>
+  </si>
+  <si>
+    <t>get_booking_price_player4_id</t>
+  </si>
+  <si>
+    <t>check_in_bag_player1_id</t>
+  </si>
+  <si>
+    <t>check_in_bag_player2_id</t>
+  </si>
+  <si>
+    <t>check_in_bag_player3_id</t>
+  </si>
+  <si>
+    <t>check_in_bag_player4_id</t>
+  </si>
+  <si>
+    <t>Check_In_Ekyc_Player1_id</t>
+  </si>
+  <si>
+    <t>Check_In_Ekyc_Player2_id</t>
+  </si>
+  <si>
+    <t>Check_In_Ekyc_Player3_id</t>
+  </si>
+  <si>
+    <t>Check_In_Ekyc_Player4_id</t>
+  </si>
+  <si>
+    <t>undo_check_in_bag_id</t>
+  </si>
+  <si>
+    <t>create_flight_id</t>
+  </si>
+  <si>
+    <t>add_bag_to_flight_id</t>
+  </si>
+  <si>
+    <t>out_all_flight_id</t>
+  </si>
+  <si>
+    <t>simple_out_flight_player1_id</t>
+  </si>
+  <si>
+    <t>simple_out_flight_player2_id</t>
+  </si>
+  <si>
+    <t>simple_out_flight_player3_id</t>
+  </si>
+  <si>
+    <t>simple_out_flight_player4_id</t>
+  </si>
+  <si>
+    <t>undo_out_flight_player1_id</t>
+  </si>
+  <si>
+    <t>undo_out_flight_player2_id</t>
+  </si>
+  <si>
+    <t>undo_out_flight_player3_id</t>
+  </si>
+  <si>
+    <t>undo_out_flight_player4_id</t>
+  </si>
+  <si>
+    <t>delete_attach_flight_player1_id</t>
+  </si>
+  <si>
+    <t>delete_attach_flight_player2_id</t>
+  </si>
+  <si>
+    <t>delete_attach_flight_player3_id</t>
+  </si>
+  <si>
+    <t>delete_attach_flight_player4_id</t>
+  </si>
+  <si>
+    <t>add_round_player1_id</t>
+  </si>
+  <si>
+    <t>restaurant_create_bill_player1_id</t>
+  </si>
+  <si>
+    <t>restaurant_create_bill_player2_id</t>
+  </si>
+  <si>
+    <t>restaurant_create_bill_player3_id</t>
+  </si>
+  <si>
+    <t>restaurant_create_bill_player4_id</t>
+  </si>
+  <si>
+    <t>restaurant_get_list_menu_id</t>
+  </si>
+  <si>
+    <t>restaurant_add_item_to_bill_player1_id</t>
+  </si>
+  <si>
+    <t>restaurant_add_item_to_bill_player2_id</t>
+  </si>
+  <si>
+    <t>restaurant_add_item_to_bill_player3_id</t>
+  </si>
+  <si>
+    <t>restaurant_add_item_to_bill_player4_id</t>
+  </si>
+  <si>
+    <t>kiosk_create_bill_player1_id</t>
+  </si>
+  <si>
+    <t>kiosk_create_bill_player2_id</t>
+  </si>
+  <si>
+    <t>kiosk_create_bill_player3_id</t>
+  </si>
+  <si>
+    <t>kiosk_create_bill_player4_id</t>
+  </si>
+  <si>
+    <t>kiosk_get_list_menu_id</t>
+  </si>
+  <si>
+    <t>kiosk_add_item_to_bill_player1_id</t>
+  </si>
+  <si>
+    <t>kiosk_add_item_to_bill_player2_id</t>
+  </si>
+  <si>
+    <t>kiosk_add_item_to_bill_player3_id</t>
+  </si>
+  <si>
+    <t>kiosk_add_item_to_bill_player4_id</t>
+  </si>
+  <si>
+    <t>mini_bar_create_bill_player1_id</t>
+  </si>
+  <si>
+    <t>mini_bar_create_bill_player2_id</t>
+  </si>
+  <si>
+    <t>mini_bar_create_bill_player3_id</t>
+  </si>
+  <si>
+    <t>mini_bar_create_bill_player4_id</t>
+  </si>
+  <si>
+    <t>mini_bar_get_list_menu_id</t>
+  </si>
+  <si>
+    <t>mini_bar_add_item_to_bill_player1_id</t>
+  </si>
+  <si>
+    <t>mini_bar_add_item_to_bill_player2_id</t>
+  </si>
+  <si>
+    <t>mini_bar_add_item_to_bill_player3_id</t>
+  </si>
+  <si>
+    <t>mini_bar_add_item_to_bill_player4_id</t>
+  </si>
+  <si>
+    <t>driving_create_bill_player1_id</t>
+  </si>
+  <si>
+    <t>driving_create_bill_player2_id</t>
+  </si>
+  <si>
+    <t>driving_create_bill_player3_id</t>
+  </si>
+  <si>
+    <t>driving_create_bill_player4_id</t>
+  </si>
+  <si>
+    <t>driving_get_list_menu_id</t>
+  </si>
+  <si>
+    <t>driving_add_item_to_bill_player1_id</t>
+  </si>
+  <si>
+    <t>driving_add_item_to_bill_player2_id</t>
+  </si>
+  <si>
+    <t>driving_add_item_to_bill_player3_id</t>
+  </si>
+  <si>
+    <t>driving_add_item_to_bill_player4_id</t>
+  </si>
+  <si>
+    <t>rental_create_bill_player1_id</t>
+  </si>
+  <si>
+    <t>rental_create_bill_player2_id</t>
+  </si>
+  <si>
+    <t>rental_create_bill_player3_id</t>
+  </si>
+  <si>
+    <t>rental_create_bill_player4_id</t>
+  </si>
+  <si>
+    <t>rental_get_list_menu_id</t>
+  </si>
+  <si>
+    <t>rental_add_item_to_bill_player1_id</t>
+  </si>
+  <si>
+    <t>rental_add_item_to_bill_player2_id</t>
+  </si>
+  <si>
+    <t>rental_add_item_to_bill_player3_id</t>
+  </si>
+  <si>
+    <t>rental_add_item_to_bill_player4_id</t>
+  </si>
+  <si>
+    <t>proshop_create_bill_player1_id</t>
+  </si>
+  <si>
+    <t>proshop_create_bill_player2_id</t>
+  </si>
+  <si>
+    <t>proshop_create_bill_player3_id</t>
+  </si>
+  <si>
+    <t>proshop_create_bill_player4_id</t>
+  </si>
+  <si>
+    <t>proshop_get_list_menu_id</t>
+  </si>
+  <si>
+    <t>proshop_add_item_to_bill_player1_id</t>
+  </si>
+  <si>
+    <t>proshop_add_item_to_bill_player2_id</t>
+  </si>
+  <si>
+    <t>proshop_add_item_to_bill_player3_id</t>
+  </si>
+  <si>
+    <t>proshop_add_item_to_bill_player4_id</t>
+  </si>
+  <si>
+    <t>booking_by_bag_player1_id</t>
+  </si>
+  <si>
+    <t>booking_by_bag_player2_id</t>
+  </si>
+  <si>
+    <t>booking_by_bag_player3_id</t>
+  </si>
+  <si>
+    <t>booking_by_bag_player4_id</t>
+  </si>
+  <si>
+    <t>add_sub_bag_id</t>
+  </si>
+  <si>
+    <t>detail_agency_pay_id</t>
+  </si>
+  <si>
+    <t>update_agency_pay_player1_id</t>
+  </si>
+  <si>
+    <t>update_agency_pay_player2_id</t>
+  </si>
+  <si>
+    <t>update_agency_pay_player3_id</t>
+  </si>
+  <si>
+    <t>update_agency_pay_player4_id</t>
+  </si>
+  <si>
+    <t>fee_of_bag_player1_id</t>
+  </si>
+  <si>
+    <t>fee_of_bag_player2_id</t>
+  </si>
+  <si>
+    <t>fee_of_bag_player3_id</t>
+  </si>
+  <si>
+    <t>fee_of_bag_bill_player1_id</t>
+  </si>
+  <si>
+    <t>fee_of_bag_bill_player2_id</t>
+  </si>
+  <si>
+    <t>fee_of_bag_bill_player3_id</t>
+  </si>
+  <si>
+    <t>fee_of_bag_bill_player4_id</t>
+  </si>
+  <si>
+    <t>input_single_payment_id</t>
+  </si>
+  <si>
+    <t>single_payment_list_id</t>
+  </si>
+  <si>
+    <t>check_out_bag_id</t>
+  </si>
+  <si>
+    <t>check_out_group_id</t>
+  </si>
+  <si>
+    <t>e_invoice_id</t>
+  </si>
+  <si>
+    <t>e_invoice_payment_id_player1_id</t>
+  </si>
+  <si>
+    <t>e_invoice_payment_id_player2_id</t>
+  </si>
+  <si>
+    <t>e_invoice_payment_id_player3_id</t>
+  </si>
+  <si>
+    <t>e_invoice_payment_id_player4_id</t>
+  </si>
+  <si>
+    <t>invoice_detail_cost_id</t>
+  </si>
+  <si>
+    <t>invoice_detail_agency_paid_id</t>
+  </si>
+  <si>
+    <t>revenue_detail_report_id</t>
+  </si>
+  <si>
+    <t>revenue_detail_report_player1_id</t>
+  </si>
+  <si>
+    <t>revenue_detail_report_player2_id</t>
+  </si>
+  <si>
+    <t>revenue_detail_report_player3_id</t>
+  </si>
+  <si>
+    <t>revenue_detail_report_player4_id</t>
+  </si>
+  <si>
     <t>get_list_case_id</t>
-  </si>
-  <si>
-    <t>get_booking_price_case_id</t>
-  </si>
-  <si>
-    <t>get_booking_price_player1_id</t>
-  </si>
-  <si>
-    <t>get_booking_price_player2_id</t>
-  </si>
-  <si>
-    <t>get_booking_price_player3_id</t>
-  </si>
-  <si>
-    <t>get_booking_price_player4_id</t>
-  </si>
-  <si>
-    <t>check_in_bag_player1_id</t>
-  </si>
-  <si>
-    <t>check_in_bag_player2_id</t>
-  </si>
-  <si>
-    <t>check_in_bag_player3_id</t>
-  </si>
-  <si>
-    <t>check_in_bag_player4_id</t>
-  </si>
-  <si>
-    <t>Check_In_Ekyc_Player1_id</t>
-  </si>
-  <si>
-    <t>Check_In_Ekyc_Player2_id</t>
-  </si>
-  <si>
-    <t>Check_In_Ekyc_Player3_id</t>
-  </si>
-  <si>
-    <t>Check_In_Ekyc_Player4_id</t>
-  </si>
-  <si>
-    <t>undo_check_in_bag_id</t>
-  </si>
-  <si>
-    <t>create_flight_id</t>
-  </si>
-  <si>
-    <t>add_bag_to_flight_id</t>
-  </si>
-  <si>
-    <t>out_all_flight_id</t>
-  </si>
-  <si>
-    <t>simple_out_flight_player1_id</t>
-  </si>
-  <si>
-    <t>simple_out_flight_player2_id</t>
-  </si>
-  <si>
-    <t>simple_out_flight_player3_id</t>
-  </si>
-  <si>
-    <t>simple_out_flight_player4_id</t>
-  </si>
-  <si>
-    <t>undo_out_flight_player1_id</t>
-  </si>
-  <si>
-    <t>undo_out_flight_player2_id</t>
-  </si>
-  <si>
-    <t>undo_out_flight_player3_id</t>
-  </si>
-  <si>
-    <t>undo_out_flight_player4_id</t>
-  </si>
-  <si>
-    <t>delete_attach_flight_player1_id</t>
-  </si>
-  <si>
-    <t>delete_attach_flight_player2_id</t>
-  </si>
-  <si>
-    <t>delete_attach_flight_player3_id</t>
-  </si>
-  <si>
-    <t>delete_attach_flight_player4_id</t>
-  </si>
-  <si>
-    <t>add_round_player1_id</t>
-  </si>
-  <si>
-    <t>restaurant_create_bill_player1_id</t>
-  </si>
-  <si>
-    <t>restaurant_create_bill_player2_id</t>
-  </si>
-  <si>
-    <t>restaurant_create_bill_player3_id</t>
-  </si>
-  <si>
-    <t>restaurant_create_bill_player4_id</t>
-  </si>
-  <si>
-    <t>restaurant_get_list_menu_id</t>
-  </si>
-  <si>
-    <t>restaurant_add_item_to_bill_player1_id</t>
-  </si>
-  <si>
-    <t>restaurant_add_item_to_bill_player2_id</t>
-  </si>
-  <si>
-    <t>restaurant_add_item_to_bill_player3_id</t>
-  </si>
-  <si>
-    <t>restaurant_add_item_to_bill_player4_id</t>
-  </si>
-  <si>
-    <t>kiosk_create_bill_player1_id</t>
-  </si>
-  <si>
-    <t>kiosk_create_bill_player2_id</t>
-  </si>
-  <si>
-    <t>kiosk_create_bill_player3_id</t>
-  </si>
-  <si>
-    <t>kiosk_create_bill_player4_id</t>
-  </si>
-  <si>
-    <t>kiosk_get_list_menu_id</t>
-  </si>
-  <si>
-    <t>kiosk_add_item_to_bill_player1_id</t>
-  </si>
-  <si>
-    <t>kiosk_add_item_to_bill_player2_id</t>
-  </si>
-  <si>
-    <t>kiosk_add_item_to_bill_player3_id</t>
-  </si>
-  <si>
-    <t>kiosk_add_item_to_bill_player4_id</t>
-  </si>
-  <si>
-    <t>mini_bar_create_bill_player1_id</t>
-  </si>
-  <si>
-    <t>mini_bar_create_bill_player2_id</t>
-  </si>
-  <si>
-    <t>mini_bar_create_bill_player3_id</t>
-  </si>
-  <si>
-    <t>mini_bar_create_bill_player4_id</t>
-  </si>
-  <si>
-    <t>mini_bar_get_list_menu_id</t>
-  </si>
-  <si>
-    <t>mini_bar_add_item_to_bill_player1_id</t>
-  </si>
-  <si>
-    <t>mini_bar_add_item_to_bill_player2_id</t>
-  </si>
-  <si>
-    <t>mini_bar_add_item_to_bill_player3_id</t>
-  </si>
-  <si>
-    <t>mini_bar_add_item_to_bill_player4_id</t>
-  </si>
-  <si>
-    <t>driving_create_bill_player1_id</t>
-  </si>
-  <si>
-    <t>driving_create_bill_player2_id</t>
-  </si>
-  <si>
-    <t>driving_create_bill_player3_id</t>
-  </si>
-  <si>
-    <t>driving_create_bill_player4_id</t>
-  </si>
-  <si>
-    <t>driving_get_list_menu_id</t>
-  </si>
-  <si>
-    <t>driving_add_item_to_bill_player1_id</t>
-  </si>
-  <si>
-    <t>driving_add_item_to_bill_player2_id</t>
-  </si>
-  <si>
-    <t>driving_add_item_to_bill_player3_id</t>
-  </si>
-  <si>
-    <t>driving_add_item_to_bill_player4_id</t>
-  </si>
-  <si>
-    <t>rental_create_bill_player1_id</t>
-  </si>
-  <si>
-    <t>rental_create_bill_player2_id</t>
-  </si>
-  <si>
-    <t>rental_create_bill_player3_id</t>
-  </si>
-  <si>
-    <t>rental_create_bill_player4_id</t>
-  </si>
-  <si>
-    <t>rental_get_list_menu_id</t>
-  </si>
-  <si>
-    <t>rental_add_item_to_bill_player1_id</t>
-  </si>
-  <si>
-    <t>rental_add_item_to_bill_player2_id</t>
-  </si>
-  <si>
-    <t>rental_add_item_to_bill_player3_id</t>
-  </si>
-  <si>
-    <t>rental_add_item_to_bill_player4_id</t>
-  </si>
-  <si>
-    <t>proshop_create_bill_player1_id</t>
-  </si>
-  <si>
-    <t>proshop_create_bill_player2_id</t>
-  </si>
-  <si>
-    <t>proshop_create_bill_player3_id</t>
-  </si>
-  <si>
-    <t>proshop_create_bill_player4_id</t>
-  </si>
-  <si>
-    <t>proshop_get_list_menu_id</t>
-  </si>
-  <si>
-    <t>proshop_add_item_to_bill_player1_id</t>
-  </si>
-  <si>
-    <t>proshop_add_item_to_bill_player2_id</t>
-  </si>
-  <si>
-    <t>proshop_add_item_to_bill_player3_id</t>
-  </si>
-  <si>
-    <t>proshop_add_item_to_bill_player4_id</t>
-  </si>
-  <si>
-    <t>booking_by_bag_player1_id</t>
-  </si>
-  <si>
-    <t>booking_by_bag_player2_id</t>
-  </si>
-  <si>
-    <t>booking_by_bag_player3_id</t>
-  </si>
-  <si>
-    <t>booking_by_bag_player4_id</t>
-  </si>
-  <si>
-    <t>add_sub_bag_id</t>
-  </si>
-  <si>
-    <t>detail_agency_pay_id</t>
-  </si>
-  <si>
-    <t>update_agency_pay_player1_id</t>
-  </si>
-  <si>
-    <t>update_agency_pay_player2_id</t>
-  </si>
-  <si>
-    <t>update_agency_pay_player3_id</t>
-  </si>
-  <si>
-    <t>update_agency_pay_player4_id</t>
-  </si>
-  <si>
-    <t>fee_of_bag_player1_id</t>
-  </si>
-  <si>
-    <t>fee_of_bag_player2_id</t>
-  </si>
-  <si>
-    <t>fee_of_bag_player3_id</t>
-  </si>
-  <si>
-    <t>fee_of_bag_bill_player1_id</t>
-  </si>
-  <si>
-    <t>fee_of_bag_bill_player2_id</t>
-  </si>
-  <si>
-    <t>fee_of_bag_bill_player3_id</t>
-  </si>
-  <si>
-    <t>fee_of_bag_bill_player4_id</t>
-  </si>
-  <si>
-    <t>input_single_payment_id</t>
-  </si>
-  <si>
-    <t>single_payment_list_id</t>
-  </si>
-  <si>
-    <t>check_out_bag_id</t>
-  </si>
-  <si>
-    <t>check_out_group_id</t>
-  </si>
-  <si>
-    <t>e_invoice_id</t>
-  </si>
-  <si>
-    <t>e_invoice_payment_id_player1_id</t>
-  </si>
-  <si>
-    <t>e_invoice_payment_id_player2_id</t>
-  </si>
-  <si>
-    <t>e_invoice_payment_id_player3_id</t>
-  </si>
-  <si>
-    <t>e_invoice_payment_id_player4_id</t>
-  </si>
-  <si>
-    <t>invoice_detail_cost_id</t>
-  </si>
-  <si>
-    <t>invoice_detail_agency_paid_id</t>
-  </si>
-  <si>
-    <t>revenue_detail_report_id</t>
-  </si>
-  <si>
-    <t>revenue_detail_report_player1_id</t>
-  </si>
-  <si>
-    <t>revenue_detail_report_player2_id</t>
-  </si>
-  <si>
-    <t>revenue_detail_report_player3_id</t>
-  </si>
-  <si>
-    <t>revenue_detail_report_player4_id</t>
   </si>
   <si>
     <t>flow_id</t>
@@ -1929,8 +1932,8 @@
   <sheetPr/>
   <dimension ref="A1:A163"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2737,7 +2740,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="15" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -3383,7 +3386,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="15" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -3500,10 +3503,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
       <c r="A1" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
@@ -3515,19 +3518,19 @@
         <v>3</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>26</v>
@@ -3538,172 +3541,172 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:12">
       <c r="A3" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="30" spans="1:12">
       <c r="A4" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:12">
       <c r="A5" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:12">
       <c r="A6" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3734,10 +3737,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="65" customHeight="1" spans="1:44">
       <c r="A1" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
@@ -3749,22 +3752,22 @@
         <v>5</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>26</v>
@@ -3815,7 +3818,7 @@
         <v>82</v>
       </c>
       <c r="AB1" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC1" s="10" t="s">
         <v>87</v>
@@ -3824,7 +3827,7 @@
         <v>91</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF1" s="10" t="s">
         <v>96</v>
@@ -3851,7 +3854,7 @@
         <v>108</v>
       </c>
       <c r="AN1" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AO1" s="10" t="s">
         <v>109</v>
@@ -3868,499 +3871,499 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="45" spans="1:44">
       <c r="A2" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AA2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC2" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AD2" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="AC2" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>188</v>
-      </c>
       <c r="AE2" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL2" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO2" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AP2" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="AN2" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="AO2" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="AP2" s="8" t="s">
-        <v>194</v>
-      </c>
       <c r="AQ2" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AR2" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="45" spans="1:44">
       <c r="A3" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z3" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AA3" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC3" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AD3" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="AC3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>188</v>
-      </c>
       <c r="AE3" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF3" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AH3" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AI3" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL3" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM3" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN3" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AO3" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AP3" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AQ3" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AR3" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="45" spans="1:25">
       <c r="A4" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X4" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="45" spans="1:25">
       <c r="A5" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y5" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="45" spans="1:25">
       <c r="A6" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4392,10 +4395,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:7">
       <c r="A1" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
@@ -4407,7 +4410,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>12</v>
@@ -4415,115 +4418,115 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4551,13 +4554,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="89" customHeight="1" spans="1:55">
       <c r="A1" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -4626,7 +4629,7 @@
         <v>91</v>
       </c>
       <c r="Z1" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>100</v>
@@ -4718,43 +4721,43 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="45" spans="1:55">
       <c r="A2" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -4765,31 +4768,31 @@
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
       <c r="AE2" s="8"/>
       <c r="AF2" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG2" s="8"/>
       <c r="AH2" s="8"/>
@@ -4799,81 +4802,81 @@
       <c r="AL2" s="8"/>
       <c r="AM2" s="8"/>
       <c r="AN2" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO2" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AP2" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AQ2" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AR2" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AS2" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AT2" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AU2" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AV2" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AW2" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AX2" s="8"/>
       <c r="AY2" s="8"/>
       <c r="AZ2" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BA2" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BB2" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="BC2" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="30" spans="1:55">
       <c r="A3" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
@@ -4884,16 +4887,16 @@
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
@@ -4908,10 +4911,10 @@
       <c r="AL3" s="8"/>
       <c r="AM3" s="8"/>
       <c r="AN3" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO3" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AP3" s="8"/>
       <c r="AQ3" s="8"/>
@@ -4922,153 +4925,153 @@
       <c r="AV3" s="8"/>
       <c r="AW3" s="8"/>
       <c r="AX3" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AY3" s="8"/>
       <c r="AZ3" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA3" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BB3" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BC3" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="30" spans="1:55">
       <c r="A4" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X4" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AD4" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AE4" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF4" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG4" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AH4" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AI4" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AJ4" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK4" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL4" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM4" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN4" s="8"/>
       <c r="AO4" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AP4" s="8"/>
       <c r="AQ4" s="8"/>
       <c r="AR4" s="8"/>
       <c r="AS4" s="8"/>
       <c r="AT4" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AU4" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AV4" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AW4" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AX4" s="8"/>
       <c r="AY4" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AZ4" s="8"/>
       <c r="BA4" s="8"/>
@@ -5084,10 +5087,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AZ18" sqref="AZ18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -5095,18 +5098,18 @@
     <col min="1" max="1" width="11.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="17.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="56" width="15.5714285714286" customWidth="1"/>
+    <col min="4" max="57" width="15.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="89" customHeight="1" spans="1:56">
+    <row r="1" s="1" customFormat="1" ht="89" customHeight="1" spans="1:57">
       <c r="A1" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -5115,73 +5118,73 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>113</v>
@@ -5193,7 +5196,7 @@
         <v>113</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG1" s="3" t="s">
         <v>114</v>
@@ -5205,10 +5208,10 @@
         <v>114</v>
       </c>
       <c r="AJ1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK1" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="AL1" s="3" t="s">
         <v>115</v>
@@ -5220,25 +5223,25 @@
         <v>115</v>
       </c>
       <c r="AO1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="AV1" s="3" t="s">
         <v>122</v>
@@ -5250,42 +5253,45 @@
         <v>122</v>
       </c>
       <c r="AY1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="45" spans="1:56">
+    <row r="2" s="1" customFormat="1" ht="45" spans="1:57">
       <c r="A2" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>226</v>
+        <v>140</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>227</v>
@@ -5297,7 +5303,7 @@
         <v>229</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>170</v>
@@ -5308,7 +5314,9 @@
       <c r="M2" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="N2" s="8"/>
+      <c r="N2" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
@@ -5316,19 +5324,17 @@
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
-      <c r="V2" s="8" t="s">
-        <v>173</v>
-      </c>
+      <c r="V2" s="8"/>
       <c r="W2" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="X2" s="8"/>
+      <c r="X2" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
-      <c r="AB2" s="8" t="s">
-        <v>259</v>
-      </c>
+      <c r="AB2" s="8"/>
       <c r="AC2" s="8" t="s">
         <v>260</v>
       </c>
@@ -5339,10 +5345,10 @@
         <v>262</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="AH2" s="8" t="s">
         <v>264</v>
@@ -5350,10 +5356,10 @@
       <c r="AI2" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>266</v>
       </c>
+      <c r="AK2" s="8"/>
       <c r="AL2" s="8" t="s">
         <v>267</v>
       </c>
@@ -5363,10 +5369,10 @@
       <c r="AN2" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8" t="s">
-        <v>234</v>
-      </c>
+      <c r="AO2" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="AP2" s="8"/>
       <c r="AQ2" s="8" t="s">
         <v>235</v>
       </c>
@@ -5391,13 +5397,13 @@
       <c r="AX2" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="AY2" s="8"/>
+      <c r="AY2" s="8" t="s">
+        <v>243</v>
+      </c>
       <c r="AZ2" s="8"/>
-      <c r="BA2" s="8" t="s">
-        <v>272</v>
-      </c>
+      <c r="BA2" s="8"/>
       <c r="BB2" s="8" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="BC2" s="8" t="s">
         <v>245</v>
@@ -5405,30 +5411,31 @@
       <c r="BD2" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="45" spans="1:56">
+      <c r="BE2" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="45" spans="1:57">
       <c r="A3" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="8" t="s">
-        <v>216</v>
-      </c>
+      <c r="J3" s="8"/>
       <c r="K3" s="8" t="s">
         <v>217</v>
       </c>
@@ -5438,7 +5445,9 @@
       <c r="M3" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="N3" s="8"/>
+      <c r="N3" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
@@ -5446,14 +5455,12 @@
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
-      <c r="V3" s="8" t="s">
-        <v>173</v>
-      </c>
+      <c r="V3" s="8"/>
       <c r="W3" s="8" t="s">
         <v>174</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>273</v>
+        <v>175</v>
       </c>
       <c r="Y3" s="8" t="s">
         <v>274</v>
@@ -5464,7 +5471,9 @@
       <c r="AA3" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="AB3" s="8"/>
+      <c r="AB3" s="8" t="s">
+        <v>277</v>
+      </c>
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
       <c r="AE3" s="8"/>
@@ -5472,20 +5481,20 @@
       <c r="AG3" s="8"/>
       <c r="AH3" s="8"/>
       <c r="AI3" s="8"/>
-      <c r="AJ3" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="AK3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8" t="s">
+        <v>231</v>
+      </c>
       <c r="AL3" s="8"/>
       <c r="AM3" s="8"/>
       <c r="AN3" s="8"/>
-      <c r="AO3" s="8" t="s">
-        <v>233</v>
-      </c>
+      <c r="AO3" s="8"/>
       <c r="AP3" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="AQ3" s="8"/>
+        <v>234</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
+        <v>249</v>
+      </c>
       <c r="AR3" s="8"/>
       <c r="AS3" s="8"/>
       <c r="AT3" s="8"/>
@@ -5493,13 +5502,11 @@
       <c r="AV3" s="8"/>
       <c r="AW3" s="8"/>
       <c r="AX3" s="8"/>
-      <c r="AY3" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="AZ3" s="8"/>
-      <c r="BA3" s="8" t="s">
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8" t="s">
         <v>250</v>
       </c>
+      <c r="BA3" s="8"/>
       <c r="BB3" s="8" t="s">
         <v>251</v>
       </c>
@@ -5509,26 +5516,27 @@
       <c r="BD3" s="8" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="30" spans="1:56">
+      <c r="BE3" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="30" spans="1:57">
       <c r="A4" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>226</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
         <v>227</v>
       </c>
@@ -5538,24 +5546,24 @@
       <c r="I4" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="8" t="s">
+        <v>230</v>
+      </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="8" t="s">
-        <v>148</v>
-      </c>
+      <c r="N4" s="8"/>
       <c r="O4" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>255</v>
+        <v>149</v>
       </c>
       <c r="S4" s="8" t="s">
         <v>256</v>
@@ -5567,18 +5575,18 @@
         <v>258</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>173</v>
+        <v>259</v>
       </c>
       <c r="W4" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="X4" s="8"/>
+      <c r="X4" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
-      <c r="AB4" s="8" t="s">
-        <v>259</v>
-      </c>
+      <c r="AB4" s="8"/>
       <c r="AC4" s="8" t="s">
         <v>260</v>
       </c>
@@ -5589,10 +5597,10 @@
         <v>262</v>
       </c>
       <c r="AF4" s="8" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="AG4" s="8" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="AH4" s="8" t="s">
         <v>264</v>
@@ -5601,25 +5609,25 @@
         <v>265</v>
       </c>
       <c r="AJ4" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="AK4" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="AK4" s="8" t="s">
+        <v>231</v>
+      </c>
       <c r="AL4" s="8"/>
       <c r="AM4" s="8"/>
       <c r="AN4" s="8"/>
-      <c r="AO4" s="8" t="s">
-        <v>233</v>
-      </c>
+      <c r="AO4" s="8"/>
       <c r="AP4" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="AQ4" s="8"/>
+        <v>234</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>271</v>
+      </c>
       <c r="AR4" s="8"/>
       <c r="AS4" s="8"/>
       <c r="AT4" s="8"/>
-      <c r="AU4" s="8" t="s">
-        <v>239</v>
-      </c>
+      <c r="AU4" s="8"/>
       <c r="AV4" s="8" t="s">
         <v>240</v>
       </c>
@@ -5629,14 +5637,17 @@
       <c r="AX4" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="AY4" s="8"/>
-      <c r="AZ4" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="BA4" s="8"/>
+      <c r="AY4" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8" t="s">
+        <v>272</v>
+      </c>
       <c r="BB4" s="8"/>
       <c r="BC4" s="8"/>
       <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/input_excel_file/flow_definition.xlsx
+++ b/src/main/resources/input_excel_file/flow_definition.xlsx
@@ -13,7 +13,7 @@
     <sheet name="ORDER_BOOKING_CI" sheetId="8" r:id="rId4"/>
     <sheet name="flow_1_player" sheetId="1" r:id="rId5"/>
     <sheet name="flow_4_player" sheetId="2" r:id="rId6"/>
-    <sheet name="VC_1_player" sheetId="3" r:id="rId7"/>
+    <sheet name="VC_1_PLAYER" sheetId="3" r:id="rId7"/>
     <sheet name="Test" sheetId="5" r:id="rId8"/>
     <sheet name="Test_02" sheetId="9" r:id="rId9"/>
   </sheets>
@@ -35,20 +35,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="301">
   <si>
     <t>step_order</t>
   </si>
   <si>
+    <t>Màn hình</t>
+  </si>
+  <si>
+    <t>Chức năng</t>
+  </si>
+  <si>
     <t>login_case_id</t>
   </si>
   <si>
+    <t>Đăng nhập</t>
+  </si>
+  <si>
+    <t>booking_voucher_check_case_id</t>
+  </si>
+  <si>
+    <t>Single booking</t>
+  </si>
+  <si>
+    <t>Nhập voucher: Check thông tin booking với voucher apply</t>
+  </si>
+  <si>
     <t>quote_fee_case_id</t>
   </si>
   <si>
+    <t>Trường amout: Giá booking dự kiến</t>
+  </si>
+  <si>
     <t>create_booking_case_id</t>
   </si>
   <si>
+    <t>Tạo booking</t>
+  </si>
+  <si>
     <t>create_booking_Voucher_case_id</t>
   </si>
   <si>
@@ -58,6 +82,9 @@
     <t>edit_booking_at_tee_time_player1_id</t>
   </si>
   <si>
+    <t>Sửa thông tin booking: Sửa tại tee time</t>
+  </si>
+  <si>
     <t>edit_booking_at_tee_time_player2_id</t>
   </si>
   <si>
@@ -70,15 +97,27 @@
     <t>edit_booking_1_player_id</t>
   </si>
   <si>
+    <t>Sửa thông tin booking: Sửa tại popup edit booking</t>
+  </si>
+  <si>
     <t>get_booking_list_case_id</t>
   </si>
   <si>
+    <t>Danh sách booking thành công</t>
+  </si>
+  <si>
     <t>get_booking_price_case_id</t>
   </si>
   <si>
+    <t>Danh sách giá booking thành công</t>
+  </si>
+  <si>
     <t>get_booking_price_player1_id</t>
   </si>
   <si>
+    <t xml:space="preserve">Giá booking của player </t>
+  </si>
+  <si>
     <t>get_booking_price_player2_id</t>
   </si>
   <si>
@@ -91,6 +130,9 @@
     <t>check_in_bag_player1_id</t>
   </si>
   <si>
+    <t>Check in cho player</t>
+  </si>
+  <si>
     <t>check_in_bag_player2_id</t>
   </si>
   <si>
@@ -103,6 +145,12 @@
     <t>Check_In_Ekyc_Player1_id</t>
   </si>
   <si>
+    <t>EKYC</t>
+  </si>
+  <si>
+    <t>Check in member</t>
+  </si>
+  <si>
     <t>Check_In_Ekyc_Player2_id</t>
   </si>
   <si>
@@ -115,9 +163,39 @@
     <t>undo_check_in_bag_id</t>
   </si>
   <si>
+    <t>CICO</t>
+  </si>
+  <si>
+    <t>Undo check out</t>
+  </si>
+  <si>
+    <t>cico_voucher_check_case_id</t>
+  </si>
+  <si>
+    <t>Check thông tin booking với voucher apply</t>
+  </si>
+  <si>
+    <t>voucher_apply_player1_case_id</t>
+  </si>
+  <si>
+    <t>Add voucher</t>
+  </si>
+  <si>
+    <t>voucher_apply_player2_case_id</t>
+  </si>
+  <si>
+    <t>voucher_apply_player3_case_id</t>
+  </si>
+  <si>
+    <t>voucher_apply_player4_case_id</t>
+  </si>
+  <si>
     <t>create_flight_id</t>
   </si>
   <si>
+    <t>GO - Course infomation</t>
+  </si>
+  <si>
     <t>add_bag_to_flight_id</t>
   </si>
   <si>
@@ -700,24 +778,21 @@
     <t>CI_PLAYER4_005</t>
   </si>
   <si>
-    <t>BB_VC_VST_001</t>
-  </si>
-  <si>
-    <t>BB_VC_VST_002</t>
-  </si>
-  <si>
-    <t>BB_VC_VST_003</t>
-  </si>
-  <si>
-    <t>BB_VC_VST_004</t>
-  </si>
-  <si>
-    <t>BB_VC_VST_005</t>
-  </si>
-  <si>
     <t>flow_order_sheet</t>
   </si>
   <si>
+    <t>CHECK_1_VC_CA_NHAN_01</t>
+  </si>
+  <si>
+    <t>CHECK_1_VC_CA_NHAN_02</t>
+  </si>
+  <si>
+    <t>Flow Order Sheet Mapping</t>
+  </si>
+  <si>
+    <t>CI_EKYC_PLAYER1</t>
+  </si>
+  <si>
     <t>BOOKING_PRICE_PLAYER1</t>
   </si>
   <si>
@@ -781,9 +856,6 @@
     <t>REPORT_VST_PLAYER4</t>
   </si>
   <si>
-    <t>Flow Order Sheet Mapping</t>
-  </si>
-  <si>
     <t>E_INVOICE_002</t>
   </si>
   <si>
@@ -803,9 +875,6 @@
   </si>
   <si>
     <t>ORDER_BOOKING_CI</t>
-  </si>
-  <si>
-    <t>CI_EKYC_PLAYER1</t>
   </si>
   <si>
     <t>CI_EKYC_PLAYER2</t>
@@ -876,12 +945,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -928,6 +997,12 @@
     </font>
     <font>
       <sz val="9.8"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Courier New"/>
       <charset val="134"/>
@@ -1428,149 +1503,149 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1602,6 +1677,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1611,6 +1689,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1930,736 +2011,853 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A163"/>
+  <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="48.4285714285714" style="13" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="1" max="1" width="48.4285714285714" style="14" customWidth="1"/>
+    <col min="2" max="2" width="25.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="44.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="15" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="15" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="15" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1"/>
+    <row r="7" spans="1:3">
+      <c r="A7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="16"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="15" t="s">
-        <v>7</v>
+      <c r="A10" s="16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="15" t="s">
-        <v>10</v>
+      <c r="A11" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="15" t="s">
-        <v>11</v>
+      <c r="A15" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="15" t="s">
-        <v>16</v>
+      <c r="A16" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="A22" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="15" t="s">
-        <v>21</v>
+      <c r="A24" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="15" t="s">
-        <v>22</v>
+      <c r="A27" s="16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="15" t="s">
-        <v>23</v>
+      <c r="A28" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="15" t="s">
-        <v>24</v>
+      <c r="A29" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="15" t="s">
-        <v>25</v>
+      <c r="A31" s="16" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="15" t="s">
-        <v>17</v>
+      <c r="A32" s="16" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="15" t="s">
-        <v>32</v>
+      <c r="A33" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="15" t="s">
-        <v>34</v>
+      <c r="A42" s="16"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="15" t="s">
-        <v>35</v>
+      <c r="A44" s="16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="15" t="s">
-        <v>36</v>
+      <c r="A45" s="16" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="15" t="s">
-        <v>37</v>
+      <c r="A46" s="16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="15" t="s">
-        <v>38</v>
+      <c r="A47" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="15" t="s">
-        <v>39</v>
+      <c r="A48" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="15" t="s">
-        <v>40</v>
+      <c r="A49" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="15" t="s">
-        <v>41</v>
+      <c r="A50" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="15" t="s">
-        <v>42</v>
+      <c r="A52" s="16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="15" t="s">
-        <v>43</v>
+      <c r="A53" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="15" t="s">
-        <v>44</v>
+      <c r="A54" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="15" t="s">
-        <v>45</v>
+      <c r="A55" s="16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="15" t="s">
-        <v>46</v>
+      <c r="A56" s="16" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="15" t="s">
-        <v>47</v>
+      <c r="A57" s="16" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="15" t="s">
-        <v>49</v>
+      <c r="A58" s="16" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="15" t="s">
-        <v>50</v>
+      <c r="A60" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="15" t="s">
-        <v>51</v>
+      <c r="A62" s="16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="15" t="s">
-        <v>52</v>
+      <c r="A63" s="16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="15" t="s">
-        <v>53</v>
+      <c r="A64" s="16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="15" t="s">
-        <v>54</v>
+      <c r="A65" s="16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="15" t="s">
-        <v>55</v>
+      <c r="A66" s="16" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="15" t="s">
-        <v>56</v>
+      <c r="A67" s="16" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="15" t="s">
-        <v>58</v>
+      <c r="A68" s="16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="15" t="s">
-        <v>59</v>
+      <c r="A70" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="15" t="s">
-        <v>60</v>
+      <c r="A72" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="15" t="s">
-        <v>61</v>
+      <c r="A73" s="16" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="15" t="s">
-        <v>62</v>
+      <c r="A74" s="16" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="15" t="s">
-        <v>63</v>
+      <c r="A75" s="16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="15" t="s">
-        <v>64</v>
+      <c r="A76" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="15" t="s">
-        <v>65</v>
+      <c r="A77" s="16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="15" t="s">
-        <v>67</v>
+      <c r="A78" s="16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="15" t="s">
-        <v>68</v>
+      <c r="A80" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="15" t="s">
-        <v>69</v>
+      <c r="A82" s="16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="15" t="s">
-        <v>70</v>
+      <c r="A83" s="16" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="15" t="s">
-        <v>71</v>
+      <c r="A84" s="16" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="15" t="s">
-        <v>72</v>
+      <c r="A85" s="16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="15" t="s">
-        <v>73</v>
+      <c r="A86" s="16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="15" t="s">
-        <v>74</v>
+      <c r="A87" s="16" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="15" t="s">
-        <v>76</v>
+      <c r="A88" s="16" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="15" t="s">
-        <v>77</v>
+      <c r="A90" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="16" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="15" t="s">
-        <v>78</v>
+      <c r="A92" s="16" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="15" t="s">
-        <v>79</v>
+      <c r="A93" s="16" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="15" t="s">
-        <v>80</v>
+      <c r="A94" s="16" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="15" t="s">
-        <v>81</v>
+      <c r="A95" s="16" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="15" t="s">
-        <v>82</v>
+      <c r="A96" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="15" t="s">
-        <v>83</v>
+      <c r="A97" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="15" t="s">
-        <v>85</v>
+      <c r="A98" s="16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="15" t="s">
-        <v>86</v>
+      <c r="A100" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="16" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="15" t="s">
-        <v>87</v>
+      <c r="A102" s="16" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="15" t="s">
-        <v>88</v>
+      <c r="A103" s="16" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="15" t="s">
-        <v>89</v>
+      <c r="A104" s="16" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="15" t="s">
-        <v>90</v>
+      <c r="A105" s="16" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="15" t="s">
-        <v>91</v>
+      <c r="A106" s="16" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="15" t="s">
-        <v>92</v>
+      <c r="A107" s="16" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="15" t="s">
-        <v>94</v>
+      <c r="A108" s="16" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="15" t="s">
-        <v>95</v>
+      <c r="A110" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="16" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="15" t="s">
-        <v>96</v>
+      <c r="A112" s="16" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="15" t="s">
-        <v>97</v>
+      <c r="A113" s="16" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="15" t="s">
-        <v>98</v>
+      <c r="A114" s="16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="15" t="s">
-        <v>99</v>
+      <c r="A115" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="16" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="15" t="s">
-        <v>100</v>
+      <c r="A117" s="16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="15" t="s">
-        <v>102</v>
+      <c r="A118" s="16" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="15" t="s">
-        <v>103</v>
+      <c r="A120" s="16" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="15" t="s">
-        <v>104</v>
+      <c r="A121" s="16" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="15" t="s">
-        <v>106</v>
+      <c r="A122" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="16" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="15" t="s">
-        <v>107</v>
+      <c r="A125" s="16" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="15" t="s">
-        <v>108</v>
+      <c r="A126" s="16" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="15" t="s">
-        <v>108</v>
+      <c r="A127" s="16" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="15" t="s">
-        <v>109</v>
+      <c r="A128" s="16" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="15" t="s">
-        <v>110</v>
+      <c r="A129" s="16" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="15" t="s">
-        <v>112</v>
+      <c r="A130" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="16" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="15" t="s">
-        <v>113</v>
+      <c r="A133" s="16" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="15" t="s">
-        <v>113</v>
+      <c r="A134" s="16" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="15" t="s">
-        <v>113</v>
+      <c r="A135" s="16" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="15" t="s">
-        <v>113</v>
+      <c r="A136" s="16" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="15" t="s">
-        <v>114</v>
+      <c r="A137" s="16" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="15" t="s">
-        <v>114</v>
+      <c r="A138" s="16" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="15" t="s">
-        <v>114</v>
+      <c r="A139" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="16" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="15" t="s">
-        <v>115</v>
+      <c r="A142" s="16" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="15" t="s">
-        <v>115</v>
+      <c r="A143" s="16" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="15" t="s">
-        <v>115</v>
+      <c r="A144" s="16" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="15" t="s">
-        <v>115</v>
+      <c r="A145" s="16" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="15" t="s">
-        <v>116</v>
+      <c r="A146" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="16" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="15" t="s">
-        <v>118</v>
+      <c r="A148" s="16" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="15" t="s">
-        <v>119</v>
+      <c r="A150" s="16" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="15" t="s">
-        <v>120</v>
+      <c r="A151" s="16" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="15" t="s">
-        <v>121</v>
+      <c r="A152" s="16" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="15" t="s">
-        <v>122</v>
+      <c r="A153" s="16" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="15" t="s">
-        <v>122</v>
+      <c r="A154" s="16" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="15" t="s">
-        <v>122</v>
+      <c r="A156" s="16" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="15" t="s">
-        <v>123</v>
+      <c r="A157" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="16" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="15" t="s">
-        <v>124</v>
+      <c r="A159" s="16" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="15" t="s">
-        <v>125</v>
+      <c r="A160" s="16" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="15" t="s">
-        <v>126</v>
+      <c r="A161" s="16" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="15" t="s">
-        <v>127</v>
+      <c r="A162" s="16" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="15" t="s">
-        <v>128</v>
+      <c r="A163" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="16" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2679,498 +2877,498 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.4285714285714" style="13" customWidth="1"/>
+    <col min="1" max="1" width="48.4285714285714" style="14" customWidth="1"/>
     <col min="2" max="2" width="26.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
+      <c r="A2" s="16" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="15" t="s">
-        <v>2</v>
+      <c r="A3" s="16" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
-        <v>3</v>
+      <c r="A5" s="16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="15" t="s">
-        <v>4</v>
+      <c r="A6" s="16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="15" t="s">
-        <v>5</v>
+      <c r="A7" s="16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="15" t="s">
-        <v>6</v>
+      <c r="A9" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="15" t="s">
-        <v>7</v>
+      <c r="A10" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="15" t="s">
-        <v>8</v>
+      <c r="A11" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="15" t="s">
-        <v>9</v>
+      <c r="A12" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="15" t="s">
-        <v>10</v>
+      <c r="A13" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="15" t="s">
-        <v>129</v>
+      <c r="A15" s="16" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="15" t="s">
-        <v>12</v>
+      <c r="A16" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="15" t="s">
-        <v>13</v>
+      <c r="A17" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="15" t="s">
-        <v>14</v>
+      <c r="A18" s="16" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="15" t="s">
-        <v>15</v>
+      <c r="A19" s="16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="15" t="s">
-        <v>16</v>
+      <c r="A20" s="16" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="15" t="s">
-        <v>17</v>
+      <c r="A22" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="15" t="s">
-        <v>18</v>
+      <c r="A23" s="16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="15" t="s">
-        <v>19</v>
+      <c r="A24" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="15" t="s">
-        <v>20</v>
+      <c r="A25" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="15" t="s">
-        <v>21</v>
+      <c r="A26" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="15" t="s">
-        <v>22</v>
+      <c r="A27" s="16" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="15" t="s">
-        <v>23</v>
+      <c r="A28" s="16" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="15" t="s">
-        <v>24</v>
+      <c r="A29" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="15" t="s">
-        <v>25</v>
+      <c r="A31" s="16" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="15" t="s">
-        <v>17</v>
+      <c r="A32" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="15" t="s">
-        <v>25</v>
+      <c r="A33" s="16" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="15" t="s">
-        <v>26</v>
+      <c r="A35" s="16" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="15" t="s">
-        <v>27</v>
+      <c r="A36" s="16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="15" t="s">
-        <v>28</v>
+      <c r="A37" s="16" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="15" t="s">
-        <v>29</v>
+      <c r="A38" s="16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="15" t="s">
-        <v>30</v>
+      <c r="A39" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="15" t="s">
-        <v>31</v>
+      <c r="A40" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="15" t="s">
-        <v>32</v>
+      <c r="A41" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="15" t="s">
-        <v>33</v>
+      <c r="A42" s="16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="15" t="s">
-        <v>34</v>
+      <c r="A43" s="16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="15" t="s">
-        <v>35</v>
+      <c r="A44" s="16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="15" t="s">
-        <v>36</v>
+      <c r="A45" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="15" t="s">
-        <v>37</v>
+      <c r="A46" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="15" t="s">
-        <v>38</v>
+      <c r="A47" s="16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="15" t="s">
-        <v>39</v>
+      <c r="A48" s="16" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="15" t="s">
-        <v>40</v>
+      <c r="A49" s="16" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="15" t="s">
-        <v>41</v>
+      <c r="A50" s="16" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="15" t="s">
-        <v>42</v>
+      <c r="A52" s="16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="15" t="s">
-        <v>43</v>
+      <c r="A53" s="16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="15" t="s">
-        <v>44</v>
+      <c r="A54" s="16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="15" t="s">
-        <v>45</v>
+      <c r="A55" s="16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="15" t="s">
-        <v>46</v>
+      <c r="A56" s="16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="15" t="s">
-        <v>47</v>
+      <c r="A57" s="16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="15" t="s">
-        <v>48</v>
+      <c r="A58" s="16" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="15" t="s">
-        <v>49</v>
+      <c r="A59" s="16" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="15" t="s">
-        <v>50</v>
+      <c r="A60" s="16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="15" t="s">
-        <v>51</v>
+      <c r="A62" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="15" t="s">
-        <v>52</v>
+      <c r="A63" s="16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="15" t="s">
-        <v>53</v>
+      <c r="A64" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="15" t="s">
-        <v>54</v>
+      <c r="A65" s="16" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="15" t="s">
-        <v>55</v>
+      <c r="A66" s="16" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="15" t="s">
-        <v>56</v>
+      <c r="A67" s="16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="15" t="s">
-        <v>57</v>
+      <c r="A68" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="15" t="s">
-        <v>58</v>
+      <c r="A69" s="16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="15" t="s">
-        <v>59</v>
+      <c r="A70" s="16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="15" t="s">
-        <v>60</v>
+      <c r="A72" s="16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="15" t="s">
-        <v>61</v>
+      <c r="A73" s="16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="15" t="s">
-        <v>62</v>
+      <c r="A74" s="16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="15" t="s">
-        <v>63</v>
+      <c r="A75" s="16" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="15" t="s">
-        <v>64</v>
+      <c r="A76" s="16" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="15" t="s">
-        <v>65</v>
+      <c r="A77" s="16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="15" t="s">
-        <v>66</v>
+      <c r="A78" s="16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="15" t="s">
-        <v>67</v>
+      <c r="A79" s="16" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="15" t="s">
-        <v>68</v>
+      <c r="A80" s="16" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="15" t="s">
-        <v>69</v>
+      <c r="A82" s="16" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="15" t="s">
-        <v>70</v>
+      <c r="A83" s="16" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="15" t="s">
-        <v>71</v>
+      <c r="A84" s="16" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="15" t="s">
-        <v>72</v>
+      <c r="A85" s="16" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="15" t="s">
-        <v>73</v>
+      <c r="A86" s="16" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="15" t="s">
-        <v>74</v>
+      <c r="A87" s="16" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="15" t="s">
-        <v>75</v>
+      <c r="A88" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="15" t="s">
-        <v>76</v>
+      <c r="A89" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="15" t="s">
-        <v>77</v>
+      <c r="A90" s="16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="15" t="s">
-        <v>78</v>
+      <c r="A92" s="16" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="15" t="s">
-        <v>79</v>
+      <c r="A93" s="16" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="15" t="s">
-        <v>80</v>
+      <c r="A94" s="16" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="15" t="s">
-        <v>81</v>
+      <c r="A95" s="16" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="15" t="s">
-        <v>82</v>
+      <c r="A96" s="16" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="15" t="s">
-        <v>83</v>
+      <c r="A97" s="16" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="15" t="s">
-        <v>84</v>
+      <c r="A98" s="16" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="15" t="s">
-        <v>85</v>
+      <c r="A99" s="16" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="15" t="s">
-        <v>86</v>
+      <c r="A100" s="16" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="15" t="s">
-        <v>87</v>
+      <c r="A102" s="16" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="15" t="s">
-        <v>88</v>
+      <c r="A103" s="16" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="15" t="s">
-        <v>89</v>
+      <c r="A104" s="16" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="15" t="s">
-        <v>90</v>
+      <c r="A105" s="16" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="15" t="s">
-        <v>91</v>
+      <c r="A106" s="16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="15" t="s">
-        <v>92</v>
+      <c r="A107" s="16" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="15" t="s">
-        <v>93</v>
+      <c r="A108" s="16" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="15" t="s">
-        <v>94</v>
+      <c r="A109" s="16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="15" t="s">
-        <v>95</v>
+      <c r="A110" s="16" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3182,130 +3380,168 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.4285714285714" style="13" customWidth="1"/>
+    <col min="1" max="1" width="48.4285714285714" style="14" customWidth="1"/>
     <col min="2" max="2" width="26.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
+      <c r="A2" s="16" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="15" t="s">
-        <v>17</v>
+    <row r="5" spans="1:1">
+      <c r="A5" s="16" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="15" t="s">
-        <v>19</v>
+      <c r="A7" s="16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="15" t="s">
-        <v>20</v>
+      <c r="A9" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="15" t="s">
-        <v>26</v>
+      <c r="A11" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="15" t="s">
-        <v>28</v>
+      <c r="A13" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="15" t="s">
-        <v>87</v>
+      <c r="A15" s="16" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="15" t="s">
-        <v>89</v>
+      <c r="A16" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="15" t="s">
-        <v>90</v>
+      <c r="A18" s="16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="15" t="s">
-        <v>91</v>
-      </c>
+      <c r="A19" s="16"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="15" t="s">
-        <v>92</v>
+      <c r="A20" s="16" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="15" t="s">
-        <v>93</v>
-      </c>
+      <c r="A21" s="16"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="15" t="s">
-        <v>94</v>
+      <c r="A22" s="16" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="15" t="s">
-        <v>95</v>
+      <c r="A23" s="16"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="16" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="15" t="s">
-        <v>100</v>
+      <c r="A25" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="16" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="15" t="s">
-        <v>113</v>
+      <c r="A27" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="13" t="s">
-        <v>116</v>
+      <c r="A29" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="14" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3325,148 +3561,148 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.4285714285714" style="13" customWidth="1"/>
+    <col min="1" max="1" width="48.4285714285714" style="14" customWidth="1"/>
     <col min="2" max="2" width="26.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
+      <c r="A2" s="16" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="15" t="s">
-        <v>2</v>
+      <c r="A3" s="16" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
-        <v>3</v>
+      <c r="A5" s="16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="15" t="s">
-        <v>4</v>
+      <c r="A6" s="16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="15" t="s">
-        <v>5</v>
+      <c r="A7" s="16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="15" t="s">
-        <v>6</v>
+      <c r="A9" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="15" t="s">
-        <v>7</v>
+      <c r="A10" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="15" t="s">
-        <v>8</v>
+      <c r="A11" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="15" t="s">
-        <v>9</v>
+      <c r="A12" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="15" t="s">
-        <v>10</v>
+      <c r="A13" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="15" t="s">
-        <v>129</v>
+      <c r="A15" s="16" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="15" t="s">
-        <v>12</v>
+      <c r="A16" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="15" t="s">
-        <v>13</v>
+      <c r="A17" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="15" t="s">
-        <v>14</v>
+      <c r="A18" s="16" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="15" t="s">
-        <v>15</v>
+      <c r="A19" s="16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="15" t="s">
-        <v>16</v>
+      <c r="A20" s="16" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="15" t="s">
-        <v>17</v>
+      <c r="A22" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="15" t="s">
-        <v>18</v>
+      <c r="A23" s="16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="15" t="s">
-        <v>19</v>
+      <c r="A24" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="15" t="s">
-        <v>20</v>
+      <c r="A25" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="15" t="s">
-        <v>21</v>
+      <c r="A26" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="15" t="s">
-        <v>22</v>
+      <c r="A27" s="16" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="15" t="s">
-        <v>23</v>
+      <c r="A28" s="16" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="15" t="s">
-        <v>24</v>
+      <c r="A29" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="15" t="s">
-        <v>25</v>
+      <c r="A31" s="16" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="15" t="s">
-        <v>17</v>
+      <c r="A32" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="15" t="s">
-        <v>25</v>
+      <c r="A33" s="16" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3503,210 +3739,210 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
       <c r="A1" s="10" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>136</v>
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:12">
       <c r="A3" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>146</v>
+        <v>171</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="30" spans="1:12">
       <c r="A4" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>152</v>
+        <v>177</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:12">
       <c r="A5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>157</v>
+        <v>182</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:12">
       <c r="A6" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>162</v>
+        <v>187</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3737,633 +3973,633 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="65" customHeight="1" spans="1:44">
       <c r="A1" s="10" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL1" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI1" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK1" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL1" s="10" t="s">
-        <v>107</v>
-      </c>
       <c r="AM1" s="10" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="AN1" s="10" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="AO1" s="10" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="AP1" s="10" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="AQ1" s="10" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="AR1" s="10" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="45" spans="1:44">
       <c r="A2" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>136</v>
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>171</v>
+        <v>196</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>173</v>
+        <v>198</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>199</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="AE2" s="7" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="AL2" s="8" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="AM2" s="8" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="AN2" s="8" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="AO2" s="8" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="AP2" s="8" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="AQ2" s="8" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="AR2" s="8" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="45" spans="1:44">
       <c r="A3" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>146</v>
+        <v>171</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="I3" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="N3" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>176</v>
-      </c>
       <c r="O3" s="8" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="Z3" s="8" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="AD3" s="8" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="AF3" s="8" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="AH3" s="8" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="AI3" s="8" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="AL3" s="8" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="AM3" s="8" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="AN3" s="8" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="AO3" s="8" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="AP3" s="8" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="AQ3" s="8" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="AR3" s="8" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="45" spans="1:25">
       <c r="A4" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>152</v>
+        <v>177</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="R4" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="S4" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="T4" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="U4" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="V4" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>184</v>
-      </c>
       <c r="W4" s="8" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="X4" s="8" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="45" spans="1:25">
       <c r="A5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>157</v>
+        <v>182</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="W5" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="X5" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="Y5" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="V5" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="X5" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y5" s="8" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="45" spans="1:25">
       <c r="A6" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>162</v>
+        <v>187</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>218</v>
+        <v>243</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>244</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>220</v>
+        <v>245</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>246</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -4375,158 +4611,135 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.2857142857143" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.1428571428571" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5714285714286" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.2857142857143" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5714285714286" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.2857142857143" style="1"/>
+    <col min="4" max="4" width="19.4285714285714" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1428571428571" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7142857142857" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1428571428571" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7142857142857" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:7">
-      <c r="A1" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>136</v>
+        <v>161</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
+        <v>161</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>146</v>
+        <v>171</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="30" spans="1:7">
+        <v>250</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="27" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>152</v>
+        <v>177</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:7">
-      <c r="A5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>141</v>
+      <c r="H4" s="8"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4554,210 +4767,210 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="89" customHeight="1" spans="1:55">
       <c r="A1" s="2" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="R1" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="Z1" s="10" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="AO1" s="3" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="AP1" s="3" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="AT1" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="AW1" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="AX1" s="3" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="AY1" s="3" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="AZ1" s="3" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="BA1" s="3" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="BB1" s="3" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="BC1" s="3" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="45" spans="1:55">
       <c r="A2" s="4" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -4768,31 +4981,31 @@
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
       <c r="AE2" s="8"/>
       <c r="AF2" s="8" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="AG2" s="8"/>
       <c r="AH2" s="8"/>
@@ -4802,81 +5015,81 @@
       <c r="AL2" s="8"/>
       <c r="AM2" s="8"/>
       <c r="AN2" s="8" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="AO2" s="8" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="AP2" s="8" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="AQ2" s="8" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="AR2" s="8" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="AS2" s="8" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="AT2" s="8" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="AU2" s="8" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="AV2" s="8" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="AW2" s="8" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="AX2" s="8"/>
       <c r="AY2" s="8"/>
       <c r="AZ2" s="8" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="BA2" s="8" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="BB2" s="8" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="BC2" s="8" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="30" spans="1:55">
       <c r="A3" s="4" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
@@ -4887,16 +5100,16 @@
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="8" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
@@ -4911,10 +5124,10 @@
       <c r="AL3" s="8"/>
       <c r="AM3" s="8"/>
       <c r="AN3" s="8" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="AO3" s="8" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="AP3" s="8"/>
       <c r="AQ3" s="8"/>
@@ -4925,153 +5138,153 @@
       <c r="AV3" s="8"/>
       <c r="AW3" s="8"/>
       <c r="AX3" s="8" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="AY3" s="8"/>
       <c r="AZ3" s="8" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="BA3" s="8" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="BB3" s="8" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="BC3" s="8" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="30" spans="1:55">
       <c r="A4" s="4" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>255</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>230</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="X4" s="8" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="AD4" s="8" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="AE4" s="8" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="AF4" s="8" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="AG4" s="8" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="AH4" s="8" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="AI4" s="8" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="AJ4" s="8" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="AK4" s="8" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="AL4" s="8" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="AM4" s="8" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="AN4" s="8"/>
       <c r="AO4" s="8" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="AP4" s="8"/>
       <c r="AQ4" s="8"/>
       <c r="AR4" s="8"/>
       <c r="AS4" s="8"/>
       <c r="AT4" s="8" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="AU4" s="8" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="AV4" s="8" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="AW4" s="8" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="AX4" s="8"/>
       <c r="AY4" s="8" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="AZ4" s="8"/>
       <c r="BA4" s="8"/>
@@ -5090,7 +5303,7 @@
   <dimension ref="A1:BE4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -5103,219 +5316,219 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="89" customHeight="1" spans="1:57">
       <c r="A1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="AC1" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="AO1" s="3" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="AP1" s="3" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="AT1" s="3" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="AW1" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="AX1" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="AY1" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="AZ1" s="3" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="BA1" s="3" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="BB1" s="3" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="BC1" s="3" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="BD1" s="3" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="BE1" s="3" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="45" spans="1:57">
       <c r="A2" s="4" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>248</v>
+        <v>161</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -5326,110 +5539,110 @@
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
       <c r="W2" s="8" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="AM2" s="8" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="AN2" s="8" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="AO2" s="8" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="AP2" s="8"/>
       <c r="AQ2" s="8" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="AR2" s="8" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="AS2" s="8" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="AT2" s="8" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="AU2" s="8" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="AV2" s="8" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="AW2" s="8" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="AX2" s="8" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="AY2" s="8" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="AZ2" s="8"/>
       <c r="BA2" s="8"/>
       <c r="BB2" s="8" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="BC2" s="8" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="BD2" s="8" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="BE2" s="8" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="45" spans="1:57">
       <c r="A3" s="4" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -5437,16 +5650,16 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -5457,22 +5670,22 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="Z3" s="8" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
@@ -5483,17 +5696,17 @@
       <c r="AI3" s="8"/>
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="AL3" s="8"/>
       <c r="AM3" s="8"/>
       <c r="AN3" s="8"/>
       <c r="AO3" s="8"/>
       <c r="AP3" s="8" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="AQ3" s="8" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="AR3" s="8"/>
       <c r="AS3" s="8"/>
@@ -5504,145 +5717,145 @@
       <c r="AX3" s="8"/>
       <c r="AY3" s="8"/>
       <c r="AZ3" s="8" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="BA3" s="8"/>
       <c r="BB3" s="8" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="BC3" s="8" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="BD3" s="8" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="BE3" s="8" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="30" spans="1:57">
       <c r="A4" s="4" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="X4" s="8" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="AD4" s="8" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="AE4" s="8" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="AF4" s="8" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="AG4" s="8" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="AH4" s="8" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="AI4" s="8" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="AJ4" s="8" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="AK4" s="8" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="AL4" s="8"/>
       <c r="AM4" s="8"/>
       <c r="AN4" s="8"/>
       <c r="AO4" s="8"/>
       <c r="AP4" s="8" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="AQ4" s="8" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="AR4" s="8"/>
       <c r="AS4" s="8"/>
       <c r="AT4" s="8"/>
       <c r="AU4" s="8"/>
       <c r="AV4" s="8" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="AW4" s="8" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="AX4" s="8" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="AY4" s="8" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="AZ4" s="8"/>
       <c r="BA4" s="8" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="BB4" s="8"/>
       <c r="BC4" s="8"/>

--- a/src/main/resources/input_excel_file/flow_definition.xlsx
+++ b/src/main/resources/input_excel_file/flow_definition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Flow Order Sheet Mapping" sheetId="6" r:id="rId1"/>
@@ -13,9 +13,9 @@
     <sheet name="ORDER_BOOKING_CI" sheetId="8" r:id="rId4"/>
     <sheet name="flow_1_player" sheetId="1" r:id="rId5"/>
     <sheet name="flow_4_player" sheetId="2" r:id="rId6"/>
-    <sheet name="VC_1_PLAYER" sheetId="3" r:id="rId7"/>
-    <sheet name="Test" sheetId="5" r:id="rId8"/>
-    <sheet name="Test_02" sheetId="9" r:id="rId9"/>
+    <sheet name="Test" sheetId="5" r:id="rId7"/>
+    <sheet name="Test_02" sheetId="9" r:id="rId8"/>
+    <sheet name="VC_1_PLAYER" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,56 +35,62 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="330">
+  <si>
+    <t>Màn hình</t>
+  </si>
+  <si>
+    <t>Chức năng</t>
+  </si>
   <si>
     <t>step_order</t>
   </si>
   <si>
-    <t>Màn hình</t>
-  </si>
-  <si>
-    <t>Chức năng</t>
+    <t>Đăng nhập</t>
   </si>
   <si>
     <t>login_case_id</t>
   </si>
   <si>
-    <t>Đăng nhập</t>
+    <t>Single booking</t>
+  </si>
+  <si>
+    <t>Nhập voucher: Check thông tin booking với voucher apply</t>
   </si>
   <si>
     <t>booking_voucher_check_case_id</t>
   </si>
   <si>
-    <t>Single booking</t>
-  </si>
-  <si>
-    <t>Nhập voucher: Check thông tin booking với voucher apply</t>
+    <t>Trường amout: Giá booking dự kiến</t>
   </si>
   <si>
     <t>quote_fee_case_id</t>
   </si>
   <si>
-    <t>Trường amout: Giá booking dự kiến</t>
+    <t>Tạo booking : Tạo 1 booking</t>
   </si>
   <si>
     <t>create_booking_case_id</t>
   </si>
   <si>
-    <t>Tạo booking</t>
+    <t>Tạo booking : Tạo 1 booking có add voucher</t>
   </si>
   <si>
     <t>create_booking_Voucher_case_id</t>
   </si>
   <si>
+    <t>Tạo booking : Tạo 4 booking</t>
+  </si>
+  <si>
     <t>create_booking_4_player_case_id</t>
   </si>
   <si>
+    <t>Sửa thông tin booking: Sửa tại tee time</t>
+  </si>
+  <si>
     <t>edit_booking_at_tee_time_player1_id</t>
   </si>
   <si>
-    <t>Sửa thông tin booking: Sửa tại tee time</t>
-  </si>
-  <si>
     <t>edit_booking_at_tee_time_player2_id</t>
   </si>
   <si>
@@ -94,30 +100,30 @@
     <t>edit_booking_at_tee_time_player4_id</t>
   </si>
   <si>
+    <t>Sửa thông tin booking: Sửa tại popup edit booking</t>
+  </si>
+  <si>
     <t>edit_booking_1_player_id</t>
   </si>
   <si>
-    <t>Sửa thông tin booking: Sửa tại popup edit booking</t>
+    <t>Danh sách booking thành công</t>
   </si>
   <si>
     <t>get_booking_list_case_id</t>
   </si>
   <si>
-    <t>Danh sách booking thành công</t>
+    <t>Danh sách giá booking thành công</t>
   </si>
   <si>
     <t>get_booking_price_case_id</t>
   </si>
   <si>
-    <t>Danh sách giá booking thành công</t>
+    <t xml:space="preserve">Trường booking price: Giá booking của player </t>
   </si>
   <si>
     <t>get_booking_price_player1_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Giá booking của player </t>
-  </si>
-  <si>
     <t>get_booking_price_player2_id</t>
   </si>
   <si>
@@ -127,12 +133,12 @@
     <t>get_booking_price_player4_id</t>
   </si>
   <si>
+    <t>Check in cho player</t>
+  </si>
+  <si>
     <t>check_in_bag_player1_id</t>
   </si>
   <si>
-    <t>Check in cho player</t>
-  </si>
-  <si>
     <t>check_in_bag_player2_id</t>
   </si>
   <si>
@@ -142,15 +148,15 @@
     <t>check_in_bag_player4_id</t>
   </si>
   <si>
+    <t>Check in EKYC</t>
+  </si>
+  <si>
+    <t>Check in member</t>
+  </si>
+  <si>
     <t>Check_In_Ekyc_Player1_id</t>
   </si>
   <si>
-    <t>EKYC</t>
-  </si>
-  <si>
-    <t>Check in member</t>
-  </si>
-  <si>
     <t>Check_In_Ekyc_Player2_id</t>
   </si>
   <si>
@@ -160,27 +166,27 @@
     <t>Check_In_Ekyc_Player4_id</t>
   </si>
   <si>
+    <t>CICO</t>
+  </si>
+  <si>
+    <t>Undo check out</t>
+  </si>
+  <si>
     <t>undo_check_in_bag_id</t>
   </si>
   <si>
-    <t>CICO</t>
-  </si>
-  <si>
-    <t>Undo check out</t>
+    <t>Check thông tin booking với voucher apply</t>
   </si>
   <si>
     <t>cico_voucher_check_case_id</t>
   </si>
   <si>
-    <t>Check thông tin booking với voucher apply</t>
+    <t>Add voucher</t>
   </si>
   <si>
     <t>voucher_apply_player1_case_id</t>
   </si>
   <si>
-    <t>Add voucher</t>
-  </si>
-  <si>
     <t>voucher_apply_player2_case_id</t>
   </si>
   <si>
@@ -190,12 +196,102 @@
     <t>voucher_apply_player4_case_id</t>
   </si>
   <si>
+    <t>Thông tin booking</t>
+  </si>
+  <si>
+    <t>booking_by_bag_player1_id</t>
+  </si>
+  <si>
+    <t>booking_by_bag_player2_id</t>
+  </si>
+  <si>
+    <t>booking_by_bag_player3_id</t>
+  </si>
+  <si>
+    <t>booking_by_bag_player4_id</t>
+  </si>
+  <si>
+    <t>Add main-sub</t>
+  </si>
+  <si>
+    <t>add_sub_bag_id</t>
+  </si>
+  <si>
+    <t>Popup agency pay</t>
+  </si>
+  <si>
+    <t>detail_agency_pay_id</t>
+  </si>
+  <si>
+    <t>Update agency pay</t>
+  </si>
+  <si>
+    <t>update_agency_pay_player1_id</t>
+  </si>
+  <si>
+    <t>update_agency_pay_player2_id</t>
+  </si>
+  <si>
+    <t>update_agency_pay_player3_id</t>
+  </si>
+  <si>
+    <t>update_agency_pay_player4_id</t>
+  </si>
+  <si>
+    <t>Phí của bag</t>
+  </si>
+  <si>
+    <t>fee_of_bag_player1_id</t>
+  </si>
+  <si>
+    <t>fee_of_bag_player2_id</t>
+  </si>
+  <si>
+    <t>fee_of_bag_player3_id</t>
+  </si>
+  <si>
+    <t>Phí của bag trên bill</t>
+  </si>
+  <si>
+    <t>fee_of_bag_bill_player1_id</t>
+  </si>
+  <si>
+    <t>fee_of_bag_bill_player2_id</t>
+  </si>
+  <si>
+    <t>fee_of_bag_bill_player3_id</t>
+  </si>
+  <si>
+    <t>fee_of_bag_bill_player4_id</t>
+  </si>
+  <si>
+    <t>Input payment</t>
+  </si>
+  <si>
+    <t>input_single_payment_id</t>
+  </si>
+  <si>
+    <t>Danh sách input payment</t>
+  </si>
+  <si>
+    <t>single_payment_list_id</t>
+  </si>
+  <si>
+    <t>Check out</t>
+  </si>
+  <si>
+    <t>check_out_bag_id</t>
+  </si>
+  <si>
+    <t>check_out_group_id</t>
+  </si>
+  <si>
+    <t>GO - Course infomation</t>
+  </si>
+  <si>
     <t>create_flight_id</t>
   </si>
   <si>
-    <t>GO - Course infomation</t>
-  </si>
-  <si>
     <t>add_bag_to_flight_id</t>
   </si>
   <si>
@@ -241,6 +337,9 @@
     <t>add_round_player1_id</t>
   </si>
   <si>
+    <t>Nhà hàng</t>
+  </si>
+  <si>
     <t>restaurant_create_bill_player1_id</t>
   </si>
   <si>
@@ -268,6 +367,9 @@
     <t>restaurant_add_item_to_bill_player4_id</t>
   </si>
   <si>
+    <t>Kiosk</t>
+  </si>
+  <si>
     <t>kiosk_create_bill_player1_id</t>
   </si>
   <si>
@@ -295,6 +397,9 @@
     <t>kiosk_add_item_to_bill_player4_id</t>
   </si>
   <si>
+    <t>Mini bar</t>
+  </si>
+  <si>
     <t>mini_bar_create_bill_player1_id</t>
   </si>
   <si>
@@ -322,6 +427,9 @@
     <t>mini_bar_add_item_to_bill_player4_id</t>
   </si>
   <si>
+    <t>Driving</t>
+  </si>
+  <si>
     <t>driving_create_bill_player1_id</t>
   </si>
   <si>
@@ -349,6 +457,9 @@
     <t>driving_add_item_to_bill_player4_id</t>
   </si>
   <si>
+    <t>Rental</t>
+  </si>
+  <si>
     <t>rental_create_bill_player1_id</t>
   </si>
   <si>
@@ -376,6 +487,9 @@
     <t>rental_add_item_to_bill_player4_id</t>
   </si>
   <si>
+    <t>Proshop</t>
+  </si>
+  <si>
     <t>proshop_create_bill_player1_id</t>
   </si>
   <si>
@@ -403,72 +517,18 @@
     <t>proshop_add_item_to_bill_player4_id</t>
   </si>
   <si>
-    <t>booking_by_bag_player1_id</t>
-  </si>
-  <si>
-    <t>booking_by_bag_player2_id</t>
-  </si>
-  <si>
-    <t>booking_by_bag_player3_id</t>
-  </si>
-  <si>
-    <t>booking_by_bag_player4_id</t>
-  </si>
-  <si>
-    <t>add_sub_bag_id</t>
-  </si>
-  <si>
-    <t>detail_agency_pay_id</t>
-  </si>
-  <si>
-    <t>update_agency_pay_player1_id</t>
-  </si>
-  <si>
-    <t>update_agency_pay_player2_id</t>
-  </si>
-  <si>
-    <t>update_agency_pay_player3_id</t>
-  </si>
-  <si>
-    <t>update_agency_pay_player4_id</t>
-  </si>
-  <si>
-    <t>fee_of_bag_player1_id</t>
-  </si>
-  <si>
-    <t>fee_of_bag_player2_id</t>
-  </si>
-  <si>
-    <t>fee_of_bag_player3_id</t>
-  </si>
-  <si>
-    <t>fee_of_bag_bill_player1_id</t>
-  </si>
-  <si>
-    <t>fee_of_bag_bill_player2_id</t>
-  </si>
-  <si>
-    <t>fee_of_bag_bill_player3_id</t>
-  </si>
-  <si>
-    <t>fee_of_bag_bill_player4_id</t>
-  </si>
-  <si>
-    <t>input_single_payment_id</t>
-  </si>
-  <si>
-    <t>single_payment_list_id</t>
-  </si>
-  <si>
-    <t>check_out_bag_id</t>
-  </si>
-  <si>
-    <t>check_out_group_id</t>
+    <t>E-Invocie</t>
+  </si>
+  <si>
+    <t>Danh sách E-Invoice</t>
   </si>
   <si>
     <t>e_invoice_id</t>
   </si>
   <si>
+    <t>E-Invoice từng player</t>
+  </si>
+  <si>
     <t>e_invoice_payment_id_player1_id</t>
   </si>
   <si>
@@ -481,15 +541,30 @@
     <t>e_invoice_payment_id_player4_id</t>
   </si>
   <si>
+    <t>Danh sách item xuất hóa đơn của E-Invoice player</t>
+  </si>
+  <si>
     <t>invoice_detail_cost_id</t>
   </si>
   <si>
+    <t>Danh sách item xuất hóa đơn của E-Invocie agency</t>
+  </si>
+  <si>
     <t>invoice_detail_agency_paid_id</t>
   </si>
   <si>
+    <t>Revenue detail report</t>
+  </si>
+  <si>
+    <t>Danh sách báo cáo</t>
+  </si>
+  <si>
     <t>revenue_detail_report_id</t>
   </si>
   <si>
+    <t>Detail từng player</t>
+  </si>
+  <si>
     <t>revenue_detail_report_player1_id</t>
   </si>
   <si>
@@ -781,163 +856,175 @@
     <t>flow_order_sheet</t>
   </si>
   <si>
+    <t>BOOKING_PRICE_PLAYER1</t>
+  </si>
+  <si>
+    <t>BOOKING_PRICE_PLAYER2</t>
+  </si>
+  <si>
+    <t>BOOKING_PRICE_PLAYER3</t>
+  </si>
+  <si>
+    <t>BOOKING_PRICE_PLAYER4</t>
+  </si>
+  <si>
+    <t>ADD_3SUB_BAG_001</t>
+  </si>
+  <si>
+    <t>INPUT_PAYMENT_PLAYER1_001</t>
+  </si>
+  <si>
+    <t>SINGLE_PAYMENT_LIST_PLAYER1</t>
+  </si>
+  <si>
+    <t>CHECK_OUT_GROUP_4PLAYER</t>
+  </si>
+  <si>
+    <t>E_INVOICE_001</t>
+  </si>
+  <si>
+    <t>E_INVOICE_PAYMENT_ID_PLAYER1</t>
+  </si>
+  <si>
+    <t>E_INVOICE_PAYMENT_ID_PLAYER2</t>
+  </si>
+  <si>
+    <t>E_INVOICE_PAYMENT_ID_PLAYER3</t>
+  </si>
+  <si>
+    <t>E_INVOICE_PAYMENT_ID_PLAYER4</t>
+  </si>
+  <si>
+    <t>E_INVOICE_PLAYER1</t>
+  </si>
+  <si>
+    <t>E_INVOICE_PLAYER2</t>
+  </si>
+  <si>
+    <t>E_INVOICE_PLAYER3</t>
+  </si>
+  <si>
+    <t>E_INVOICE_PLAYER4</t>
+  </si>
+  <si>
+    <t>REPORT_VST_PLAYER1</t>
+  </si>
+  <si>
+    <t>REPORT_VST_PLAYER2</t>
+  </si>
+  <si>
+    <t>REPORT_VST_PLAYER3</t>
+  </si>
+  <si>
+    <t>REPORT_VST_PLAYER4</t>
+  </si>
+  <si>
+    <t>Flow Order Sheet Mapping</t>
+  </si>
+  <si>
+    <t>E_INVOICE_002</t>
+  </si>
+  <si>
+    <t>E_INVOICE_AGENCY</t>
+  </si>
+  <si>
+    <t>REPORT_AGENCY_PLAYER1</t>
+  </si>
+  <si>
+    <t>REPORT_AGENCY_PLAYER2</t>
+  </si>
+  <si>
+    <t>REPORT_AGENCY_PLAYER3</t>
+  </si>
+  <si>
+    <t>REPORT_AGENCY_PLAYER4</t>
+  </si>
+  <si>
+    <t>ORDER_BOOKING_CI</t>
+  </si>
+  <si>
+    <t>CI_EKYC_PLAYER1</t>
+  </si>
+  <si>
+    <t>CI_EKYC_PLAYER2</t>
+  </si>
+  <si>
+    <t>CI_EKYC_PLAYER3</t>
+  </si>
+  <si>
+    <t>CI_EKYC_PLAYER4</t>
+  </si>
+  <si>
+    <t>INPUT_PAYMENT_PLAYER1</t>
+  </si>
+  <si>
+    <t>INPUT_PAYMENT_PLAYER2</t>
+  </si>
+  <si>
+    <t>INPUT_PAYMENT_PLAYER3</t>
+  </si>
+  <si>
+    <t>INPUT_PAYMENT_PLAYER4</t>
+  </si>
+  <si>
+    <t>SINGLE_PAYMENT_LIST_PLAYER2</t>
+  </si>
+  <si>
+    <t>SINGLE_PAYMENT_LIST_PLAYER3</t>
+  </si>
+  <si>
+    <t>SINGLE_PAYMENT_LIST_PLAYER4</t>
+  </si>
+  <si>
+    <t>CHECK_OUT_BAG_PLAYER1</t>
+  </si>
+  <si>
+    <t>CHECK_OUT_BAG_PLAYER2</t>
+  </si>
+  <si>
+    <t>CHECK_OUT_BAG_PLAYER3</t>
+  </si>
+  <si>
+    <t>CHECK_OUT_BAG_PLAYER4</t>
+  </si>
+  <si>
+    <t>E_INVOICE_003</t>
+  </si>
+  <si>
+    <t>REPORT_001</t>
+  </si>
+  <si>
+    <t>REPORT_VST_PLAYER1_001</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER1_004</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER2_004</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER3_004</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER4_004</t>
+  </si>
+  <si>
     <t>CHECK_1_VC_CA_NHAN_01</t>
   </si>
   <si>
     <t>CHECK_1_VC_CA_NHAN_02</t>
   </si>
   <si>
-    <t>Flow Order Sheet Mapping</t>
-  </si>
-  <si>
-    <t>CI_EKYC_PLAYER1</t>
-  </si>
-  <si>
-    <t>BOOKING_PRICE_PLAYER1</t>
-  </si>
-  <si>
-    <t>BOOKING_PRICE_PLAYER2</t>
-  </si>
-  <si>
-    <t>BOOKING_PRICE_PLAYER3</t>
-  </si>
-  <si>
-    <t>BOOKING_PRICE_PLAYER4</t>
-  </si>
-  <si>
-    <t>ADD_3SUB_BAG_001</t>
-  </si>
-  <si>
-    <t>INPUT_PAYMENT_PLAYER1_001</t>
-  </si>
-  <si>
-    <t>SINGLE_PAYMENT_LIST_PLAYER1</t>
-  </si>
-  <si>
-    <t>CHECK_OUT_GROUP_4PLAYER</t>
-  </si>
-  <si>
-    <t>E_INVOICE_001</t>
-  </si>
-  <si>
-    <t>E_INVOICE_PAYMENT_ID_PLAYER1</t>
-  </si>
-  <si>
-    <t>E_INVOICE_PAYMENT_ID_PLAYER2</t>
-  </si>
-  <si>
-    <t>E_INVOICE_PAYMENT_ID_PLAYER3</t>
-  </si>
-  <si>
-    <t>E_INVOICE_PAYMENT_ID_PLAYER4</t>
-  </si>
-  <si>
-    <t>E_INVOICE_PLAYER1</t>
-  </si>
-  <si>
-    <t>E_INVOICE_PLAYER2</t>
-  </si>
-  <si>
-    <t>E_INVOICE_PLAYER3</t>
-  </si>
-  <si>
-    <t>E_INVOICE_PLAYER4</t>
-  </si>
-  <si>
-    <t>REPORT_VST_PLAYER1</t>
-  </si>
-  <si>
-    <t>REPORT_VST_PLAYER2</t>
-  </si>
-  <si>
-    <t>REPORT_VST_PLAYER3</t>
-  </si>
-  <si>
-    <t>REPORT_VST_PLAYER4</t>
-  </si>
-  <si>
-    <t>E_INVOICE_002</t>
-  </si>
-  <si>
-    <t>E_INVOICE_AGENCY</t>
-  </si>
-  <si>
-    <t>REPORT_AGENCY_PLAYER1</t>
-  </si>
-  <si>
-    <t>REPORT_AGENCY_PLAYER2</t>
-  </si>
-  <si>
-    <t>REPORT_AGENCY_PLAYER3</t>
-  </si>
-  <si>
-    <t>REPORT_AGENCY_PLAYER4</t>
-  </si>
-  <si>
-    <t>ORDER_BOOKING_CI</t>
-  </si>
-  <si>
-    <t>CI_EKYC_PLAYER2</t>
-  </si>
-  <si>
-    <t>CI_EKYC_PLAYER3</t>
-  </si>
-  <si>
-    <t>CI_EKYC_PLAYER4</t>
-  </si>
-  <si>
-    <t>INPUT_PAYMENT_PLAYER1</t>
-  </si>
-  <si>
-    <t>INPUT_PAYMENT_PLAYER2</t>
-  </si>
-  <si>
-    <t>INPUT_PAYMENT_PLAYER3</t>
-  </si>
-  <si>
-    <t>INPUT_PAYMENT_PLAYER4</t>
-  </si>
-  <si>
-    <t>SINGLE_PAYMENT_LIST_PLAYER2</t>
-  </si>
-  <si>
-    <t>SINGLE_PAYMENT_LIST_PLAYER3</t>
-  </si>
-  <si>
-    <t>SINGLE_PAYMENT_LIST_PLAYER4</t>
-  </si>
-  <si>
-    <t>CHECK_OUT_BAG_PLAYER1</t>
-  </si>
-  <si>
-    <t>CHECK_OUT_BAG_PLAYER2</t>
-  </si>
-  <si>
-    <t>CHECK_OUT_BAG_PLAYER3</t>
-  </si>
-  <si>
-    <t>CHECK_OUT_BAG_PLAYER4</t>
-  </si>
-  <si>
-    <t>E_INVOICE_003</t>
-  </si>
-  <si>
-    <t>REPORT_001</t>
-  </si>
-  <si>
-    <t>REPORT_VST_PLAYER1_001</t>
-  </si>
-  <si>
-    <t>UPDATE_AGENCY_PAY_PLAYER1_004</t>
-  </si>
-  <si>
-    <t>UPDATE_AGENCY_PAY_PLAYER2_004</t>
-  </si>
-  <si>
-    <t>UPDATE_AGENCY_PAY_PLAYER3_004</t>
-  </si>
-  <si>
-    <t>UPDATE_AGENCY_PAY_PLAYER4_004</t>
+    <t>CF_1_PLAYER_001</t>
+  </si>
+  <si>
+    <t>CHECK_3_VC_CA_NHAN_01</t>
+  </si>
+  <si>
+    <t>APPLY_3VC_CA_NHAN_PLAYER1</t>
+  </si>
+  <si>
+    <t>VST_FEE_OF_BAG_APPLY_VOUCHER_002</t>
   </si>
 </sst>
 </file>
@@ -945,10 +1032,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1503,16 +1590,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1645,7 +1732,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1675,9 +1762,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1691,6 +1775,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2011,856 +2113,1048 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G171"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="48.4285714285714" style="14" customWidth="1"/>
-    <col min="2" max="2" width="25.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="44.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="22.7142857142857" style="17" customWidth="1"/>
+    <col min="2" max="2" width="53.1428571428571" style="17" customWidth="1"/>
+    <col min="3" max="3" width="48.4285714285714" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="9.14285714285714" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="21" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="22"/>
+      <c r="B5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="22"/>
+      <c r="B6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="16"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="16" t="s">
-        <v>13</v>
+      <c r="A9" s="22"/>
+      <c r="C9" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="22"/>
+      <c r="C10" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="22"/>
+      <c r="C11" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
+      <c r="A13" s="22"/>
+      <c r="B13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="22"/>
+      <c r="C16" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="22"/>
+      <c r="C17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="22"/>
+      <c r="C18" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="22"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
+      <c r="A20" s="22"/>
+      <c r="B20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23"/>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="16" t="s">
-        <v>29</v>
+      <c r="A21" s="22"/>
+      <c r="C21" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="22"/>
+      <c r="C22" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="22"/>
+      <c r="C23" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="22"/>
+      <c r="C25" s="21" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="16" t="s">
-        <v>34</v>
+      <c r="A26" s="22"/>
+      <c r="C26" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="22"/>
+      <c r="C27" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="22"/>
+      <c r="B29" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="16" t="s">
-        <v>40</v>
+      <c r="A30" s="22"/>
+      <c r="B30" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="22"/>
+      <c r="C31" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="22"/>
+      <c r="C32" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="22"/>
+      <c r="C33" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="22"/>
+      <c r="B34" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" t="s">
-        <v>43</v>
+      <c r="A35" s="22"/>
+      <c r="C35" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="22"/>
+      <c r="C36" s="21" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" t="s">
-        <v>45</v>
+      <c r="A37" s="22"/>
+      <c r="C37" s="21" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="16"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="16" t="s">
+      <c r="A38" s="22"/>
+      <c r="B38" s="17" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="16" t="s">
+      <c r="C38" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="16" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" s="22"/>
+      <c r="B39" s="17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="16" t="s">
+      <c r="C39" s="21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="16" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" s="22"/>
+      <c r="B40" s="17" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="16" t="s">
+      <c r="C40" s="21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="16" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" s="22"/>
+      <c r="C41" s="21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="16" t="s">
+    <row r="42" spans="1:3">
+      <c r="A42" s="22"/>
+      <c r="C42" s="21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="16" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" s="22"/>
+      <c r="C43" s="21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="16" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" s="22"/>
+      <c r="B44" s="17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="16" t="s">
+      <c r="C44" s="21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="16" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" s="22"/>
+      <c r="C45" s="21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="16" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="22"/>
+      <c r="C46" s="21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="16" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" s="22"/>
+      <c r="C47" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="22"/>
+      <c r="B48" s="17" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="16" t="s">
+      <c r="C48" s="21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="16" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49" s="22"/>
+      <c r="C49" s="21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="16" t="s">
+    <row r="50" spans="1:3">
+      <c r="A50" s="22"/>
+      <c r="C50" s="21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="16" t="s">
+    <row r="51" spans="1:3">
+      <c r="A51" s="22"/>
+      <c r="C51" s="21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="16" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" s="22"/>
+      <c r="B52" s="17" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="16" t="s">
+      <c r="C52" s="21" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="16" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" s="22"/>
+      <c r="C53" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="22"/>
+      <c r="C54" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="22"/>
+      <c r="C55" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="22"/>
+      <c r="B56" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="16" t="s">
+      <c r="C56" s="21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="16" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" s="22"/>
+      <c r="C57" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="22"/>
+      <c r="C58" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="22"/>
+      <c r="C59" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="22"/>
+      <c r="B60" s="17" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="16" t="s">
+      <c r="C60" s="21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="16" t="s">
+    <row r="61" spans="1:3">
+      <c r="A61" s="22"/>
+      <c r="C61" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="22"/>
+      <c r="C62" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="22"/>
+      <c r="C63" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="22"/>
+      <c r="C64" s="21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="16" t="s">
+    <row r="65" spans="1:3">
+      <c r="A65" s="22" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="16" t="s">
+      <c r="C65" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="16" t="s">
+    <row r="66" spans="1:3">
+      <c r="A66" s="22"/>
+      <c r="C66" s="21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="16" t="s">
+    <row r="67" spans="1:3">
+      <c r="A67" s="22"/>
+      <c r="C67" s="21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="16" t="s">
+    <row r="68" spans="1:3">
+      <c r="A68" s="22"/>
+      <c r="C68" s="21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="16" t="s">
+    <row r="69" spans="1:3">
+      <c r="A69" s="22"/>
+      <c r="C69" s="21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="16" t="s">
+    <row r="70" spans="1:3">
+      <c r="A70" s="22"/>
+      <c r="C70" s="21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="16" t="s">
+    <row r="71" spans="1:3">
+      <c r="A71" s="22"/>
+      <c r="C71" s="21" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="16" t="s">
+    <row r="72" spans="1:3">
+      <c r="A72" s="22"/>
+      <c r="C72" s="21" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="16" t="s">
+    <row r="73" spans="1:3">
+      <c r="A73" s="22"/>
+      <c r="C73" s="21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="16" t="s">
+    <row r="74" spans="1:3">
+      <c r="A74" s="22"/>
+      <c r="C74" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="16" t="s">
+    <row r="75" spans="1:3">
+      <c r="A75" s="22"/>
+      <c r="C75" s="21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="16" t="s">
+    <row r="76" spans="1:3">
+      <c r="A76" s="22"/>
+      <c r="C76" s="21" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="16" t="s">
+    <row r="77" spans="1:3">
+      <c r="A77" s="22"/>
+      <c r="C77" s="21" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="16" t="s">
+    <row r="78" spans="1:3">
+      <c r="A78" s="22"/>
+      <c r="C78" s="21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="16" t="s">
+    <row r="79" spans="1:3">
+      <c r="A79" s="22"/>
+      <c r="C79" s="21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="16" t="s">
+    <row r="80" spans="1:3">
+      <c r="A80" s="22"/>
+      <c r="C80" s="21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="16" t="s">
+    <row r="81" spans="1:3">
+      <c r="A81" s="22" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="16" t="s">
+      <c r="C81" s="21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="16" t="s">
+    <row r="82" spans="1:3">
+      <c r="A82" s="22"/>
+      <c r="C82" s="21" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="16" t="s">
+    <row r="83" spans="1:3">
+      <c r="A83" s="22"/>
+      <c r="C83" s="21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="16" t="s">
+    <row r="84" spans="1:3">
+      <c r="A84" s="22"/>
+      <c r="C84" s="21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="16" t="s">
+    <row r="85" spans="1:3">
+      <c r="A85" s="22"/>
+      <c r="C85" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="16" t="s">
+    <row r="86" spans="1:3">
+      <c r="A86" s="22"/>
+      <c r="C86" s="21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="16" t="s">
+    <row r="87" spans="1:3">
+      <c r="A87" s="22"/>
+      <c r="C87" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="16" t="s">
+    <row r="88" spans="1:3">
+      <c r="A88" s="22"/>
+      <c r="C88" s="21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="16" t="s">
+    <row r="89" spans="1:3">
+      <c r="A89" s="22"/>
+      <c r="C89" s="21" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="16" t="s">
+    <row r="90" spans="1:3">
+      <c r="A90" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="16" t="s">
+      <c r="C90" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="16" t="s">
+    <row r="91" spans="1:3">
+      <c r="A91" s="22"/>
+      <c r="C91" s="21" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="16" t="s">
+    <row r="92" spans="1:3">
+      <c r="A92" s="22"/>
+      <c r="C92" s="21" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="16" t="s">
+    <row r="93" spans="1:3">
+      <c r="A93" s="22"/>
+      <c r="C93" s="21" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="16" t="s">
+    <row r="94" spans="1:3">
+      <c r="A94" s="22"/>
+      <c r="C94" s="21" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="16" t="s">
+    <row r="95" spans="1:3">
+      <c r="A95" s="22"/>
+      <c r="C95" s="21" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="16" t="s">
+    <row r="96" spans="1:3">
+      <c r="A96" s="22"/>
+      <c r="C96" s="21" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="16" t="s">
+    <row r="97" spans="1:3">
+      <c r="A97" s="22"/>
+      <c r="C97" s="21" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="16" t="s">
+    <row r="98" spans="1:3">
+      <c r="A98" s="22"/>
+      <c r="C98" s="21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="16" t="s">
+    <row r="99" spans="1:3">
+      <c r="A99" s="22" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="16" t="s">
+      <c r="C99" s="21" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="16" t="s">
+    <row r="100" spans="1:3">
+      <c r="A100" s="22"/>
+      <c r="C100" s="21" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="16" t="s">
+    <row r="101" spans="1:3">
+      <c r="A101" s="22"/>
+      <c r="C101" s="21" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="16" t="s">
+    <row r="102" spans="1:3">
+      <c r="A102" s="22"/>
+      <c r="C102" s="21" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="16" t="s">
+    <row r="103" spans="1:3">
+      <c r="A103" s="22"/>
+      <c r="C103" s="21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="16" t="s">
+    <row r="104" spans="1:3">
+      <c r="A104" s="22"/>
+      <c r="C104" s="21" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="16" t="s">
+    <row r="105" spans="1:3">
+      <c r="A105" s="22"/>
+      <c r="C105" s="21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="16" t="s">
+    <row r="106" spans="1:3">
+      <c r="A106" s="22"/>
+      <c r="C106" s="21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="16" t="s">
+    <row r="107" spans="1:3">
+      <c r="A107" s="22"/>
+      <c r="C107" s="21" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="16" t="s">
+    <row r="108" spans="1:3">
+      <c r="A108" s="22" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="16" t="s">
+      <c r="C108" s="21" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="16" t="s">
+    <row r="109" spans="1:3">
+      <c r="A109" s="22"/>
+      <c r="C109" s="21" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="16" t="s">
+    <row r="110" spans="1:3">
+      <c r="A110" s="22"/>
+      <c r="C110" s="21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="16" t="s">
+    <row r="111" spans="1:3">
+      <c r="A111" s="22"/>
+      <c r="C111" s="21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="16" t="s">
+    <row r="112" spans="1:3">
+      <c r="A112" s="22"/>
+      <c r="C112" s="21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="16" t="s">
+    <row r="113" spans="1:3">
+      <c r="A113" s="22"/>
+      <c r="C113" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="16" t="s">
+    <row r="114" spans="1:3">
+      <c r="A114" s="22"/>
+      <c r="C114" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="16" t="s">
+    <row r="115" spans="1:3">
+      <c r="A115" s="22"/>
+      <c r="C115" s="21" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="16" t="s">
+    <row r="116" spans="1:3">
+      <c r="A116" s="22"/>
+      <c r="C116" s="21" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="16" t="s">
+    <row r="117" spans="1:3">
+      <c r="A117" s="22" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="16" t="s">
+      <c r="C117" s="21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="16" t="s">
+    <row r="118" spans="1:3">
+      <c r="A118" s="22"/>
+      <c r="C118" s="21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="16" t="s">
+    <row r="119" spans="1:3">
+      <c r="A119" s="22"/>
+      <c r="C119" s="21" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="16" t="s">
+    <row r="120" spans="1:3">
+      <c r="A120" s="22"/>
+      <c r="C120" s="21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="16" t="s">
+    <row r="121" spans="1:3">
+      <c r="A121" s="22"/>
+      <c r="C121" s="21" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="16" t="s">
+    <row r="122" spans="1:3">
+      <c r="A122" s="22"/>
+      <c r="C122" s="21" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="16" t="s">
+    <row r="123" spans="1:3">
+      <c r="A123" s="22"/>
+      <c r="C123" s="21" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="16" t="s">
+    <row r="124" spans="1:3">
+      <c r="A124" s="22"/>
+      <c r="C124" s="21" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="16" t="s">
+    <row r="125" spans="1:3">
+      <c r="A125" s="22"/>
+      <c r="C125" s="21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="16" t="s">
+    <row r="126" spans="1:3">
+      <c r="A126" s="22" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="16" t="s">
+      <c r="C126" s="21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="16" t="s">
+    <row r="127" spans="1:3">
+      <c r="A127" s="22"/>
+      <c r="C127" s="21" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="16" t="s">
+    <row r="128" spans="1:3">
+      <c r="A128" s="22"/>
+      <c r="C128" s="21" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="16" t="s">
+    <row r="129" spans="1:3">
+      <c r="A129" s="22"/>
+      <c r="C129" s="21" t="s">
         <v>154</v>
       </c>
     </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="22"/>
+      <c r="C130" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="22"/>
+      <c r="C131" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="22"/>
+      <c r="C132" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="22"/>
+      <c r="C133" s="21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="22"/>
+      <c r="C134" s="21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B135" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="22"/>
+      <c r="B136" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="22"/>
+      <c r="C137" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="22"/>
+      <c r="C138" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="22"/>
+      <c r="C139" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="22"/>
+      <c r="B140" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C140" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="22"/>
+      <c r="C141" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="22"/>
+      <c r="C142" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="22"/>
+      <c r="C143" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="22"/>
+      <c r="B144" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C144" s="21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B145" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C145" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="22"/>
+      <c r="B146" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C146" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="22"/>
+      <c r="C147" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="22"/>
+      <c r="C148" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="22"/>
+      <c r="C149" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A3:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A64"/>
+    <mergeCell ref="A65:A80"/>
+    <mergeCell ref="A81:A89"/>
+    <mergeCell ref="A90:A98"/>
+    <mergeCell ref="A99:A107"/>
+    <mergeCell ref="A108:A116"/>
+    <mergeCell ref="A117:A125"/>
+    <mergeCell ref="A126:A134"/>
+    <mergeCell ref="A135:A144"/>
+    <mergeCell ref="A145:A149"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2877,498 +3171,498 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.4285714285714" style="14" customWidth="1"/>
+    <col min="1" max="1" width="48.4285714285714" style="13" customWidth="1"/>
     <col min="2" max="2" width="26.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
+      <c r="A1" s="14" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="16" t="s">
-        <v>3</v>
+      <c r="A2" s="15" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="16" t="s">
-        <v>8</v>
+      <c r="A3" s="15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="16" t="s">
-        <v>10</v>
+      <c r="A5" s="15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="16" t="s">
-        <v>12</v>
+      <c r="A6" s="15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="16" t="s">
-        <v>13</v>
+      <c r="A7" s="15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="16" t="s">
-        <v>14</v>
+      <c r="A9" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="16" t="s">
-        <v>16</v>
+      <c r="A10" s="15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="16" t="s">
-        <v>17</v>
+      <c r="A11" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="16" t="s">
-        <v>18</v>
+      <c r="A12" s="15" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="16" t="s">
-        <v>19</v>
+      <c r="A13" s="15" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="15" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="16" t="s">
-        <v>118</v>
+      <c r="A107" s="15" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="16" t="s">
-        <v>119</v>
+      <c r="A108" s="15" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="16" t="s">
-        <v>120</v>
+      <c r="A109" s="15" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="16" t="s">
-        <v>121</v>
+      <c r="A110" s="15" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3380,168 +3674,175 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.4285714285714" style="14" customWidth="1"/>
-    <col min="2" max="2" width="26.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="48.4285714285714" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
+      <c r="A1" s="14" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="16" t="s">
-        <v>3</v>
+      <c r="A2" s="15" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="16"/>
+      <c r="A3" s="15"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="16" t="s">
-        <v>5</v>
+      <c r="A4" s="15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="16" t="s">
-        <v>5</v>
+      <c r="A5" s="15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="16" t="s">
-        <v>13</v>
+      <c r="A7" s="15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="16" t="s">
-        <v>30</v>
+      <c r="A9" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="16" t="s">
-        <v>32</v>
+      <c r="A10" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="16" t="s">
-        <v>33</v>
+      <c r="A11" s="15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="16" t="s">
-        <v>34</v>
+      <c r="A12" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="16" t="s">
-        <v>35</v>
+      <c r="A13" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="16" t="s">
-        <v>38</v>
+      <c r="A14" s="15" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="16" t="s">
-        <v>39</v>
+      <c r="A15" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="16" t="s">
-        <v>40</v>
+      <c r="A16" s="15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="16" t="s">
-        <v>44</v>
+      <c r="A18" s="15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="16"/>
+      <c r="A19" s="15" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="16" t="s">
-        <v>51</v>
-      </c>
+      <c r="A20" s="15"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="16"/>
+      <c r="A21" s="15" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="16"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="16" t="s">
-        <v>114</v>
+      <c r="A24" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="16" t="s">
-        <v>115</v>
-      </c>
+      <c r="A26" s="15"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="16" t="s">
-        <v>116</v>
+      <c r="A27" s="15" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="16" t="s">
-        <v>117</v>
+      <c r="A28" s="15" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="16" t="s">
-        <v>118</v>
+      <c r="A29" s="15" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="16" t="s">
-        <v>119</v>
+      <c r="A30" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="16" t="s">
-        <v>120</v>
+      <c r="A31" s="15" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="16" t="s">
-        <v>121</v>
+      <c r="A32" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="15" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="14" t="s">
-        <v>142</v>
+      <c r="A34" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="13" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3561,148 +3862,148 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.4285714285714" style="14" customWidth="1"/>
+    <col min="1" max="1" width="48.4285714285714" style="13" customWidth="1"/>
     <col min="2" max="2" width="26.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
+      <c r="A1" s="14" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="16" t="s">
-        <v>3</v>
+      <c r="A2" s="15" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="16" t="s">
-        <v>8</v>
+      <c r="A3" s="15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="16" t="s">
-        <v>10</v>
+      <c r="A5" s="15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="16" t="s">
-        <v>12</v>
+      <c r="A6" s="15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="16" t="s">
-        <v>13</v>
+      <c r="A7" s="15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="16" t="s">
-        <v>14</v>
+      <c r="A9" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="16" t="s">
-        <v>16</v>
+      <c r="A10" s="15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="16" t="s">
-        <v>17</v>
+      <c r="A11" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="16" t="s">
-        <v>18</v>
+      <c r="A12" s="15" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="16" t="s">
-        <v>19</v>
+      <c r="A13" s="15" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="16" t="s">
-        <v>155</v>
+      <c r="A15" s="15" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="16" t="s">
-        <v>23</v>
+      <c r="A16" s="15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="16" t="s">
-        <v>25</v>
+      <c r="A17" s="15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="16" t="s">
-        <v>27</v>
+      <c r="A18" s="15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="16" t="s">
-        <v>28</v>
+      <c r="A19" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="16" t="s">
-        <v>29</v>
+      <c r="A20" s="15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="16" t="s">
-        <v>30</v>
+      <c r="A22" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="16" t="s">
-        <v>32</v>
+      <c r="A23" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="16" t="s">
-        <v>41</v>
+      <c r="A33" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3739,210 +4040,210 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
       <c r="A1" s="10" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>162</v>
+        <v>186</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:12">
       <c r="A3" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>172</v>
+        <v>196</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>197</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="30" spans="1:12">
       <c r="A4" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>178</v>
+        <v>202</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:12">
       <c r="A5" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>183</v>
+        <v>207</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:12">
       <c r="A6" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>163</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3973,633 +4274,633 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="65" customHeight="1" spans="1:44">
       <c r="A1" s="10" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD1" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="R1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="S1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI1" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
-        <v>126</v>
-      </c>
       <c r="AK1" s="10" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="AL1" s="10" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="AM1" s="10" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="AN1" s="10" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="AO1" s="10" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="AP1" s="10" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="AQ1" s="10" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AR1" s="10" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="45" spans="1:44">
       <c r="A2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>162</v>
+        <v>186</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>197</v>
+        <v>221</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>199</v>
+        <v>223</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AE2" s="7" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="AL2" s="8" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="AM2" s="8" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="AN2" s="8" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="AO2" s="8" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="AP2" s="8" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="AQ2" s="8" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="AR2" s="8" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="45" spans="1:44">
       <c r="A3" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>172</v>
+        <v>196</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>197</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="H3" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="M3" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="O3" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>203</v>
-      </c>
       <c r="P3" s="8" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="Z3" s="8" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AD3" s="8" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="AF3" s="8" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="AH3" s="8" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="AI3" s="8" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="AL3" s="8" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="AM3" s="8" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="AN3" s="8" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="AO3" s="8" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="AP3" s="8" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="AQ3" s="8" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="AR3" s="8" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="45" spans="1:25">
       <c r="A4" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>178</v>
+        <v>202</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="S4" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="T4" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="U4" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="V4" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="W4" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>211</v>
-      </c>
       <c r="X4" s="8" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="45" spans="1:25">
       <c r="A5" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>183</v>
+        <v>207</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="X5" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="Y5" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="V5" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="X5" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y5" s="8" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="45" spans="1:25">
       <c r="A6" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>163</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>244</v>
+        <v>268</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>269</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>246</v>
+        <v>270</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>271</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -4609,146 +4910,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="3"/>
-  <cols>
-    <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.2857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1428571428571" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.4285714285714" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1428571428571" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7142857142857" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.4285714285714" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.1428571428571" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7142857142857" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.2857142857143" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
-      <c r="A1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="30" spans="1:10">
-      <c r="A2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="27" spans="1:10">
-      <c r="A3" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="27" spans="1:10">
-      <c r="A4" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:BC4"/>
@@ -4767,210 +4928,210 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="89" customHeight="1" spans="1:55">
       <c r="A1" s="2" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="10" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="AO1" s="3" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="AP1" s="3" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="AT1" s="3" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="AW1" s="3" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="AX1" s="3" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="AY1" s="3" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="AZ1" s="3" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="BA1" s="3" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="BB1" s="3" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="BC1" s="3" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="45" spans="1:55">
       <c r="A2" s="4" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -4981,31 +5142,31 @@
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
       <c r="AE2" s="8"/>
       <c r="AF2" s="8" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="AG2" s="8"/>
       <c r="AH2" s="8"/>
@@ -5015,81 +5176,81 @@
       <c r="AL2" s="8"/>
       <c r="AM2" s="8"/>
       <c r="AN2" s="8" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="AO2" s="8" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="AP2" s="8" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="AQ2" s="8" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="AR2" s="8" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="AS2" s="8" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="AT2" s="8" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="AU2" s="8" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="AV2" s="8" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="AW2" s="8" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="AX2" s="8"/>
       <c r="AY2" s="8"/>
       <c r="AZ2" s="8" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="BA2" s="8" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="BB2" s="8" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="BC2" s="8" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="30" spans="1:55">
       <c r="A3" s="4" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>163</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
@@ -5100,16 +5261,16 @@
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="8" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
@@ -5124,10 +5285,10 @@
       <c r="AL3" s="8"/>
       <c r="AM3" s="8"/>
       <c r="AN3" s="8" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="AO3" s="8" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="AP3" s="8"/>
       <c r="AQ3" s="8"/>
@@ -5138,153 +5299,153 @@
       <c r="AV3" s="8"/>
       <c r="AW3" s="8"/>
       <c r="AX3" s="8" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="AY3" s="8"/>
       <c r="AZ3" s="8" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="BA3" s="8" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="BB3" s="8" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="BC3" s="8" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="30" spans="1:55">
       <c r="A4" s="4" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="X4" s="8" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="AD4" s="8" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="AE4" s="8" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="AF4" s="8" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="AG4" s="8" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="AH4" s="8" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="AI4" s="8" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="AJ4" s="8" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="AK4" s="8" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="AL4" s="8" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="AM4" s="8" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="AN4" s="8"/>
       <c r="AO4" s="8" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="AP4" s="8"/>
       <c r="AQ4" s="8"/>
       <c r="AR4" s="8"/>
       <c r="AS4" s="8"/>
       <c r="AT4" s="8" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="AU4" s="8" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="AV4" s="8" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="AW4" s="8" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="AX4" s="8"/>
       <c r="AY4" s="8" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="AZ4" s="8"/>
       <c r="BA4" s="8"/>
@@ -5297,12 +5458,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:BE4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -5316,219 +5477,219 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="89" customHeight="1" spans="1:57">
       <c r="A1" s="2" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AO1" s="3" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AP1" s="3" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="AT1" s="3" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="AW1" s="3" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="AX1" s="3" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="AY1" s="3" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="AZ1" s="3" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="BA1" s="3" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="BB1" s="3" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="BC1" s="3" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="BD1" s="3" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="BE1" s="3" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="45" spans="1:57">
       <c r="A2" s="4" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -5539,110 +5700,110 @@
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
       <c r="W2" s="8" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="AM2" s="8" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="AN2" s="8" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="AO2" s="8" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="AP2" s="8"/>
       <c r="AQ2" s="8" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="AR2" s="8" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="AS2" s="8" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="AT2" s="8" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="AU2" s="8" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="AV2" s="8" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="AW2" s="8" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="AX2" s="8" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="AY2" s="8" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="AZ2" s="8"/>
       <c r="BA2" s="8"/>
       <c r="BB2" s="8" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="BC2" s="8" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="BD2" s="8" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="BE2" s="8" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="45" spans="1:57">
       <c r="A3" s="4" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>163</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -5650,16 +5811,16 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -5670,22 +5831,22 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="Z3" s="8" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
@@ -5696,17 +5857,17 @@
       <c r="AI3" s="8"/>
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="AL3" s="8"/>
       <c r="AM3" s="8"/>
       <c r="AN3" s="8"/>
       <c r="AO3" s="8"/>
       <c r="AP3" s="8" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="AQ3" s="8" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="AR3" s="8"/>
       <c r="AS3" s="8"/>
@@ -5717,150 +5878,325 @@
       <c r="AX3" s="8"/>
       <c r="AY3" s="8"/>
       <c r="AZ3" s="8" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="BA3" s="8"/>
       <c r="BB3" s="8" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="BC3" s="8" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="BD3" s="8" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="BE3" s="8" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="30" spans="1:57">
       <c r="A4" s="4" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="X4" s="8" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="AD4" s="8" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="AE4" s="8" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="AF4" s="8" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="AG4" s="8" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="AH4" s="8" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="AI4" s="8" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="AJ4" s="8" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="AK4" s="8" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="AL4" s="8"/>
       <c r="AM4" s="8"/>
       <c r="AN4" s="8"/>
       <c r="AO4" s="8"/>
       <c r="AP4" s="8" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="AQ4" s="8" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="AR4" s="8"/>
       <c r="AS4" s="8"/>
       <c r="AT4" s="8"/>
       <c r="AU4" s="8"/>
       <c r="AV4" s="8" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="AW4" s="8" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="AX4" s="8" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="AY4" s="8" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="AZ4" s="8"/>
       <c r="BA4" s="8" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="BB4" s="8"/>
       <c r="BC4" s="8"/>
       <c r="BD4" s="8"/>
       <c r="BE4" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.4285714285714" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1428571428571" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7142857142857" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7142857142857" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1428571428571" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.1428571428571" style="1" customWidth="1"/>
+    <col min="13" max="14" width="19.7142857142857" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.2857142857143" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" spans="1:14">
+      <c r="A2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" spans="1:14">
+      <c r="A3" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="27" spans="1:14">
+      <c r="A4" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/input_excel_file/flow_definition.xlsx
+++ b/src/main/resources/input_excel_file/flow_definition.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="341">
   <si>
     <t>Màn hình</t>
   </si>
@@ -196,6 +196,30 @@
     <t>voucher_apply_player4_case_id</t>
   </si>
   <si>
+    <t>Remove voucher</t>
+  </si>
+  <si>
+    <t>voucher_remove_player1_case_id</t>
+  </si>
+  <si>
+    <t>voucher_remove_player2_case_id</t>
+  </si>
+  <si>
+    <t>voucher_remove_player3_case_id</t>
+  </si>
+  <si>
+    <t>voucher_remove_player4_case_id</t>
+  </si>
+  <si>
+    <t>Add voucher: Popup agency pay</t>
+  </si>
+  <si>
+    <t>voucher_apply_bulk_add_case_id</t>
+  </si>
+  <si>
+    <t>voucher_apply_bulk_remove_case_id</t>
+  </si>
+  <si>
     <t>Thông tin booking</t>
   </si>
   <si>
@@ -1024,7 +1048,16 @@
     <t>APPLY_3VC_CA_NHAN_PLAYER1</t>
   </si>
   <si>
-    <t>VST_FEE_OF_BAG_APPLY_VOUCHER_002</t>
+    <t>VST_FEE_OF_BAG_APPLY_VOUCHER_001</t>
+  </si>
+  <si>
+    <t>REMOVE_1VC_CA_NHAN_PLAYER1</t>
+  </si>
+  <si>
+    <t>APPLY_BULK_002</t>
+  </si>
+  <si>
+    <t>APPLY_BULK_REMOVE_001</t>
   </si>
 </sst>
 </file>
@@ -1732,7 +1765,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1758,6 +1791,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1773,9 +1809,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1783,12 +1825,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2113,1047 +2149,1097 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="22.7142857142857" style="17" customWidth="1"/>
-    <col min="2" max="2" width="53.1428571428571" style="17" customWidth="1"/>
-    <col min="3" max="3" width="48.4285714285714" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="9.14285714285714" style="17"/>
+    <col min="1" max="1" width="22.7142857142857" style="20" customWidth="1"/>
+    <col min="2" max="2" width="53.1428571428571" style="20" customWidth="1"/>
+    <col min="3" max="3" width="48.4285714285714" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="9.14285714285714" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="22"/>
-      <c r="C9" s="21" t="s">
+      <c r="A9" s="23"/>
+      <c r="C9" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="22"/>
-      <c r="C10" s="21" t="s">
+      <c r="A10" s="23"/>
+      <c r="C10" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="22"/>
-      <c r="C11" s="21" t="s">
+      <c r="A11" s="23"/>
+      <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="22"/>
-      <c r="C16" s="21" t="s">
+      <c r="A16" s="23"/>
+      <c r="C16" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="22"/>
-      <c r="C17" s="21" t="s">
+      <c r="A17" s="23"/>
+      <c r="C17" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="21"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="22"/>
-      <c r="C18" s="21" t="s">
+      <c r="A18" s="23"/>
+      <c r="C18" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="22"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="22"/>
-      <c r="C21" s="21" t="s">
+      <c r="A21" s="23"/>
+      <c r="C21" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="22"/>
-      <c r="C22" s="21" t="s">
+      <c r="A22" s="23"/>
+      <c r="C22" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="22"/>
-      <c r="C23" s="21" t="s">
+      <c r="A23" s="23"/>
+      <c r="C23" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="22"/>
-      <c r="C25" s="21" t="s">
+      <c r="A25" s="23"/>
+      <c r="C25" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="22"/>
-      <c r="C26" s="21" t="s">
+      <c r="A26" s="23"/>
+      <c r="C26" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="22"/>
-      <c r="C27" s="21" t="s">
+      <c r="A27" s="23"/>
+      <c r="C27" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="17" t="s">
+      <c r="A29" s="23"/>
+      <c r="B29" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="22"/>
-      <c r="B30" s="17" t="s">
+      <c r="A30" s="23"/>
+      <c r="B30" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="18" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="22"/>
-      <c r="C31" s="16" t="s">
+      <c r="A31" s="23"/>
+      <c r="C31" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="22"/>
-      <c r="C32" s="16" t="s">
+      <c r="A32" s="23"/>
+      <c r="C32" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="22"/>
-      <c r="C33" s="16" t="s">
+      <c r="A33" s="23"/>
+      <c r="C33" s="18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="22"/>
-      <c r="B34" s="17" t="s">
+      <c r="A34" s="23"/>
+      <c r="B34" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="19" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="22"/>
-      <c r="C35" s="21" t="s">
+      <c r="A35" s="23"/>
+      <c r="C35" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="22"/>
-      <c r="C36" s="21" t="s">
+      <c r="A36" s="23"/>
+      <c r="C36" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="22"/>
-      <c r="C37" s="21" t="s">
+      <c r="A37" s="23"/>
+      <c r="C37" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="22"/>
-      <c r="B38" s="17" t="s">
+      <c r="A38" s="23"/>
+      <c r="B38" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="22"/>
-      <c r="B39" s="17" t="s">
+      <c r="A39" s="23"/>
+      <c r="C39" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="21" t="s">
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="23"/>
+      <c r="C40" s="17"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="23"/>
+      <c r="C41" s="17"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="23"/>
+      <c r="B42" s="20" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="22"/>
-      <c r="B40" s="17" t="s">
+      <c r="C42" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="21" t="s">
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="23"/>
+      <c r="C43" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="22"/>
-      <c r="C41" s="21" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" s="23"/>
+      <c r="C44" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="22"/>
-      <c r="C42" s="21" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" s="23"/>
+      <c r="C45" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="22"/>
-      <c r="C43" s="21" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="23"/>
+      <c r="B46" s="20" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="22"/>
-      <c r="B44" s="17" t="s">
+      <c r="C46" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="21" t="s">
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="23"/>
+      <c r="B47" s="20" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="22"/>
-      <c r="C45" s="21" t="s">
+      <c r="C47" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="22"/>
-      <c r="C46" s="21" t="s">
+    <row r="48" spans="1:3">
+      <c r="A48" s="23"/>
+      <c r="B48" s="20" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="22"/>
-      <c r="C47" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="22"/>
-      <c r="B48" s="17" t="s">
+      <c r="C48" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="21" t="s">
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="23"/>
+      <c r="C49" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="22"/>
-      <c r="C49" s="21" t="s">
+    <row r="50" spans="1:3">
+      <c r="A50" s="23"/>
+      <c r="C50" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="22"/>
-      <c r="C50" s="21" t="s">
+    <row r="51" spans="1:3">
+      <c r="A51" s="23"/>
+      <c r="C51" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="22"/>
-      <c r="C51" s="21" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" s="23"/>
+      <c r="B52" s="20" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="22"/>
-      <c r="B52" s="17" t="s">
+      <c r="C52" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="21" t="s">
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="23"/>
+      <c r="C53" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="22"/>
-      <c r="C53" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="22"/>
-      <c r="C54" s="21" t="s">
-        <v>77</v>
+      <c r="A54" s="23"/>
+      <c r="C54" s="17" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="22"/>
-      <c r="C55" s="21" t="s">
-        <v>77</v>
+      <c r="A55" s="23"/>
+      <c r="C55" s="17" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="22"/>
-      <c r="B56" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="21" t="s">
+      <c r="A56" s="23"/>
+      <c r="B56" s="20" t="s">
         <v>79</v>
       </c>
+      <c r="C56" s="17" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="22"/>
-      <c r="C57" s="21" t="s">
-        <v>79</v>
+      <c r="A57" s="23"/>
+      <c r="C57" s="17" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="22"/>
-      <c r="C58" s="21" t="s">
-        <v>79</v>
+      <c r="A58" s="23"/>
+      <c r="C58" s="17" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="22"/>
-      <c r="C59" s="21" t="s">
-        <v>79</v>
+      <c r="A59" s="23"/>
+      <c r="C59" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="22"/>
-      <c r="B60" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>81</v>
+      <c r="A60" s="23"/>
+      <c r="B60" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="22"/>
-      <c r="C61" s="21" t="s">
-        <v>81</v>
+      <c r="A61" s="23"/>
+      <c r="C61" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="22"/>
-      <c r="C62" s="21" t="s">
-        <v>81</v>
+      <c r="A62" s="23"/>
+      <c r="C62" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="22"/>
-      <c r="C63" s="21" t="s">
-        <v>81</v>
+      <c r="A63" s="23"/>
+      <c r="C63" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="22"/>
-      <c r="C64" s="21" t="s">
-        <v>82</v>
+      <c r="A64" s="23"/>
+      <c r="B64" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>84</v>
+      <c r="A65" s="23"/>
+      <c r="C65" s="17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="22"/>
-      <c r="C66" s="21" t="s">
-        <v>85</v>
+      <c r="A66" s="23"/>
+      <c r="C66" s="17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="22"/>
-      <c r="C67" s="21" t="s">
-        <v>86</v>
+      <c r="A67" s="23"/>
+      <c r="C67" s="17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="22"/>
-      <c r="C68" s="21" t="s">
-        <v>87</v>
+      <c r="A68" s="23"/>
+      <c r="B68" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="22"/>
-      <c r="C69" s="21" t="s">
-        <v>88</v>
+      <c r="A69" s="23"/>
+      <c r="C69" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="22"/>
-      <c r="C70" s="21" t="s">
+      <c r="A70" s="23"/>
+      <c r="C70" s="17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="22"/>
-      <c r="C71" s="21" t="s">
+      <c r="A71" s="23"/>
+      <c r="C71" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="23"/>
+      <c r="C72" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="22"/>
-      <c r="C72" s="21" t="s">
+    <row r="73" spans="1:3">
+      <c r="A73" s="23" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="22"/>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="17" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="22"/>
-      <c r="C74" s="21" t="s">
+      <c r="A74" s="23"/>
+      <c r="C74" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="22"/>
-      <c r="C75" s="21" t="s">
+      <c r="A75" s="23"/>
+      <c r="C75" s="17" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="22"/>
-      <c r="C76" s="21" t="s">
+      <c r="A76" s="23"/>
+      <c r="C76" s="17" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="22"/>
-      <c r="C77" s="21" t="s">
+      <c r="A77" s="23"/>
+      <c r="C77" s="17" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="22"/>
-      <c r="C78" s="21" t="s">
+      <c r="A78" s="23"/>
+      <c r="C78" s="17" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="22"/>
-      <c r="C79" s="21" t="s">
+      <c r="A79" s="23"/>
+      <c r="C79" s="17" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="22"/>
-      <c r="C80" s="21" t="s">
+      <c r="A80" s="23"/>
+      <c r="C80" s="17" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="23"/>
+      <c r="C81" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C81" s="21" t="s">
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="23"/>
+      <c r="C82" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="22"/>
-      <c r="C82" s="21" t="s">
+    <row r="83" spans="1:3">
+      <c r="A83" s="23"/>
+      <c r="C83" s="17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="22"/>
-      <c r="C83" s="21" t="s">
+    <row r="84" spans="1:3">
+      <c r="A84" s="23"/>
+      <c r="C84" s="17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="22"/>
-      <c r="C84" s="21" t="s">
+    <row r="85" spans="1:3">
+      <c r="A85" s="23"/>
+      <c r="C85" s="17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="22"/>
-      <c r="C85" s="21" t="s">
+    <row r="86" spans="1:3">
+      <c r="A86" s="23"/>
+      <c r="C86" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="22"/>
-      <c r="C86" s="21" t="s">
+    <row r="87" spans="1:3">
+      <c r="A87" s="23"/>
+      <c r="C87" s="17" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="22"/>
-      <c r="C87" s="21" t="s">
+    <row r="88" spans="1:3">
+      <c r="A88" s="23"/>
+      <c r="C88" s="17" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="22"/>
-      <c r="C88" s="21" t="s">
+    <row r="89" spans="1:3">
+      <c r="A89" s="23" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="22"/>
-      <c r="C89" s="21" t="s">
+      <c r="C89" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="22" t="s">
+      <c r="A90" s="23"/>
+      <c r="C90" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C90" s="21" t="s">
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="23"/>
+      <c r="C91" s="17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="22"/>
-      <c r="C91" s="21" t="s">
+    <row r="92" spans="1:3">
+      <c r="A92" s="23"/>
+      <c r="C92" s="17" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="22"/>
-      <c r="C92" s="21" t="s">
+    <row r="93" spans="1:3">
+      <c r="A93" s="23"/>
+      <c r="C93" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="22"/>
-      <c r="C93" s="21" t="s">
+    <row r="94" spans="1:3">
+      <c r="A94" s="23"/>
+      <c r="C94" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="22"/>
-      <c r="C94" s="21" t="s">
+    <row r="95" spans="1:3">
+      <c r="A95" s="23"/>
+      <c r="C95" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="22"/>
-      <c r="C95" s="21" t="s">
+    <row r="96" spans="1:3">
+      <c r="A96" s="23"/>
+      <c r="C96" s="17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="22"/>
-      <c r="C96" s="21" t="s">
+    <row r="97" spans="1:3">
+      <c r="A97" s="23"/>
+      <c r="C97" s="17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="22"/>
-      <c r="C97" s="21" t="s">
+    <row r="98" spans="1:3">
+      <c r="A98" s="23" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="22"/>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="17" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="22" t="s">
+      <c r="A99" s="23"/>
+      <c r="C99" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C99" s="21" t="s">
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="23"/>
+      <c r="C100" s="17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="22"/>
-      <c r="C100" s="21" t="s">
+    <row r="101" spans="1:3">
+      <c r="A101" s="23"/>
+      <c r="C101" s="17" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="22"/>
-      <c r="C101" s="21" t="s">
+    <row r="102" spans="1:3">
+      <c r="A102" s="23"/>
+      <c r="C102" s="17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="22"/>
-      <c r="C102" s="21" t="s">
+    <row r="103" spans="1:3">
+      <c r="A103" s="23"/>
+      <c r="C103" s="17" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="22"/>
-      <c r="C103" s="21" t="s">
+    <row r="104" spans="1:3">
+      <c r="A104" s="23"/>
+      <c r="C104" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="22"/>
-      <c r="C104" s="21" t="s">
+    <row r="105" spans="1:3">
+      <c r="A105" s="23"/>
+      <c r="C105" s="17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="22"/>
-      <c r="C105" s="21" t="s">
+    <row r="106" spans="1:3">
+      <c r="A106" s="23"/>
+      <c r="C106" s="17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="22"/>
-      <c r="C106" s="21" t="s">
+    <row r="107" spans="1:3">
+      <c r="A107" s="23" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="22"/>
-      <c r="C107" s="21" t="s">
+      <c r="C107" s="17" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="22" t="s">
+      <c r="A108" s="23"/>
+      <c r="C108" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C108" s="21" t="s">
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="23"/>
+      <c r="C109" s="17" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="22"/>
-      <c r="C109" s="21" t="s">
+    <row r="110" spans="1:3">
+      <c r="A110" s="23"/>
+      <c r="C110" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="22"/>
-      <c r="C110" s="21" t="s">
+    <row r="111" spans="1:3">
+      <c r="A111" s="23"/>
+      <c r="C111" s="17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="22"/>
-      <c r="C111" s="21" t="s">
+    <row r="112" spans="1:3">
+      <c r="A112" s="23"/>
+      <c r="C112" s="17" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="22"/>
-      <c r="C112" s="21" t="s">
+    <row r="113" spans="1:3">
+      <c r="A113" s="23"/>
+      <c r="C113" s="17" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="22"/>
-      <c r="C113" s="21" t="s">
+    <row r="114" spans="1:3">
+      <c r="A114" s="23"/>
+      <c r="C114" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="22"/>
-      <c r="C114" s="21" t="s">
+    <row r="115" spans="1:3">
+      <c r="A115" s="23"/>
+      <c r="C115" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="22"/>
-      <c r="C115" s="21" t="s">
+    <row r="116" spans="1:3">
+      <c r="A116" s="23" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="22"/>
-      <c r="C116" s="21" t="s">
+      <c r="C116" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="22" t="s">
+      <c r="A117" s="23"/>
+      <c r="C117" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C117" s="21" t="s">
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="23"/>
+      <c r="C118" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="22"/>
-      <c r="C118" s="21" t="s">
+    <row r="119" spans="1:3">
+      <c r="A119" s="23"/>
+      <c r="C119" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="22"/>
-      <c r="C119" s="21" t="s">
+    <row r="120" spans="1:3">
+      <c r="A120" s="23"/>
+      <c r="C120" s="17" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="22"/>
-      <c r="C120" s="21" t="s">
+    <row r="121" spans="1:3">
+      <c r="A121" s="23"/>
+      <c r="C121" s="17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="22"/>
-      <c r="C121" s="21" t="s">
+    <row r="122" spans="1:3">
+      <c r="A122" s="23"/>
+      <c r="C122" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="22"/>
-      <c r="C122" s="21" t="s">
+    <row r="123" spans="1:3">
+      <c r="A123" s="23"/>
+      <c r="C123" s="17" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="22"/>
-      <c r="C123" s="21" t="s">
+    <row r="124" spans="1:3">
+      <c r="A124" s="23"/>
+      <c r="C124" s="17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="22"/>
-      <c r="C124" s="21" t="s">
+    <row r="125" spans="1:3">
+      <c r="A125" s="23" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="22"/>
-      <c r="C125" s="21" t="s">
+      <c r="C125" s="17" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="22" t="s">
+      <c r="A126" s="23"/>
+      <c r="C126" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C126" s="21" t="s">
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="23"/>
+      <c r="C127" s="17" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="22"/>
-      <c r="C127" s="21" t="s">
+    <row r="128" spans="1:3">
+      <c r="A128" s="23"/>
+      <c r="C128" s="17" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="22"/>
-      <c r="C128" s="21" t="s">
+    <row r="129" spans="1:3">
+      <c r="A129" s="23"/>
+      <c r="C129" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="22"/>
-      <c r="C129" s="21" t="s">
+    <row r="130" spans="1:3">
+      <c r="A130" s="23"/>
+      <c r="C130" s="17" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="22"/>
-      <c r="C130" s="21" t="s">
+    <row r="131" spans="1:3">
+      <c r="A131" s="23"/>
+      <c r="C131" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="22"/>
-      <c r="C131" s="21" t="s">
+    <row r="132" spans="1:3">
+      <c r="A132" s="23"/>
+      <c r="C132" s="17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="22"/>
-      <c r="C132" s="21" t="s">
+    <row r="133" spans="1:3">
+      <c r="A133" s="23"/>
+      <c r="C133" s="17" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="22"/>
-      <c r="C133" s="21" t="s">
+    <row r="134" spans="1:3">
+      <c r="A134" s="23" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="22"/>
-      <c r="C134" s="21" t="s">
+      <c r="C134" s="17" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="22" t="s">
+      <c r="A135" s="23"/>
+      <c r="C135" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="B135" s="17" t="s">
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="23"/>
+      <c r="C136" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="C135" s="21" t="s">
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="23"/>
+      <c r="C137" s="17" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="22"/>
-      <c r="B136" s="17" t="s">
+    <row r="138" spans="1:3">
+      <c r="A138" s="23"/>
+      <c r="C138" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C136" s="21" t="s">
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="23"/>
+      <c r="C139" s="17" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="22"/>
-      <c r="C137" s="21" t="s">
+    <row r="140" spans="1:3">
+      <c r="A140" s="23"/>
+      <c r="C140" s="17" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="22"/>
-      <c r="C138" s="21" t="s">
+    <row r="141" spans="1:3">
+      <c r="A141" s="23"/>
+      <c r="C141" s="17" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="22"/>
-      <c r="C139" s="21" t="s">
+    <row r="142" spans="1:3">
+      <c r="A142" s="23"/>
+      <c r="C142" s="17" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="22"/>
-      <c r="B140" s="17" t="s">
+    <row r="143" spans="1:3">
+      <c r="A143" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="C140" s="21" t="s">
+      <c r="B143" s="20" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="22"/>
-      <c r="C141" s="21" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="22"/>
-      <c r="C142" s="21" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="22"/>
-      <c r="C143" s="21" t="s">
-        <v>169</v>
+      <c r="C143" s="17" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="22"/>
-      <c r="B144" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="C144" s="21" t="s">
+      <c r="A144" s="23"/>
+      <c r="B144" s="20" t="s">
         <v>171</v>
       </c>
+      <c r="C144" s="17" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="B145" s="17" t="s">
+      <c r="A145" s="23"/>
+      <c r="C145" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C145" s="21" t="s">
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="23"/>
+      <c r="C146" s="17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="22"/>
-      <c r="B146" s="17" t="s">
+    <row r="147" spans="1:3">
+      <c r="A147" s="23"/>
+      <c r="C147" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="C146" s="21" t="s">
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="23"/>
+      <c r="B148" s="20" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="22"/>
-      <c r="C147" s="21" t="s">
+      <c r="C148" s="17" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="22"/>
-      <c r="C148" s="21" t="s">
+    <row r="149" spans="1:3">
+      <c r="A149" s="23"/>
+      <c r="C149" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="23"/>
+      <c r="C150" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="23"/>
+      <c r="C151" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="23"/>
+      <c r="B152" s="20" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="22"/>
-      <c r="C149" s="21" t="s">
+      <c r="C152" s="17" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B153" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C153" s="17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="23"/>
+      <c r="B154" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="23"/>
+      <c r="C155" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="23"/>
+      <c r="C156" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="23"/>
+      <c r="C157" s="17" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A3:A23"/>
     <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A64"/>
-    <mergeCell ref="A65:A80"/>
-    <mergeCell ref="A81:A89"/>
-    <mergeCell ref="A90:A98"/>
-    <mergeCell ref="A99:A107"/>
-    <mergeCell ref="A108:A116"/>
-    <mergeCell ref="A117:A125"/>
-    <mergeCell ref="A126:A134"/>
-    <mergeCell ref="A135:A144"/>
-    <mergeCell ref="A145:A149"/>
+    <mergeCell ref="A28:A72"/>
+    <mergeCell ref="A73:A88"/>
+    <mergeCell ref="A89:A97"/>
+    <mergeCell ref="A98:A106"/>
+    <mergeCell ref="A107:A115"/>
+    <mergeCell ref="A116:A124"/>
+    <mergeCell ref="A125:A133"/>
+    <mergeCell ref="A134:A142"/>
+    <mergeCell ref="A143:A152"/>
+    <mergeCell ref="A153:A157"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3171,498 +3257,498 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.4285714285714" style="13" customWidth="1"/>
+    <col min="1" max="1" width="48.4285714285714" style="14" customWidth="1"/>
     <col min="2" max="2" width="26.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="15" t="s">
-        <v>180</v>
+      <c r="A15" s="16" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="15" t="s">
-        <v>84</v>
+      <c r="A35" s="16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="15" t="s">
-        <v>85</v>
+      <c r="A36" s="16" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="15" t="s">
-        <v>86</v>
+      <c r="A37" s="16" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="15" t="s">
-        <v>87</v>
+      <c r="A38" s="16" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="15" t="s">
-        <v>88</v>
+      <c r="A39" s="16" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="15" t="s">
-        <v>89</v>
+      <c r="A40" s="16" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="15" t="s">
-        <v>90</v>
+      <c r="A41" s="16" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="15" t="s">
-        <v>91</v>
+      <c r="A42" s="16" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="15" t="s">
-        <v>92</v>
+      <c r="A43" s="16" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="15" t="s">
-        <v>93</v>
+      <c r="A44" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="15" t="s">
-        <v>94</v>
+      <c r="A45" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="15" t="s">
-        <v>95</v>
+      <c r="A46" s="16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="15" t="s">
-        <v>96</v>
+      <c r="A47" s="16" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="15" t="s">
-        <v>97</v>
+      <c r="A48" s="16" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="15" t="s">
-        <v>98</v>
+      <c r="A49" s="16" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="15" t="s">
-        <v>99</v>
+      <c r="A50" s="16" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="15" t="s">
-        <v>101</v>
+      <c r="A52" s="16" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="15" t="s">
-        <v>102</v>
+      <c r="A53" s="16" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="15" t="s">
-        <v>103</v>
+      <c r="A54" s="16" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="15" t="s">
-        <v>104</v>
+      <c r="A55" s="16" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="15" t="s">
-        <v>105</v>
+      <c r="A56" s="16" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="15" t="s">
-        <v>106</v>
+      <c r="A57" s="16" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="15" t="s">
-        <v>107</v>
+      <c r="A58" s="16" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="15" t="s">
-        <v>108</v>
+      <c r="A59" s="16" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="15" t="s">
-        <v>109</v>
+      <c r="A60" s="16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="15" t="s">
-        <v>111</v>
+      <c r="A62" s="16" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="15" t="s">
-        <v>112</v>
+      <c r="A63" s="16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="15" t="s">
-        <v>113</v>
+      <c r="A64" s="16" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="15" t="s">
-        <v>114</v>
+      <c r="A65" s="16" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="15" t="s">
-        <v>115</v>
+      <c r="A66" s="16" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="15" t="s">
-        <v>116</v>
+      <c r="A67" s="16" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="15" t="s">
-        <v>117</v>
+      <c r="A68" s="16" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="15" t="s">
-        <v>118</v>
+      <c r="A69" s="16" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="15" t="s">
-        <v>119</v>
+      <c r="A70" s="16" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="15" t="s">
-        <v>121</v>
+      <c r="A72" s="16" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="15" t="s">
-        <v>122</v>
+      <c r="A73" s="16" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="15" t="s">
-        <v>123</v>
+      <c r="A74" s="16" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="15" t="s">
-        <v>124</v>
+      <c r="A75" s="16" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="15" t="s">
-        <v>125</v>
+      <c r="A76" s="16" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="15" t="s">
-        <v>126</v>
+      <c r="A77" s="16" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="15" t="s">
-        <v>127</v>
+      <c r="A78" s="16" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="15" t="s">
-        <v>128</v>
+      <c r="A79" s="16" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="15" t="s">
-        <v>129</v>
+      <c r="A80" s="16" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="15" t="s">
-        <v>131</v>
+      <c r="A82" s="16" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="15" t="s">
-        <v>132</v>
+      <c r="A83" s="16" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="15" t="s">
-        <v>133</v>
+      <c r="A84" s="16" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="15" t="s">
-        <v>134</v>
+      <c r="A85" s="16" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="15" t="s">
-        <v>135</v>
+      <c r="A86" s="16" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="15" t="s">
-        <v>136</v>
+      <c r="A87" s="16" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="15" t="s">
-        <v>137</v>
+      <c r="A88" s="16" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="15" t="s">
-        <v>138</v>
+      <c r="A89" s="16" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="15" t="s">
-        <v>139</v>
+      <c r="A90" s="16" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="15" t="s">
-        <v>141</v>
+      <c r="A92" s="16" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="15" t="s">
-        <v>142</v>
+      <c r="A93" s="16" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="15" t="s">
-        <v>143</v>
+      <c r="A94" s="16" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="15" t="s">
-        <v>144</v>
+      <c r="A95" s="16" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="15" t="s">
-        <v>145</v>
+      <c r="A96" s="16" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="15" t="s">
-        <v>146</v>
+      <c r="A97" s="16" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="15" t="s">
-        <v>147</v>
+      <c r="A98" s="16" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="15" t="s">
-        <v>148</v>
+      <c r="A99" s="16" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="15" t="s">
-        <v>149</v>
+      <c r="A100" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="15" t="s">
-        <v>151</v>
+      <c r="A102" s="16" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="15" t="s">
-        <v>152</v>
+      <c r="A103" s="16" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="15" t="s">
-        <v>153</v>
+      <c r="A104" s="16" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="15" t="s">
-        <v>154</v>
+      <c r="A105" s="16" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="15" t="s">
-        <v>155</v>
+      <c r="A106" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="15" t="s">
-        <v>156</v>
+      <c r="A107" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="15" t="s">
-        <v>157</v>
+      <c r="A108" s="16" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="15" t="s">
-        <v>158</v>
+      <c r="A109" s="16" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="15" t="s">
-        <v>159</v>
+      <c r="A110" s="16" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3674,175 +3760,252 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="48.4285714285714" style="13" customWidth="1"/>
+    <col min="1" max="1" width="48.4285714285714" style="14" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="15" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="15" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="15" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="15" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="15" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="15" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="15" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="15"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="15" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="16"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="16" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="15"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="15" t="s">
-        <v>152</v>
+      <c r="A28" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="15" t="s">
-        <v>153</v>
+      <c r="A29" s="18" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="15" t="s">
-        <v>154</v>
+      <c r="A30" s="18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="15" t="s">
-        <v>155</v>
-      </c>
+      <c r="A31" s="19"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="15" t="s">
-        <v>156</v>
+      <c r="A32" s="14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="15" t="s">
-        <v>157</v>
-      </c>
+      <c r="A33" s="19"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="15" t="s">
-        <v>158</v>
+      <c r="A34" s="19" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="19"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="16"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="16" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="13" t="s">
-        <v>82</v>
+      <c r="B45" s="16"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="16"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" s="16"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="14" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3862,147 +4025,147 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.4285714285714" style="13" customWidth="1"/>
+    <col min="1" max="1" width="48.4285714285714" style="14" customWidth="1"/>
     <col min="2" max="2" width="26.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="15" t="s">
-        <v>180</v>
+      <c r="A15" s="16" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4039,211 +4202,211 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A1" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>86</v>
+      <c r="H1" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>187</v>
+        <v>194</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:12">
       <c r="A3" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>188</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>191</v>
-      </c>
       <c r="G3" s="6" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="30" spans="1:12">
       <c r="A4" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>203</v>
+        <v>210</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:12">
       <c r="A5" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>208</v>
+        <v>215</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:12">
       <c r="A6" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>213</v>
+        <v>220</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4273,634 +4436,634 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="65" customHeight="1" spans="1:44">
-      <c r="A1" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="S1" s="10" t="s">
+      <c r="H1" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="T1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="U1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="O1" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="P1" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Q1" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="Z1" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK1" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM1" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN1" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="AO1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR1" s="10" t="s">
-        <v>75</v>
+      <c r="R1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN1" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="AO1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR1" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="45" spans="1:44">
       <c r="A2" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>187</v>
+        <v>194</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>222</v>
+        <v>229</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>230</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>224</v>
+        <v>231</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>232</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="AE2" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AL2" s="8" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AM2" s="8" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="AN2" s="8" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="AO2" s="8" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AP2" s="8" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AQ2" s="8" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="AR2" s="8" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="45" spans="1:44">
       <c r="A3" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>188</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB3" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="AC3" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE3" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="AE3" s="7" t="s">
-        <v>242</v>
-      </c>
       <c r="AF3" s="8" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="AH3" s="8" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="AI3" s="8" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="AL3" s="8" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="AM3" s="8" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="AN3" s="8" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="AO3" s="8" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="AP3" s="8" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="AQ3" s="8" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="AR3" s="8" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="45" spans="1:25">
       <c r="A4" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>203</v>
+        <v>210</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>259</v>
+        <v>266</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>267</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>261</v>
+        <v>268</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>269</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="X4" s="8" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="45" spans="1:25">
       <c r="A5" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>208</v>
+        <v>215</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>264</v>
+        <v>271</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>272</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>266</v>
+        <v>273</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>274</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="X5" s="8" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="Y5" s="8" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="45" spans="1:25">
       <c r="A6" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>213</v>
+        <v>220</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>269</v>
+        <v>276</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>277</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>271</v>
+        <v>278</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>279</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -4928,13 +5091,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="89" customHeight="1" spans="1:55">
       <c r="A1" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -4991,147 +5154,147 @@
         <v>42</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>218</v>
+        <v>94</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>226</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AO1" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AP1" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="AT1" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="AW1" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="AX1" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="AY1" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="AZ1" s="3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="BA1" s="3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="BB1" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="BC1" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="45" spans="1:55">
       <c r="A2" s="4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -5142,31 +5305,31 @@
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
       <c r="AE2" s="8"/>
       <c r="AF2" s="8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AG2" s="8"/>
       <c r="AH2" s="8"/>
@@ -5176,81 +5339,81 @@
       <c r="AL2" s="8"/>
       <c r="AM2" s="8"/>
       <c r="AN2" s="8" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AO2" s="8" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AP2" s="8" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="AQ2" s="8" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="AR2" s="8" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="AS2" s="8" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="AT2" s="8" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="AU2" s="8" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="AV2" s="8" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="AW2" s="8" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AX2" s="8"/>
       <c r="AY2" s="8"/>
       <c r="AZ2" s="8" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="BA2" s="8" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="BB2" s="8" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="BC2" s="8" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="30" spans="1:55">
       <c r="A3" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>188</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
@@ -5261,16 +5424,16 @@
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="8" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
@@ -5285,10 +5448,10 @@
       <c r="AL3" s="8"/>
       <c r="AM3" s="8"/>
       <c r="AN3" s="8" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AO3" s="8" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="AP3" s="8"/>
       <c r="AQ3" s="8"/>
@@ -5299,153 +5462,153 @@
       <c r="AV3" s="8"/>
       <c r="AW3" s="8"/>
       <c r="AX3" s="8" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="AY3" s="8"/>
       <c r="AZ3" s="8" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="BA3" s="8" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="BB3" s="8" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="BC3" s="8" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="30" spans="1:55">
       <c r="A4" s="4" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>301</v>
+        <v>205</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>309</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="X4" s="8" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="AD4" s="8" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="AE4" s="8" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="AF4" s="8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AG4" s="8" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="AH4" s="8" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="AI4" s="8" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="AJ4" s="8" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="AK4" s="8" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="AL4" s="8" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="AM4" s="8" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="AN4" s="8"/>
       <c r="AO4" s="8" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AP4" s="8"/>
       <c r="AQ4" s="8"/>
       <c r="AR4" s="8"/>
       <c r="AS4" s="8"/>
       <c r="AT4" s="8" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="AU4" s="8" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="AV4" s="8" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="AW4" s="8" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AX4" s="8"/>
       <c r="AY4" s="8" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="AZ4" s="8"/>
       <c r="BA4" s="8"/>
@@ -5477,13 +5640,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="89" customHeight="1" spans="1:57">
       <c r="A1" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -5543,153 +5706,153 @@
         <v>42</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AO1" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AP1" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AT1" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="AW1" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="AX1" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="AY1" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="AZ1" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="BA1" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="BB1" s="3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="BC1" s="3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="BD1" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="BE1" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="45" spans="1:57">
       <c r="A2" s="4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -5700,110 +5863,110 @@
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
       <c r="W2" s="8" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="AM2" s="8" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="AN2" s="8" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="AO2" s="8" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="AP2" s="8"/>
       <c r="AQ2" s="8" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AR2" s="8" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="AS2" s="8" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="AT2" s="8" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="AU2" s="8" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="AV2" s="8" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="AW2" s="8" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="AX2" s="8" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="AY2" s="8" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AZ2" s="8"/>
       <c r="BA2" s="8"/>
       <c r="BB2" s="8" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="BC2" s="8" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="BD2" s="8" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="BE2" s="8" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="45" spans="1:57">
       <c r="A3" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>188</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -5811,16 +5974,16 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -5831,22 +5994,22 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Z3" s="8" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
@@ -5857,17 +6020,17 @@
       <c r="AI3" s="8"/>
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AL3" s="8"/>
       <c r="AM3" s="8"/>
       <c r="AN3" s="8"/>
       <c r="AO3" s="8"/>
       <c r="AP3" s="8" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AQ3" s="8" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="AR3" s="8"/>
       <c r="AS3" s="8"/>
@@ -5878,145 +6041,145 @@
       <c r="AX3" s="8"/>
       <c r="AY3" s="8"/>
       <c r="AZ3" s="8" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="BA3" s="8"/>
       <c r="BB3" s="8" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="BC3" s="8" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="BD3" s="8" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="BE3" s="8" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="30" spans="1:57">
       <c r="A4" s="4" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="X4" s="8" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="AD4" s="8" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="AE4" s="8" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="AF4" s="8" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="AG4" s="8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AH4" s="8" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="AI4" s="8" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="AJ4" s="8" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="AK4" s="8" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AL4" s="8"/>
       <c r="AM4" s="8"/>
       <c r="AN4" s="8"/>
       <c r="AO4" s="8"/>
       <c r="AP4" s="8" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AQ4" s="8" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AR4" s="8"/>
       <c r="AS4" s="8"/>
       <c r="AT4" s="8"/>
       <c r="AU4" s="8"/>
       <c r="AV4" s="8" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="AW4" s="8" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="AX4" s="8" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="AY4" s="8" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AZ4" s="8"/>
       <c r="BA4" s="8" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="BB4" s="8"/>
       <c r="BC4" s="8"/>
@@ -6032,10 +6195,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -6048,23 +6211,27 @@
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.7142857142857" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.4285714285714" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7142857142857" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1428571428571" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.1428571428571" style="1" customWidth="1"/>
-    <col min="13" max="14" width="19.7142857142857" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.2857142857143" style="1"/>
+    <col min="9" max="13" width="19.7142857142857" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.1428571428571" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.1428571428571" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7142857142857" style="1" customWidth="1"/>
+    <col min="18" max="18" width="25.2857142857143" style="1" customWidth="1"/>
+    <col min="19" max="19" width="19.7142857142857" style="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5714285714286" style="1" customWidth="1"/>
+    <col min="21" max="21" width="23.1428571428571" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="69" customHeight="1" spans="1:14">
+    <row r="1" s="1" customFormat="1" ht="69" customHeight="1" spans="1:21">
       <c r="A1" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -6082,121 +6249,176 @@
         <v>33</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="30" spans="1:14">
+      <c r="R1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" spans="1:21">
       <c r="A2" s="4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="U2" s="9"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="30" spans="1:21">
+      <c r="A3" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="27" spans="1:14">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="27" spans="1:14">
+        <v>276</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:21">
       <c r="A4" s="4" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>294</v>
+        <v>194</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="H4" s="8"/>
-      <c r="I4" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/input_excel_file/flow_definition.xlsx
+++ b/src/main/resources/input_excel_file/flow_definition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="11460" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Flow Order Sheet Mapping" sheetId="6" r:id="rId1"/>
@@ -2880,7 +2880,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2938,12 +2938,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3347,7 +3341,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3371,16 +3365,16 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3389,89 +3383,89 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3758,22 +3752,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4142,8 +4121,8 @@
   <sheetPr/>
   <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="I165" sqref="I165"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -4155,1070 +4134,1070 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="111" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="118" t="s">
+      <c r="C2" s="113" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="112" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="113" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="117"/>
+      <c r="A4" s="112"/>
       <c r="B4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="118" t="s">
+      <c r="C4" s="113" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="117"/>
+      <c r="A5" s="112"/>
       <c r="B5" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="113" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="117"/>
+      <c r="A6" s="112"/>
       <c r="B6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="113" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="117"/>
+      <c r="A7" s="112"/>
       <c r="B7" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="113" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="117"/>
+      <c r="A8" s="112"/>
       <c r="B8" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="113" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="117"/>
+      <c r="A9" s="112"/>
       <c r="B9" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="118" t="s">
+      <c r="C9" s="113" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="117"/>
-      <c r="C10" s="118" t="s">
+      <c r="A10" s="112"/>
+      <c r="C10" s="113" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="117"/>
-      <c r="C11" s="118" t="s">
+      <c r="A11" s="112"/>
+      <c r="C11" s="113" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="117"/>
-      <c r="C12" s="118" t="s">
+      <c r="A12" s="112"/>
+      <c r="C12" s="113" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="117"/>
+      <c r="A13" s="112"/>
       <c r="B13" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="113" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="117"/>
+      <c r="A14" s="112"/>
       <c r="B14" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="118" t="s">
+      <c r="C14" s="113" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="117"/>
+      <c r="A15" s="112"/>
       <c r="B15" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="118" t="s">
+      <c r="C15" s="113" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="117"/>
+      <c r="A16" s="112"/>
       <c r="B16" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="118" t="s">
+      <c r="C16" s="113" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="117"/>
-      <c r="C17" s="118" t="s">
+      <c r="A17" s="112"/>
+      <c r="C17" s="113" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="117"/>
-      <c r="C18" s="118" t="s">
+      <c r="A18" s="112"/>
+      <c r="C18" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="118"/>
+      <c r="F18" s="113"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="117"/>
-      <c r="C19" s="118" t="s">
+      <c r="A19" s="112"/>
+      <c r="C19" s="113" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="117"/>
+      <c r="A20" s="112"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="117"/>
+      <c r="A21" s="112"/>
       <c r="B21" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="118" t="s">
+      <c r="C21" s="113" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="117"/>
-      <c r="C22" s="118" t="s">
+      <c r="A22" s="112"/>
+      <c r="C22" s="113" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="117"/>
-      <c r="C23" s="118" t="s">
+      <c r="A23" s="112"/>
+      <c r="C23" s="113" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="117"/>
-      <c r="C24" s="118" t="s">
+      <c r="A24" s="112"/>
+      <c r="C24" s="113" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="117"/>
-      <c r="C25" s="118" t="s">
+      <c r="A25" s="112"/>
+      <c r="C25" s="113" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="117" t="s">
+      <c r="A26" s="112" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="118" t="s">
+      <c r="C26" s="113" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="117"/>
-      <c r="C27" s="118" t="s">
+      <c r="A27" s="112"/>
+      <c r="C27" s="113" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="117"/>
-      <c r="C28" s="118" t="s">
+      <c r="A28" s="112"/>
+      <c r="C28" s="113" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="117"/>
-      <c r="C29" s="118" t="s">
+      <c r="A29" s="112"/>
+      <c r="C29" s="113" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="112" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="118" t="s">
+      <c r="C30" s="113" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="117"/>
+      <c r="A31" s="112"/>
       <c r="B31" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="118" t="s">
+      <c r="C31" s="113" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="117"/>
+      <c r="A32" s="112"/>
       <c r="B32" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="119" t="s">
+      <c r="C32" s="114" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="117"/>
-      <c r="C33" s="119" t="s">
+      <c r="A33" s="112"/>
+      <c r="C33" s="114" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="117"/>
-      <c r="C34" s="119" t="s">
+      <c r="A34" s="112"/>
+      <c r="C34" s="114" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="117"/>
-      <c r="C35" s="119" t="s">
+      <c r="A35" s="112"/>
+      <c r="C35" s="114" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="117"/>
+      <c r="A36" s="112"/>
       <c r="B36" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="120" t="s">
+      <c r="C36" s="115" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="117"/>
-      <c r="C37" s="120" t="s">
+      <c r="A37" s="112"/>
+      <c r="C37" s="115" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="117"/>
-      <c r="C38" s="120" t="s">
+      <c r="A38" s="112"/>
+      <c r="C38" s="115" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="117"/>
-      <c r="C39" s="120" t="s">
+      <c r="A39" s="112"/>
+      <c r="C39" s="115" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="117"/>
+      <c r="A40" s="112"/>
       <c r="B40" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="120" t="s">
+      <c r="C40" s="115" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="117"/>
-      <c r="C41" s="120"/>
+      <c r="A41" s="112"/>
+      <c r="C41" s="115"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="117"/>
+      <c r="A42" s="112"/>
       <c r="B42" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="118" t="s">
+      <c r="C42" s="113" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="117"/>
-      <c r="C43" s="118" t="s">
+      <c r="A43" s="112"/>
+      <c r="C43" s="113" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="117"/>
-      <c r="C44" s="118" t="s">
+      <c r="A44" s="112"/>
+      <c r="C44" s="113" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="117"/>
-      <c r="C45" s="118" t="s">
+      <c r="A45" s="112"/>
+      <c r="C45" s="113" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="117"/>
+      <c r="A46" s="112"/>
       <c r="B46" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="118" t="s">
+      <c r="C46" s="113" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="117"/>
+      <c r="A47" s="112"/>
       <c r="B47" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="118" t="s">
+      <c r="C47" s="113" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="117"/>
+      <c r="A48" s="112"/>
       <c r="B48" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="118" t="s">
+      <c r="C48" s="113" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="117"/>
-      <c r="C49" s="118" t="s">
+      <c r="A49" s="112"/>
+      <c r="C49" s="113" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="117"/>
-      <c r="C50" s="118" t="s">
+      <c r="A50" s="112"/>
+      <c r="C50" s="113" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="117"/>
-      <c r="C51" s="118" t="s">
+      <c r="A51" s="112"/>
+      <c r="C51" s="113" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="117"/>
+      <c r="A52" s="112"/>
       <c r="B52" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="118" t="s">
+      <c r="C52" s="113" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="117"/>
-      <c r="C53" s="118" t="s">
+      <c r="A53" s="112"/>
+      <c r="C53" s="113" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="117"/>
-      <c r="C54" s="118" t="s">
+      <c r="A54" s="112"/>
+      <c r="C54" s="113" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="117"/>
-      <c r="C55" s="118" t="s">
+      <c r="A55" s="112"/>
+      <c r="C55" s="113" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="117"/>
+      <c r="A56" s="112"/>
       <c r="B56" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="118" t="s">
+      <c r="C56" s="113" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="117"/>
-      <c r="C57" s="118" t="s">
+      <c r="A57" s="112"/>
+      <c r="C57" s="113" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="117"/>
-      <c r="C58" s="118" t="s">
+      <c r="A58" s="112"/>
+      <c r="C58" s="113" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="117"/>
-      <c r="C59" s="118" t="s">
+      <c r="A59" s="112"/>
+      <c r="C59" s="113" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="117"/>
+      <c r="A60" s="112"/>
       <c r="B60" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="118" t="s">
+      <c r="C60" s="113" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="117"/>
-      <c r="C61" s="118" t="s">
+      <c r="A61" s="112"/>
+      <c r="C61" s="113" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="117"/>
-      <c r="C62" s="118" t="s">
+      <c r="A62" s="112"/>
+      <c r="C62" s="113" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="117"/>
-      <c r="C63" s="118" t="s">
+      <c r="A63" s="112"/>
+      <c r="C63" s="113" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="117"/>
+      <c r="A64" s="112"/>
       <c r="B64" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="C64" s="118" t="s">
+      <c r="C64" s="113" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="117"/>
-      <c r="C65" s="118" t="s">
+      <c r="A65" s="112"/>
+      <c r="C65" s="113" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="117"/>
-      <c r="C66" s="118" t="s">
+      <c r="A66" s="112"/>
+      <c r="C66" s="113" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="117"/>
-      <c r="C67" s="118" t="s">
+      <c r="A67" s="112"/>
+      <c r="C67" s="113" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="117"/>
+      <c r="A68" s="112"/>
       <c r="B68" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="C68" s="118" t="s">
+      <c r="C68" s="113" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="117"/>
-      <c r="C69" s="118" t="s">
+      <c r="A69" s="112"/>
+      <c r="C69" s="113" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="117"/>
-      <c r="C70" s="118" t="s">
+      <c r="A70" s="112"/>
+      <c r="C70" s="113" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="117"/>
-      <c r="C71" s="118" t="s">
+      <c r="A71" s="112"/>
+      <c r="C71" s="113" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="117"/>
-      <c r="C72" s="118" t="s">
+      <c r="A72" s="112"/>
+      <c r="C72" s="113" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="117" t="s">
+      <c r="A73" s="112" t="s">
         <v>93</v>
       </c>
-      <c r="C73" s="118" t="s">
+      <c r="C73" s="113" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="117"/>
-      <c r="C74" s="118" t="s">
+      <c r="A74" s="112"/>
+      <c r="C74" s="113" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="117"/>
-      <c r="C75" s="118" t="s">
+      <c r="A75" s="112"/>
+      <c r="C75" s="113" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="117"/>
-      <c r="C76" s="118" t="s">
+      <c r="A76" s="112"/>
+      <c r="C76" s="113" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="117"/>
-      <c r="C77" s="118" t="s">
+      <c r="A77" s="112"/>
+      <c r="C77" s="113" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="117"/>
-      <c r="C78" s="118" t="s">
+      <c r="A78" s="112"/>
+      <c r="C78" s="113" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="117"/>
-      <c r="C79" s="118" t="s">
+      <c r="A79" s="112"/>
+      <c r="C79" s="113" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="117"/>
-      <c r="C80" s="118" t="s">
+      <c r="A80" s="112"/>
+      <c r="C80" s="113" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="117"/>
-      <c r="C81" s="118" t="s">
+      <c r="A81" s="112"/>
+      <c r="C81" s="113" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="117"/>
-      <c r="C82" s="118" t="s">
+      <c r="A82" s="112"/>
+      <c r="C82" s="113" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="117"/>
-      <c r="C83" s="118" t="s">
+      <c r="A83" s="112"/>
+      <c r="C83" s="113" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="117"/>
-      <c r="C84" s="118" t="s">
+      <c r="A84" s="112"/>
+      <c r="C84" s="113" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="117"/>
-      <c r="C85" s="118" t="s">
+      <c r="A85" s="112"/>
+      <c r="C85" s="113" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="117"/>
-      <c r="C86" s="118" t="s">
+      <c r="A86" s="112"/>
+      <c r="C86" s="113" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="117"/>
-      <c r="C87" s="118" t="s">
+      <c r="A87" s="112"/>
+      <c r="C87" s="113" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="117"/>
-      <c r="C88" s="118" t="s">
+      <c r="A88" s="112"/>
+      <c r="C88" s="113" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="117" t="s">
+      <c r="A89" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="C89" s="118" t="s">
+      <c r="C89" s="113" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="117"/>
-      <c r="C90" s="118" t="s">
+      <c r="A90" s="112"/>
+      <c r="C90" s="113" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="117"/>
-      <c r="C91" s="118" t="s">
+      <c r="A91" s="112"/>
+      <c r="C91" s="113" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="117"/>
-      <c r="C92" s="118" t="s">
+      <c r="A92" s="112"/>
+      <c r="C92" s="113" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="117"/>
-      <c r="C93" s="118" t="s">
+      <c r="A93" s="112"/>
+      <c r="C93" s="113" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="117"/>
-      <c r="C94" s="118" t="s">
+      <c r="A94" s="112"/>
+      <c r="C94" s="113" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="117"/>
-      <c r="C95" s="118" t="s">
+      <c r="A95" s="112"/>
+      <c r="C95" s="113" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="117"/>
-      <c r="C96" s="118" t="s">
+      <c r="A96" s="112"/>
+      <c r="C96" s="113" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="117"/>
-      <c r="C97" s="118" t="s">
+      <c r="A97" s="112"/>
+      <c r="C97" s="113" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="117" t="s">
+      <c r="A98" s="112" t="s">
         <v>120</v>
       </c>
-      <c r="C98" s="118" t="s">
+      <c r="C98" s="113" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="117"/>
-      <c r="C99" s="118" t="s">
+      <c r="A99" s="112"/>
+      <c r="C99" s="113" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="117"/>
-      <c r="C100" s="118" t="s">
+      <c r="A100" s="112"/>
+      <c r="C100" s="113" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="117"/>
-      <c r="C101" s="118" t="s">
+      <c r="A101" s="112"/>
+      <c r="C101" s="113" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="117"/>
-      <c r="C102" s="118" t="s">
+      <c r="A102" s="112"/>
+      <c r="C102" s="113" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="117"/>
-      <c r="C103" s="118" t="s">
+      <c r="A103" s="112"/>
+      <c r="C103" s="113" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="117"/>
-      <c r="C104" s="118" t="s">
+      <c r="A104" s="112"/>
+      <c r="C104" s="113" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="117"/>
-      <c r="C105" s="118" t="s">
+      <c r="A105" s="112"/>
+      <c r="C105" s="113" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="117"/>
-      <c r="C106" s="118" t="s">
+      <c r="A106" s="112"/>
+      <c r="C106" s="113" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="117" t="s">
+      <c r="A107" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="C107" s="118" t="s">
+      <c r="C107" s="113" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="117"/>
-      <c r="C108" s="118" t="s">
+      <c r="A108" s="112"/>
+      <c r="C108" s="113" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="117"/>
-      <c r="C109" s="118" t="s">
+      <c r="A109" s="112"/>
+      <c r="C109" s="113" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="117"/>
-      <c r="C110" s="118" t="s">
+      <c r="A110" s="112"/>
+      <c r="C110" s="113" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="117"/>
-      <c r="C111" s="118" t="s">
+      <c r="A111" s="112"/>
+      <c r="C111" s="113" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="117"/>
-      <c r="C112" s="118" t="s">
+      <c r="A112" s="112"/>
+      <c r="C112" s="113" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="117"/>
-      <c r="C113" s="118" t="s">
+      <c r="A113" s="112"/>
+      <c r="C113" s="113" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="117"/>
-      <c r="C114" s="118" t="s">
+      <c r="A114" s="112"/>
+      <c r="C114" s="113" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="117"/>
-      <c r="C115" s="118" t="s">
+      <c r="A115" s="112"/>
+      <c r="C115" s="113" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="117" t="s">
+      <c r="A116" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="C116" s="118" t="s">
+      <c r="C116" s="113" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="117"/>
-      <c r="C117" s="118" t="s">
+      <c r="A117" s="112"/>
+      <c r="C117" s="113" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="117"/>
-      <c r="C118" s="118" t="s">
+      <c r="A118" s="112"/>
+      <c r="C118" s="113" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="117"/>
-      <c r="C119" s="118" t="s">
+      <c r="A119" s="112"/>
+      <c r="C119" s="113" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="117"/>
-      <c r="C120" s="118" t="s">
+      <c r="A120" s="112"/>
+      <c r="C120" s="113" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="117"/>
-      <c r="C121" s="118" t="s">
+      <c r="A121" s="112"/>
+      <c r="C121" s="113" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="117"/>
-      <c r="C122" s="118" t="s">
+      <c r="A122" s="112"/>
+      <c r="C122" s="113" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="117"/>
-      <c r="C123" s="118" t="s">
+      <c r="A123" s="112"/>
+      <c r="C123" s="113" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="117"/>
-      <c r="C124" s="118" t="s">
+      <c r="A124" s="112"/>
+      <c r="C124" s="113" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="117" t="s">
+      <c r="A125" s="112" t="s">
         <v>150</v>
       </c>
-      <c r="C125" s="118" t="s">
+      <c r="C125" s="113" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="117"/>
-      <c r="C126" s="118" t="s">
+      <c r="A126" s="112"/>
+      <c r="C126" s="113" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="117"/>
-      <c r="C127" s="118" t="s">
+      <c r="A127" s="112"/>
+      <c r="C127" s="113" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="117"/>
-      <c r="C128" s="118" t="s">
+      <c r="A128" s="112"/>
+      <c r="C128" s="113" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="117"/>
-      <c r="C129" s="118" t="s">
+      <c r="A129" s="112"/>
+      <c r="C129" s="113" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="117"/>
-      <c r="C130" s="118" t="s">
+      <c r="A130" s="112"/>
+      <c r="C130" s="113" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="117"/>
-      <c r="C131" s="118" t="s">
+      <c r="A131" s="112"/>
+      <c r="C131" s="113" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="117"/>
-      <c r="C132" s="118" t="s">
+      <c r="A132" s="112"/>
+      <c r="C132" s="113" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="117"/>
-      <c r="C133" s="118" t="s">
+      <c r="A133" s="112"/>
+      <c r="C133" s="113" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="117" t="s">
+      <c r="A134" s="112" t="s">
         <v>160</v>
       </c>
-      <c r="C134" s="118" t="s">
+      <c r="C134" s="113" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="117"/>
-      <c r="C135" s="118" t="s">
+      <c r="A135" s="112"/>
+      <c r="C135" s="113" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="117"/>
-      <c r="C136" s="118" t="s">
+      <c r="A136" s="112"/>
+      <c r="C136" s="113" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="117"/>
-      <c r="C137" s="118" t="s">
+      <c r="A137" s="112"/>
+      <c r="C137" s="113" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="117"/>
-      <c r="C138" s="118" t="s">
+      <c r="A138" s="112"/>
+      <c r="C138" s="113" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="117"/>
-      <c r="C139" s="118" t="s">
+      <c r="A139" s="112"/>
+      <c r="C139" s="113" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="117"/>
-      <c r="C140" s="118" t="s">
+      <c r="A140" s="112"/>
+      <c r="C140" s="113" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="117"/>
-      <c r="C141" s="118" t="s">
+      <c r="A141" s="112"/>
+      <c r="C141" s="113" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="117"/>
-      <c r="C142" s="118" t="s">
+      <c r="A142" s="112"/>
+      <c r="C142" s="113" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="117" t="s">
+      <c r="A143" s="112" t="s">
         <v>170</v>
       </c>
       <c r="B143" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="C143" s="118" t="s">
+      <c r="C143" s="113" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="117"/>
+      <c r="A144" s="112"/>
       <c r="B144" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="C144" s="118" t="s">
+      <c r="C144" s="113" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="117"/>
-      <c r="C145" s="118" t="s">
+      <c r="A145" s="112"/>
+      <c r="C145" s="113" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="117"/>
-      <c r="C146" s="118" t="s">
+      <c r="A146" s="112"/>
+      <c r="C146" s="113" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="117"/>
-      <c r="C147" s="118" t="s">
+      <c r="A147" s="112"/>
+      <c r="C147" s="113" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="117"/>
+      <c r="A148" s="112"/>
       <c r="B148" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="C148" s="118" t="s">
+      <c r="C148" s="113" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="117"/>
-      <c r="C149" s="118" t="s">
+      <c r="A149" s="112"/>
+      <c r="C149" s="113" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="117"/>
-      <c r="C150" s="118" t="s">
+      <c r="A150" s="112"/>
+      <c r="C150" s="113" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="117"/>
-      <c r="C151" s="118" t="s">
+      <c r="A151" s="112"/>
+      <c r="C151" s="113" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="117"/>
+      <c r="A152" s="112"/>
       <c r="B152" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="C152" s="118" t="s">
+      <c r="C152" s="113" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="117" t="s">
+      <c r="A153" s="112" t="s">
         <v>182</v>
       </c>
       <c r="B153" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="C153" s="118" t="s">
+      <c r="C153" s="113" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="117"/>
+      <c r="A154" s="112"/>
       <c r="B154" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="C154" s="118" t="s">
+      <c r="C154" s="113" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="117"/>
-      <c r="C155" s="118" t="s">
+      <c r="A155" s="112"/>
+      <c r="C155" s="113" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="117"/>
-      <c r="C156" s="118" t="s">
+      <c r="A156" s="112"/>
+      <c r="C156" s="113" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="117"/>
-      <c r="C157" s="118" t="s">
+      <c r="A157" s="112"/>
+      <c r="C157" s="113" t="s">
         <v>189</v>
       </c>
     </row>
@@ -16120,8 +16099,8 @@
   <sheetPr/>
   <dimension ref="A1:AZ79"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -17030,7 +17009,7 @@
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.4285714285714" style="63" customWidth="1"/>
-    <col min="2" max="2" width="48.4285714285714" style="106" customWidth="1"/>
+    <col min="2" max="2" width="48.4285714285714" style="101" customWidth="1"/>
     <col min="3" max="3" width="47.2857142857143" style="63" customWidth="1"/>
     <col min="4" max="4" width="9.57142857142857" style="63" customWidth="1"/>
     <col min="5" max="16384" width="9.14285714285714" style="63"/>
@@ -17433,7 +17412,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="107" t="s">
+      <c r="A36" s="102" t="s">
         <v>201</v>
       </c>
       <c r="B36" s="70" t="s">
@@ -17444,7 +17423,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="108"/>
+      <c r="A37" s="103"/>
       <c r="B37" s="67" t="s">
         <v>51</v>
       </c>
@@ -17453,7 +17432,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="108"/>
+      <c r="A38" s="103"/>
       <c r="B38" s="67" t="s">
         <v>77</v>
       </c>
@@ -17462,34 +17441,34 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="108"/>
-      <c r="B39" s="109" t="s">
+      <c r="A39" s="103"/>
+      <c r="B39" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="C39" s="110" t="s">
+      <c r="C39" s="105" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="108"/>
-      <c r="B40" s="109" t="s">
+      <c r="A40" s="103"/>
+      <c r="B40" s="104" t="s">
         <v>203</v>
       </c>
-      <c r="C40" s="110" t="s">
+      <c r="C40" s="105" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="108"/>
-      <c r="B41" s="109" t="s">
+      <c r="A41" s="103"/>
+      <c r="B41" s="104" t="s">
         <v>204</v>
       </c>
-      <c r="C41" s="110" t="s">
+      <c r="C41" s="105" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="108"/>
+      <c r="A42" s="103"/>
       <c r="B42" s="67" t="s">
         <v>77</v>
       </c>
@@ -17498,7 +17477,7 @@
       </c>
     </row>
     <row r="43" ht="17" customHeight="1" spans="1:3">
-      <c r="A43" s="108"/>
+      <c r="A43" s="103"/>
       <c r="B43" s="70" t="s">
         <v>56</v>
       </c>
@@ -17507,7 +17486,7 @@
       </c>
     </row>
     <row r="44" ht="17" customHeight="1" spans="1:3">
-      <c r="A44" s="108"/>
+      <c r="A44" s="103"/>
       <c r="B44" s="67" t="s">
         <v>51</v>
       </c>
@@ -17516,7 +17495,7 @@
       </c>
     </row>
     <row r="45" ht="17" customHeight="1" spans="1:3">
-      <c r="A45" s="111"/>
+      <c r="A45" s="106"/>
       <c r="B45" s="67" t="s">
         <v>77</v>
       </c>
@@ -17531,13 +17510,13 @@
       <c r="B46" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="C46" s="110" t="s">
+      <c r="C46" s="105" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="64"/>
-      <c r="B47" s="112" t="s">
+      <c r="B47" s="107" t="s">
         <v>77</v>
       </c>
       <c r="C47" s="68" t="s">
@@ -17546,7 +17525,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="64"/>
-      <c r="B48" s="112" t="s">
+      <c r="B48" s="107" t="s">
         <v>51</v>
       </c>
       <c r="C48" s="68" t="s">
@@ -17555,7 +17534,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="64"/>
-      <c r="B49" s="112" t="s">
+      <c r="B49" s="107" t="s">
         <v>51</v>
       </c>
       <c r="C49" s="68" t="s">
@@ -17564,7 +17543,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="64"/>
-      <c r="B50" s="112" t="s">
+      <c r="B50" s="107" t="s">
         <v>77</v>
       </c>
       <c r="C50" s="68" t="s">
@@ -17573,7 +17552,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="64"/>
-      <c r="B51" s="113" t="s">
+      <c r="B51" s="108" t="s">
         <v>197</v>
       </c>
       <c r="C51" s="68" t="s">
@@ -17582,7 +17561,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="64"/>
-      <c r="B52" s="112" t="s">
+      <c r="B52" s="107" t="s">
         <v>77</v>
       </c>
       <c r="C52" s="68" t="s">
@@ -17591,7 +17570,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="64"/>
-      <c r="B53" s="112" t="s">
+      <c r="B53" s="107" t="s">
         <v>198</v>
       </c>
       <c r="C53" s="68" t="s">
@@ -17600,7 +17579,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="64"/>
-      <c r="B54" s="112" t="s">
+      <c r="B54" s="107" t="s">
         <v>77</v>
       </c>
       <c r="C54" s="68" t="s">
@@ -17609,7 +17588,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="64"/>
-      <c r="B55" s="113" t="s">
+      <c r="B55" s="108" t="s">
         <v>197</v>
       </c>
       <c r="C55" s="68" t="s">
@@ -17618,7 +17597,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="64"/>
-      <c r="B56" s="112" t="s">
+      <c r="B56" s="107" t="s">
         <v>77</v>
       </c>
       <c r="C56" s="68" t="s">
@@ -17627,7 +17606,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="64"/>
-      <c r="B57" s="112" t="s">
+      <c r="B57" s="107" t="s">
         <v>199</v>
       </c>
       <c r="C57" s="68" t="s">
@@ -17636,7 +17615,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="64"/>
-      <c r="B58" s="112" t="s">
+      <c r="B58" s="107" t="s">
         <v>200</v>
       </c>
       <c r="C58" s="68" t="s">
@@ -17645,7 +17624,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="64"/>
-      <c r="B59" s="112" t="s">
+      <c r="B59" s="107" t="s">
         <v>77</v>
       </c>
       <c r="C59" s="68" t="s">
@@ -17654,7 +17633,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="64"/>
-      <c r="B60" s="112" t="s">
+      <c r="B60" s="107" t="s">
         <v>51</v>
       </c>
       <c r="C60" s="68" t="s">
@@ -17663,7 +17642,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="64"/>
-      <c r="B61" s="112" t="s">
+      <c r="B61" s="107" t="s">
         <v>51</v>
       </c>
       <c r="C61" s="68" t="s">
@@ -17672,7 +17651,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="64"/>
-      <c r="B62" s="112" t="s">
+      <c r="B62" s="107" t="s">
         <v>77</v>
       </c>
       <c r="C62" s="68" t="s">
@@ -17681,7 +17660,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="64"/>
-      <c r="B63" s="113" t="s">
+      <c r="B63" s="108" t="s">
         <v>56</v>
       </c>
       <c r="C63" s="68" t="s">
@@ -17690,7 +17669,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="64"/>
-      <c r="B64" s="112" t="s">
+      <c r="B64" s="107" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="68" t="s">
@@ -17699,7 +17678,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="64"/>
-      <c r="B65" s="113" t="s">
+      <c r="B65" s="108" t="s">
         <v>56</v>
       </c>
       <c r="C65" s="68" t="s">
@@ -17708,7 +17687,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="64"/>
-      <c r="B66" s="112" t="s">
+      <c r="B66" s="107" t="s">
         <v>77</v>
       </c>
       <c r="C66" s="68" t="s">
@@ -17717,7 +17696,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="64"/>
-      <c r="B67" s="112" t="s">
+      <c r="B67" s="107" t="s">
         <v>51</v>
       </c>
       <c r="C67" s="68" t="s">
@@ -17726,7 +17705,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="64"/>
-      <c r="B68" s="112" t="s">
+      <c r="B68" s="107" t="s">
         <v>51</v>
       </c>
       <c r="C68" s="68" t="s">
@@ -17735,7 +17714,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="64"/>
-      <c r="B69" s="112" t="s">
+      <c r="B69" s="107" t="s">
         <v>77</v>
       </c>
       <c r="C69" s="68" t="s">
@@ -17743,10 +17722,10 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="114" t="s">
+      <c r="A70" s="109" t="s">
         <v>207</v>
       </c>
-      <c r="B70" s="113" t="s">
+      <c r="B70" s="108" t="s">
         <v>56</v>
       </c>
       <c r="C70" s="68" t="s">
@@ -17754,8 +17733,8 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="114"/>
-      <c r="B71" s="112" t="s">
+      <c r="A71" s="109"/>
+      <c r="B71" s="107" t="s">
         <v>77</v>
       </c>
       <c r="C71" s="68" t="s">
@@ -17763,35 +17742,35 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="114"/>
-      <c r="B72" s="115" t="s">
+      <c r="A72" s="109"/>
+      <c r="B72" s="110" t="s">
         <v>202</v>
       </c>
-      <c r="C72" s="110" t="s">
+      <c r="C72" s="105" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="114"/>
-      <c r="B73" s="115" t="s">
+      <c r="A73" s="109"/>
+      <c r="B73" s="110" t="s">
         <v>203</v>
       </c>
-      <c r="C73" s="110" t="s">
+      <c r="C73" s="105" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="114"/>
-      <c r="B74" s="115" t="s">
+      <c r="A74" s="109"/>
+      <c r="B74" s="110" t="s">
         <v>204</v>
       </c>
-      <c r="C74" s="110" t="s">
+      <c r="C74" s="105" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="114"/>
-      <c r="B75" s="112" t="s">
+      <c r="A75" s="109"/>
+      <c r="B75" s="107" t="s">
         <v>77</v>
       </c>
       <c r="C75" s="68" t="s">
@@ -17799,8 +17778,8 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="114"/>
-      <c r="B76" s="113" t="s">
+      <c r="A76" s="109"/>
+      <c r="B76" s="108" t="s">
         <v>56</v>
       </c>
       <c r="C76" s="68" t="s">
@@ -17808,8 +17787,8 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="114"/>
-      <c r="B77" s="112" t="s">
+      <c r="A77" s="109"/>
+      <c r="B77" s="107" t="s">
         <v>51</v>
       </c>
       <c r="C77" s="68" t="s">
@@ -17817,8 +17796,8 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="114"/>
-      <c r="B78" s="112" t="s">
+      <c r="A78" s="109"/>
+      <c r="B78" s="107" t="s">
         <v>51</v>
       </c>
       <c r="C78" s="68" t="s">
@@ -17826,8 +17805,8 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="114"/>
-      <c r="B79" s="112" t="s">
+      <c r="A79" s="109"/>
+      <c r="B79" s="107" t="s">
         <v>77</v>
       </c>
       <c r="C79" s="68" t="s">
@@ -17835,8 +17814,8 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="114"/>
-      <c r="B80" s="113" t="s">
+      <c r="A80" s="109"/>
+      <c r="B80" s="108" t="s">
         <v>56</v>
       </c>
       <c r="C80" s="68" t="s">
@@ -17844,8 +17823,8 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="114"/>
-      <c r="B81" s="112" t="s">
+      <c r="A81" s="109"/>
+      <c r="B81" s="107" t="s">
         <v>77</v>
       </c>
       <c r="C81" s="68" t="s">
@@ -17872,10 +17851,10 @@
   <sheetPr/>
   <dimension ref="A1:CE51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="V7" sqref="V7"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15"/>
@@ -18106,40 +18085,40 @@
       <c r="BS1" s="53" t="str">
         <v>fee_of_bag_player1_id</v>
       </c>
-      <c r="BT1" s="105" t="str">
+      <c r="BT1" s="88" t="str">
         <v>voucher_remove_player1_case_id</v>
       </c>
-      <c r="BU1" s="105" t="str">
+      <c r="BU1" s="88" t="str">
         <v>fee_of_bag_player1_id</v>
       </c>
-      <c r="BV1" s="105" t="str">
+      <c r="BV1" s="88" t="str">
         <v>restaurant_create_bill_player1_id</v>
       </c>
-      <c r="BW1" s="105" t="str">
+      <c r="BW1" s="88" t="str">
         <v>restaurant_get_list_menu_id</v>
       </c>
-      <c r="BX1" s="105" t="str">
+      <c r="BX1" s="88" t="str">
         <v>restaurant_add_item_to_bill_player1_id</v>
       </c>
-      <c r="BY1" s="105" t="str">
+      <c r="BY1" s="88" t="str">
         <v>fee_of_bag_player1_id</v>
       </c>
-      <c r="BZ1" s="105" t="str">
+      <c r="BZ1" s="88" t="str">
         <v>voucher_remove_player1_case_id</v>
       </c>
-      <c r="CA1" s="105" t="str">
+      <c r="CA1" s="88" t="str">
         <v>voucher_apply_player1_case_id</v>
       </c>
-      <c r="CB1" s="105" t="str">
+      <c r="CB1" s="88" t="str">
         <v>voucher_apply_player1_case_id</v>
       </c>
-      <c r="CC1" s="105" t="str">
+      <c r="CC1" s="88" t="str">
         <v>fee_of_bag_player1_id</v>
       </c>
-      <c r="CD1" s="105" t="str">
+      <c r="CD1" s="88" t="str">
         <v>voucher_remove_player1_case_id</v>
       </c>
-      <c r="CE1" s="105" t="str">
+      <c r="CE1" s="88" t="str">
         <v>fee_of_bag_player1_id</v>
       </c>
     </row>
@@ -22619,12 +22598,12 @@
         <v>391</v>
       </c>
       <c r="CA32" s="12"/>
-      <c r="CB32" s="100"/>
-      <c r="CC32" s="102" t="s">
+      <c r="CB32" s="12"/>
+      <c r="CC32" s="44" t="s">
         <v>392</v>
       </c>
-      <c r="CD32" s="100"/>
-      <c r="CE32" s="100"/>
+      <c r="CD32" s="12"/>
+      <c r="CE32" s="12"/>
     </row>
     <row r="33" s="16" customFormat="1" ht="45" spans="1:83">
       <c r="A33" s="37" t="s">
@@ -22794,12 +22773,12 @@
         <v>398</v>
       </c>
       <c r="CA33" s="12"/>
-      <c r="CB33" s="100"/>
-      <c r="CC33" s="104" t="s">
+      <c r="CB33" s="12"/>
+      <c r="CC33" s="39" t="s">
         <v>400</v>
       </c>
-      <c r="CD33" s="100"/>
-      <c r="CE33" s="100"/>
+      <c r="CD33" s="12"/>
+      <c r="CE33" s="12"/>
     </row>
     <row r="34" s="16" customFormat="1" ht="60" spans="1:83">
       <c r="A34" s="37" t="s">
@@ -22966,14 +22945,14 @@
         <v>398</v>
       </c>
       <c r="CA34" s="12"/>
-      <c r="CB34" s="100"/>
-      <c r="CC34" s="104" t="s">
+      <c r="CB34" s="12"/>
+      <c r="CC34" s="39" t="s">
         <v>400</v>
       </c>
       <c r="CD34" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="CE34" s="102" t="s">
+      <c r="CE34" s="44" t="s">
         <v>404</v>
       </c>
     </row>
@@ -23112,7 +23091,7 @@
       <c r="BT35" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="BU35" s="101" t="s">
+      <c r="BU35" s="100" t="s">
         <v>244</v>
       </c>
       <c r="BV35" s="12" t="s">
@@ -23124,19 +23103,19 @@
       <c r="BX35" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="BY35" s="102" t="s">
+      <c r="BY35" s="44" t="s">
         <v>404</v>
       </c>
-      <c r="BZ35" s="101"/>
-      <c r="CA35" s="102" t="s">
+      <c r="BZ35" s="100"/>
+      <c r="CA35" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="CB35" s="103"/>
-      <c r="CC35" s="102" t="s">
+      <c r="CB35" s="100"/>
+      <c r="CC35" s="44" t="s">
         <v>392</v>
       </c>
-      <c r="CD35" s="103"/>
-      <c r="CE35" s="103"/>
+      <c r="CD35" s="100"/>
+      <c r="CE35" s="100"/>
     </row>
     <row r="36" s="93" customFormat="1" ht="45" spans="1:83">
       <c r="A36" s="37" t="s">
@@ -23285,7 +23264,7 @@
       <c r="BR36" s="12"/>
       <c r="BS36" s="12"/>
       <c r="BT36" s="12"/>
-      <c r="BU36" s="101"/>
+      <c r="BU36" s="100"/>
       <c r="BV36" s="12" t="s">
         <v>224</v>
       </c>
@@ -23296,12 +23275,12 @@
         <v>389</v>
       </c>
       <c r="BY36" s="12"/>
-      <c r="BZ36" s="101"/>
-      <c r="CA36" s="101"/>
-      <c r="CB36" s="103"/>
-      <c r="CC36" s="103"/>
-      <c r="CD36" s="103"/>
-      <c r="CE36" s="103"/>
+      <c r="BZ36" s="100"/>
+      <c r="CA36" s="100"/>
+      <c r="CB36" s="100"/>
+      <c r="CC36" s="100"/>
+      <c r="CD36" s="100"/>
+      <c r="CE36" s="100"/>
     </row>
     <row r="37" s="93" customFormat="1" ht="60" spans="1:83">
       <c r="A37" s="37" t="s">
@@ -23454,7 +23433,7 @@
         <v>388</v>
       </c>
       <c r="BT37" s="12"/>
-      <c r="BU37" s="101"/>
+      <c r="BU37" s="100"/>
       <c r="BV37" s="12" t="s">
         <v>224</v>
       </c>
@@ -23465,12 +23444,12 @@
         <v>389</v>
       </c>
       <c r="BY37" s="12"/>
-      <c r="BZ37" s="101"/>
-      <c r="CA37" s="101"/>
-      <c r="CB37" s="103"/>
-      <c r="CC37" s="103"/>
-      <c r="CD37" s="103"/>
-      <c r="CE37" s="103"/>
+      <c r="BZ37" s="100"/>
+      <c r="CA37" s="100"/>
+      <c r="CB37" s="100"/>
+      <c r="CC37" s="100"/>
+      <c r="CD37" s="100"/>
+      <c r="CE37" s="100"/>
     </row>
     <row r="38" s="93" customFormat="1" ht="45" spans="1:83">
       <c r="A38" s="37" t="s">
@@ -23611,7 +23590,7 @@
       <c r="BR38" s="12"/>
       <c r="BS38" s="12"/>
       <c r="BT38" s="12"/>
-      <c r="BU38" s="101"/>
+      <c r="BU38" s="100"/>
       <c r="BV38" s="12" t="s">
         <v>224</v>
       </c>
@@ -23621,21 +23600,21 @@
       <c r="BX38" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="BY38" s="102" t="s">
+      <c r="BY38" s="44" t="s">
         <v>404</v>
       </c>
-      <c r="BZ38" s="101"/>
-      <c r="CA38" s="104" t="s">
+      <c r="BZ38" s="100"/>
+      <c r="CA38" s="39" t="s">
         <v>399</v>
       </c>
-      <c r="CB38" s="102" t="s">
+      <c r="CB38" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="CC38" s="102" t="s">
+      <c r="CC38" s="44" t="s">
         <v>390</v>
       </c>
-      <c r="CD38" s="103"/>
-      <c r="CE38" s="103"/>
+      <c r="CD38" s="100"/>
+      <c r="CE38" s="100"/>
     </row>
     <row r="39" s="93" customFormat="1" ht="45" spans="1:83">
       <c r="A39" s="37" t="s">
@@ -23776,7 +23755,7 @@
       <c r="BR39" s="12"/>
       <c r="BS39" s="12"/>
       <c r="BT39" s="12"/>
-      <c r="BU39" s="101"/>
+      <c r="BU39" s="100"/>
       <c r="BV39" s="12" t="s">
         <v>224</v>
       </c>
@@ -23786,19 +23765,19 @@
       <c r="BX39" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="BY39" s="104" t="s">
+      <c r="BY39" s="39" t="s">
         <v>400</v>
       </c>
-      <c r="BZ39" s="101"/>
-      <c r="CA39" s="102"/>
-      <c r="CB39" s="102" t="s">
+      <c r="BZ39" s="100"/>
+      <c r="CA39" s="44"/>
+      <c r="CB39" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="CC39" s="102" t="s">
+      <c r="CC39" s="44" t="s">
         <v>390</v>
       </c>
-      <c r="CD39" s="103"/>
-      <c r="CE39" s="103"/>
+      <c r="CD39" s="100"/>
+      <c r="CE39" s="100"/>
     </row>
     <row r="40" s="93" customFormat="1" ht="45" spans="1:83">
       <c r="A40" s="37" t="s">
@@ -23949,19 +23928,19 @@
       <c r="BX40" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="BY40" s="104" t="s">
+      <c r="BY40" s="39" t="s">
         <v>392</v>
       </c>
       <c r="BZ40" s="12"/>
-      <c r="CA40" s="104" t="s">
+      <c r="CA40" s="39" t="s">
         <v>399</v>
       </c>
-      <c r="CB40" s="103"/>
-      <c r="CC40" s="102" t="s">
+      <c r="CB40" s="100"/>
+      <c r="CC40" s="44" t="s">
         <v>390</v>
       </c>
-      <c r="CD40" s="103"/>
-      <c r="CE40" s="103"/>
+      <c r="CD40" s="100"/>
+      <c r="CE40" s="100"/>
     </row>
     <row r="41" s="93" customFormat="1" ht="60" spans="1:83">
       <c r="A41" s="37" t="s">
@@ -24108,7 +24087,7 @@
       <c r="BR41" s="12"/>
       <c r="BS41" s="12"/>
       <c r="BT41" s="12"/>
-      <c r="BU41" s="101"/>
+      <c r="BU41" s="100"/>
       <c r="BV41" s="12" t="s">
         <v>224</v>
       </c>
@@ -24119,12 +24098,12 @@
         <v>389</v>
       </c>
       <c r="BY41" s="12"/>
-      <c r="BZ41" s="101"/>
-      <c r="CA41" s="101"/>
-      <c r="CB41" s="103"/>
-      <c r="CC41" s="103"/>
-      <c r="CD41" s="103"/>
-      <c r="CE41" s="103"/>
+      <c r="BZ41" s="100"/>
+      <c r="CA41" s="100"/>
+      <c r="CB41" s="100"/>
+      <c r="CC41" s="100"/>
+      <c r="CD41" s="100"/>
+      <c r="CE41" s="100"/>
     </row>
     <row r="42" s="14" customFormat="1" ht="52" customHeight="1" spans="1:81">
       <c r="A42" s="33" t="s">
@@ -30392,12 +30371,12 @@
         <v>391</v>
       </c>
       <c r="CA32" s="12"/>
-      <c r="CB32" s="100"/>
-      <c r="CC32" s="102" t="s">
+      <c r="CB32" s="12"/>
+      <c r="CC32" s="44" t="s">
         <v>392</v>
       </c>
-      <c r="CD32" s="100"/>
-      <c r="CE32" s="100"/>
+      <c r="CD32" s="12"/>
+      <c r="CE32" s="12"/>
     </row>
     <row r="33" s="16" customFormat="1" ht="60" spans="1:83">
       <c r="A33" s="37" t="s">
@@ -30567,12 +30546,12 @@
         <v>398</v>
       </c>
       <c r="CA33" s="12"/>
-      <c r="CB33" s="100"/>
-      <c r="CC33" s="104" t="s">
+      <c r="CB33" s="12"/>
+      <c r="CC33" s="39" t="s">
         <v>400</v>
       </c>
-      <c r="CD33" s="100"/>
-      <c r="CE33" s="100"/>
+      <c r="CD33" s="12"/>
+      <c r="CE33" s="12"/>
     </row>
     <row r="34" s="16" customFormat="1" ht="60" spans="1:83">
       <c r="A34" s="37" t="s">
@@ -30739,14 +30718,14 @@
         <v>398</v>
       </c>
       <c r="CA34" s="12"/>
-      <c r="CB34" s="100"/>
-      <c r="CC34" s="104" t="s">
+      <c r="CB34" s="12"/>
+      <c r="CC34" s="39" t="s">
         <v>400</v>
       </c>
       <c r="CD34" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="CE34" s="102" t="s">
+      <c r="CE34" s="44" t="s">
         <v>404</v>
       </c>
     </row>
@@ -30885,7 +30864,7 @@
       <c r="BT35" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="BU35" s="101" t="s">
+      <c r="BU35" s="100" t="s">
         <v>244</v>
       </c>
       <c r="BV35" s="12" t="s">
@@ -30897,19 +30876,19 @@
       <c r="BX35" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="BY35" s="102" t="s">
+      <c r="BY35" s="44" t="s">
         <v>404</v>
       </c>
-      <c r="BZ35" s="101"/>
-      <c r="CA35" s="102" t="s">
+      <c r="BZ35" s="100"/>
+      <c r="CA35" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="CB35" s="103"/>
-      <c r="CC35" s="102" t="s">
+      <c r="CB35" s="100"/>
+      <c r="CC35" s="44" t="s">
         <v>392</v>
       </c>
-      <c r="CD35" s="103"/>
-      <c r="CE35" s="103"/>
+      <c r="CD35" s="100"/>
+      <c r="CE35" s="100"/>
     </row>
     <row r="36" s="93" customFormat="1" ht="60" spans="1:83">
       <c r="A36" s="37" t="s">
@@ -31058,7 +31037,7 @@
       <c r="BR36" s="12"/>
       <c r="BS36" s="12"/>
       <c r="BT36" s="12"/>
-      <c r="BU36" s="101"/>
+      <c r="BU36" s="100"/>
       <c r="BV36" s="12" t="s">
         <v>224</v>
       </c>
@@ -31069,12 +31048,12 @@
         <v>389</v>
       </c>
       <c r="BY36" s="12"/>
-      <c r="BZ36" s="101"/>
-      <c r="CA36" s="101"/>
-      <c r="CB36" s="103"/>
-      <c r="CC36" s="103"/>
-      <c r="CD36" s="103"/>
-      <c r="CE36" s="103"/>
+      <c r="BZ36" s="100"/>
+      <c r="CA36" s="100"/>
+      <c r="CB36" s="100"/>
+      <c r="CC36" s="100"/>
+      <c r="CD36" s="100"/>
+      <c r="CE36" s="100"/>
     </row>
     <row r="37" s="93" customFormat="1" ht="60" spans="1:83">
       <c r="A37" s="37" t="s">
@@ -31227,7 +31206,7 @@
         <v>388</v>
       </c>
       <c r="BT37" s="12"/>
-      <c r="BU37" s="101"/>
+      <c r="BU37" s="100"/>
       <c r="BV37" s="12" t="s">
         <v>224</v>
       </c>
@@ -31238,12 +31217,12 @@
         <v>389</v>
       </c>
       <c r="BY37" s="12"/>
-      <c r="BZ37" s="101"/>
-      <c r="CA37" s="101"/>
-      <c r="CB37" s="103"/>
-      <c r="CC37" s="103"/>
-      <c r="CD37" s="103"/>
-      <c r="CE37" s="103"/>
+      <c r="BZ37" s="100"/>
+      <c r="CA37" s="100"/>
+      <c r="CB37" s="100"/>
+      <c r="CC37" s="100"/>
+      <c r="CD37" s="100"/>
+      <c r="CE37" s="100"/>
     </row>
     <row r="38" s="93" customFormat="1" ht="45" spans="1:83">
       <c r="A38" s="37" t="s">
@@ -31384,7 +31363,7 @@
       <c r="BR38" s="12"/>
       <c r="BS38" s="12"/>
       <c r="BT38" s="12"/>
-      <c r="BU38" s="101"/>
+      <c r="BU38" s="100"/>
       <c r="BV38" s="12" t="s">
         <v>224</v>
       </c>
@@ -31394,21 +31373,21 @@
       <c r="BX38" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="BY38" s="102" t="s">
+      <c r="BY38" s="44" t="s">
         <v>404</v>
       </c>
-      <c r="BZ38" s="101"/>
-      <c r="CA38" s="104" t="s">
+      <c r="BZ38" s="100"/>
+      <c r="CA38" s="39" t="s">
         <v>399</v>
       </c>
-      <c r="CB38" s="102" t="s">
+      <c r="CB38" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="CC38" s="102" t="s">
+      <c r="CC38" s="44" t="s">
         <v>390</v>
       </c>
-      <c r="CD38" s="103"/>
-      <c r="CE38" s="103"/>
+      <c r="CD38" s="100"/>
+      <c r="CE38" s="100"/>
     </row>
     <row r="39" s="93" customFormat="1" ht="45" spans="1:83">
       <c r="A39" s="37" t="s">
@@ -31549,7 +31528,7 @@
       <c r="BR39" s="12"/>
       <c r="BS39" s="12"/>
       <c r="BT39" s="12"/>
-      <c r="BU39" s="101"/>
+      <c r="BU39" s="100"/>
       <c r="BV39" s="12" t="s">
         <v>224</v>
       </c>
@@ -31559,19 +31538,19 @@
       <c r="BX39" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="BY39" s="104" t="s">
+      <c r="BY39" s="39" t="s">
         <v>400</v>
       </c>
-      <c r="BZ39" s="101"/>
-      <c r="CA39" s="102"/>
-      <c r="CB39" s="102" t="s">
+      <c r="BZ39" s="100"/>
+      <c r="CA39" s="44"/>
+      <c r="CB39" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="CC39" s="102" t="s">
+      <c r="CC39" s="44" t="s">
         <v>390</v>
       </c>
-      <c r="CD39" s="103"/>
-      <c r="CE39" s="103"/>
+      <c r="CD39" s="100"/>
+      <c r="CE39" s="100"/>
     </row>
     <row r="40" s="93" customFormat="1" ht="60" spans="1:83">
       <c r="A40" s="37" t="s">
@@ -31722,19 +31701,19 @@
       <c r="BX40" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="BY40" s="104" t="s">
+      <c r="BY40" s="39" t="s">
         <v>392</v>
       </c>
       <c r="BZ40" s="12"/>
-      <c r="CA40" s="104" t="s">
+      <c r="CA40" s="39" t="s">
         <v>399</v>
       </c>
-      <c r="CB40" s="103"/>
-      <c r="CC40" s="102" t="s">
+      <c r="CB40" s="100"/>
+      <c r="CC40" s="44" t="s">
         <v>390</v>
       </c>
-      <c r="CD40" s="103"/>
-      <c r="CE40" s="103"/>
+      <c r="CD40" s="100"/>
+      <c r="CE40" s="100"/>
     </row>
     <row r="41" s="93" customFormat="1" ht="60" spans="1:83">
       <c r="A41" s="37" t="s">
@@ -31881,7 +31860,7 @@
       <c r="BR41" s="12"/>
       <c r="BS41" s="12"/>
       <c r="BT41" s="12"/>
-      <c r="BU41" s="101"/>
+      <c r="BU41" s="100"/>
       <c r="BV41" s="12" t="s">
         <v>224</v>
       </c>
@@ -31892,12 +31871,12 @@
         <v>389</v>
       </c>
       <c r="BY41" s="12"/>
-      <c r="BZ41" s="101"/>
-      <c r="CA41" s="101"/>
-      <c r="CB41" s="103"/>
-      <c r="CC41" s="103"/>
-      <c r="CD41" s="103"/>
-      <c r="CE41" s="103"/>
+      <c r="BZ41" s="100"/>
+      <c r="CA41" s="100"/>
+      <c r="CB41" s="100"/>
+      <c r="CC41" s="100"/>
+      <c r="CD41" s="100"/>
+      <c r="CE41" s="100"/>
     </row>
     <row r="42" s="14" customFormat="1" ht="52" customHeight="1" spans="1:81">
       <c r="A42" s="33" t="s">
@@ -33424,9 +33403,9 @@
   <dimension ref="A1:CC61"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="$A22:$XFD31"/>
+      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15"/>
